--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="240" yWindow="288" windowWidth="14952" windowHeight="8700"/>
   </bookViews>
   <sheets>
-    <sheet name="август" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Выработка формокомплектов" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -32,8 +32,8 @@
     <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">август!$A$3:$L$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">август!$A$1:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -96,9 +96,6 @@
     <t>Договор БПИ №396 от 04.06.2019 г.</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.09.2019 г.</t>
-  </si>
-  <si>
     <t>«KEPIL 0,5» тип XХI-B-28-2-500-29</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>"Франкония 0,5 л." X-A-26-1-500 (Чистовые формы</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.10.2019 г.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +584,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,21 +611,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -681,29 +660,29 @@
     <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,9 +697,12 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,13 +715,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,12 +758,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,12 +790,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>645420</v>
-          </cell>
-          <cell r="F32">
-            <v>851238</v>
+        <row r="31">
+          <cell r="E31">
+            <v>613088</v>
+          </cell>
+          <cell r="F31">
+            <v>721402</v>
           </cell>
         </row>
       </sheetData>
@@ -840,12 +816,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>22375514</v>
-          </cell>
-          <cell r="F33">
-            <v>24808144</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -866,17 +842,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>5217384</v>
-          </cell>
-          <cell r="F32">
-            <v>14336645</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -892,17 +868,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>613088</v>
-          </cell>
-          <cell r="F31">
-            <v>721402</v>
+        <row r="32">
+          <cell r="E32">
+            <v>6615167</v>
+          </cell>
+          <cell r="F32">
+            <v>15776459</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -918,17 +894,69 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>449036</v>
-          </cell>
-          <cell r="F31">
-            <v>524968</v>
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1810428</v>
+          </cell>
+          <cell r="F32">
+            <v>1922742</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -946,10 +974,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>629376</v>
+            <v>449036</v>
           </cell>
           <cell r="F31">
-            <v>2858476</v>
+            <v>524968</v>
           </cell>
         </row>
       </sheetData>
@@ -970,12 +998,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>3036010</v>
-          </cell>
-          <cell r="F30">
-            <v>3328413</v>
+        <row r="32">
+          <cell r="E32">
+            <v>645420</v>
+          </cell>
+          <cell r="F32">
+            <v>851238</v>
           </cell>
         </row>
       </sheetData>
@@ -998,10 +1026,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>1820497</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>1923608</v>
           </cell>
         </row>
       </sheetData>
@@ -1024,10 +1052,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>3143070</v>
+            <v>629376</v>
           </cell>
           <cell r="F31">
-            <v>6932011</v>
+            <v>2858476</v>
           </cell>
         </row>
       </sheetData>
@@ -1048,12 +1076,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4126964</v>
+          </cell>
+          <cell r="F30">
+            <v>4454263</v>
           </cell>
         </row>
       </sheetData>
@@ -1074,12 +1102,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1820497</v>
-          </cell>
-          <cell r="F31">
-            <v>1923608</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1100,12 +1128,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>5336580</v>
-          </cell>
-          <cell r="F30">
-            <v>12855955</v>
+        <row r="31">
+          <cell r="E31">
+            <v>3143070</v>
+          </cell>
+          <cell r="F31">
+            <v>6932011</v>
           </cell>
         </row>
       </sheetData>
@@ -1126,12 +1154,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4294048</v>
+          </cell>
+          <cell r="F31">
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
@@ -1438,7 +1466,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1458,40 +1486,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="63.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1500,26 +1528,26 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1532,1114 +1560,1118 @@
       <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A5" s="17">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A5" s="10">
         <f>A4+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13">
         <f>100%-F5/16800000</f>
         <v>1</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="14">
         <f>18200000-F5</f>
         <v>18200000</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A6" s="17">
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A6" s="10">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="25">
         <f>100%-F6/16800000</f>
         <v>1</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="26">
         <f>16800000-F6</f>
         <v>16800000</v>
       </c>
-      <c r="I6" s="30" t="e">
+      <c r="I6" s="23" t="e">
         <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A7" s="17">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A7" s="10">
         <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="25">
         <f>100%-F7/19600000</f>
         <v>1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="26">
         <f>18900000-F7</f>
         <v>18900000</v>
       </c>
-      <c r="I7" s="30" t="e">
+      <c r="I7" s="23" t="e">
         <f>E7/F7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="13.8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18"/>
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="13.8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" s="29" customFormat="1" ht="13.8">
-      <c r="A9" s="17">
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="13.8">
+      <c r="A9" s="10">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23">
-        <f>[12]Лист1!$E$31</f>
+      <c r="B9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="16">
+        <f>[1]Лист1!$E$31</f>
         <v>613088</v>
       </c>
-      <c r="F9" s="23">
-        <f>[12]Лист1!$F$31</f>
+      <c r="F9" s="16">
+        <f>[1]Лист1!$F$31</f>
         <v>721402</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="25">
         <f>100%-F9/19600000</f>
         <v>0.96319377551020413</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="26">
         <f>18900000-F9</f>
         <v>18178598</v>
       </c>
-      <c r="I9" s="30">
-        <f>E9/F9</f>
+      <c r="I9" s="23">
+        <f t="shared" ref="I9:I34" si="0">E9/F9</f>
         <v>0.84985625213126659</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="11"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" s="29" customFormat="1" ht="13.8">
-      <c r="A10" s="47">
-        <f>A9+1</f>
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="13.8">
+      <c r="A10" s="40">
+        <f t="shared" ref="A10:A34" si="1">A9+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23">
-        <f>[13]Лист1!$E$31</f>
+      <c r="B10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16">
+        <f>[2]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F10" s="23">
-        <f>[13]Лист1!$F$31</f>
+      <c r="F10" s="16">
+        <f>[2]Лист1!$F$31</f>
         <v>524968</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="25">
         <f>100%-F10/15400000</f>
         <v>0.96591116883116879</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="26">
         <f>15400000-F10</f>
         <v>14875032</v>
       </c>
-      <c r="I10" s="30">
-        <f>E10/F10</f>
+      <c r="I10" s="23">
+        <f t="shared" si="0"/>
         <v>0.85535880282226728</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A11" s="17">
-        <f>A10+1</f>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A11" s="10">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>557856</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="16">
         <v>668458</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="25">
         <f>100%-F11/18900000</f>
         <v>0.96463185185185185</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="26">
         <f>12600000-F11</f>
         <v>11931542</v>
       </c>
-      <c r="I11" s="30">
-        <f>E11/F11</f>
+      <c r="I11" s="23">
+        <f t="shared" si="0"/>
         <v>0.83454158675638557</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A12" s="17">
-        <f>A11+1</f>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A12" s="10">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="16">
         <v>515328</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="16">
         <v>670208</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="25">
         <f>100%-F12/18200000</f>
         <v>0.96317538461538466</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="26">
         <f>12600000-F12</f>
         <v>11929792</v>
       </c>
-      <c r="I12" s="30">
-        <f>E12/F12</f>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
         <v>0.76890756302521013</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="18" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" s="29" customFormat="1" ht="30.6">
-      <c r="A13" s="17">
-        <f>A12+1</f>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="30.6">
+      <c r="A13" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="16">
+        <f>[15]Лист1!$E$32</f>
+        <v>1810428</v>
+      </c>
+      <c r="F13" s="16">
+        <f>[15]Лист1!$F$32</f>
+        <v>1922742</v>
+      </c>
+      <c r="G13" s="25">
+        <f>100%-F13/15400000</f>
+        <v>0.87514662337662341</v>
+      </c>
+      <c r="H13" s="26">
+        <f>12600000-F13</f>
+        <v>10677258</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.94158654671297548</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A14" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16">
         <v>763476</v>
       </c>
-      <c r="F13" s="23">
-        <v>789738</v>
-      </c>
-      <c r="G13" s="32">
-        <f>100%-F13/15400000</f>
-        <v>0.94871831168831167</v>
-      </c>
-      <c r="H13" s="33">
-        <f>12600000-F13</f>
-        <v>11810262</v>
-      </c>
-      <c r="I13" s="30">
-        <f>E13/F13</f>
-        <v>0.96674593346147708</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A14" s="17">
-        <f>A13+1</f>
-        <v>9</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23">
-        <v>763476</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="F14" s="16">
         <v>975569</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="25">
         <f>100%-F14/16800000</f>
         <v>0.94193041666666666</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="26">
         <f>16800000-F14</f>
         <v>15824431</v>
       </c>
-      <c r="I14" s="30">
-        <f>E14/F14</f>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
         <v>0.78259559293089465</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A15" s="17">
-        <f>A14+1</f>
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A15" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>386370</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="12">
         <v>996472</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="13">
         <f>100%-F15/16800000</f>
         <v>0.94068619047619051</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="14">
         <f>12600000-F15</f>
         <v>11603528</v>
       </c>
-      <c r="I15" s="30">
-        <f>E15/F15</f>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
         <v>0.38773793945038093</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A16" s="47">
-        <f>A15+1</f>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A16" s="40">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="23">
-        <f>[1]Лист1!$E$32</f>
+      <c r="E16" s="16">
+        <f>[3]Лист1!$E$32</f>
         <v>645420</v>
       </c>
-      <c r="F16" s="23">
-        <f>[1]Лист1!$F$32</f>
+      <c r="F16" s="16">
+        <f>[3]Лист1!$F$32</f>
         <v>851238</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="25">
         <f>100%-F16/14000000</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="26">
         <f>14000000-F16</f>
         <v>13148762</v>
       </c>
-      <c r="I16" s="30">
-        <f>E16/F16</f>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
         <v>0.75821333164167948</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="26" customFormat="1" ht="27.6">
-      <c r="A17" s="47">
-        <f>A16+1</f>
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="27.6">
+      <c r="A17" s="40">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="19">
-        <f>[7]Лист1!$E$31</f>
+      <c r="E17" s="12">
+        <f>[4]Лист1!$E$31</f>
         <v>1820497</v>
       </c>
-      <c r="F17" s="19">
-        <f>[7]Лист1!$F$31</f>
+      <c r="F17" s="12">
+        <f>[4]Лист1!$F$31</f>
         <v>1923608</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="37">
         <f>100%-F17/16800000</f>
         <v>0.88549952380952379</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="38">
         <f>16800000-F17</f>
         <v>14876392</v>
       </c>
-      <c r="I17" s="30">
-        <f>E17/F17</f>
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
         <v>0.94639708298156378</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" ht="31.2" thickBot="1">
-      <c r="A18" s="47">
-        <f>A17+1</f>
+      <c r="J17" s="15"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="31.2" thickBot="1">
+      <c r="A18" s="40">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="68">
-        <f>[2]Лист1!$E$31</f>
+      <c r="E18" s="41">
+        <f>[5]Лист1!$E$31</f>
         <v>629376</v>
       </c>
-      <c r="F18" s="68">
-        <f>[2]Лист1!$F$31</f>
+      <c r="F18" s="41">
+        <f>[5]Лист1!$F$31</f>
         <v>2858476</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="37">
         <f>100%-F18/16800000</f>
         <v>0.82985261904761909</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="38">
         <f>16800000-F18</f>
         <v>13941524</v>
       </c>
-      <c r="I18" s="30">
-        <f>E18/F18</f>
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
         <v>0.2201788645418048</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A19" s="47">
-        <f>A18+1</f>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A19" s="40">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="43">
-        <f>[3]Лист1!$E$30</f>
-        <v>3036010</v>
-      </c>
-      <c r="F19" s="43">
-        <f>[3]Лист1!$F$30</f>
-        <v>3328413</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="E19" s="36">
+        <f>[6]Лист1!$E$30</f>
+        <v>4126964</v>
+      </c>
+      <c r="F19" s="36">
+        <f>[6]Лист1!$F$30</f>
+        <v>4454263</v>
+      </c>
+      <c r="G19" s="17">
         <f>100%-F19/18900000</f>
-        <v>0.82389349206349205</v>
-      </c>
-      <c r="H19" s="25">
+        <v>0.76432470899470895</v>
+      </c>
+      <c r="H19" s="18">
         <f>18900000-F19</f>
-        <v>15571587</v>
-      </c>
-      <c r="I19" s="30">
-        <f>E19/F19</f>
-        <v>0.91214942376441865</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="18" t="s">
+        <v>14445737</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92652005505736867</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A20" s="17">
-        <f>A19+1</f>
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A20" s="10">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16">
         <v>3080000</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="17">
         <f>100%-F20/14000000</f>
         <v>0.78</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="18">
         <f>14000000-F20</f>
         <v>10920000</v>
       </c>
-      <c r="I20" s="30">
-        <f>E20/F20</f>
+      <c r="I20" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A21" s="17">
-        <f>A20+1</f>
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A21" s="10">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21">
+      <c r="E21" s="12"/>
+      <c r="F21" s="14">
         <v>4055359</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="37">
         <f>100%-F21/16800000</f>
         <v>0.75860958333333328</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="38">
         <f>18900000-F21</f>
         <v>14844641</v>
       </c>
-      <c r="I21" s="30">
-        <f>E21/F21</f>
+      <c r="I21" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="40" customFormat="1" ht="30.6">
-      <c r="A22" s="17">
-        <f>A21+1</f>
+    <row r="22" spans="1:12" s="33" customFormat="1" ht="30.6">
+      <c r="A22" s="10">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16">
         <v>5511547</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="17">
         <f>100%-F22/16800000</f>
         <v>0.67193172619047625</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="18">
         <f>12000000-F22</f>
         <v>6488453</v>
       </c>
-      <c r="I22" s="30">
-        <f>E22/F22</f>
+      <c r="I22" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="18" t="s">
+      <c r="J22" s="15"/>
+      <c r="K22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A23" s="17">
-        <f>A22+1</f>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A23" s="10">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="12">
         <v>2131080</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="14">
         <v>5638494</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="39">
         <f>100%-F23/16800000</f>
         <v>0.66437535714285723</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="38">
         <f>16800000-F23</f>
         <v>11161506</v>
       </c>
-      <c r="I23" s="30">
-        <f>E23/F23</f>
+      <c r="I23" s="23">
+        <f t="shared" si="0"/>
         <v>0.37795198505132754</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="18" t="s">
+      <c r="J23" s="15"/>
+      <c r="K23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A24" s="17">
-        <f>A23+1</f>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A24" s="10">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="16">
         <v>6000000</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="16">
         <v>6336598</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="17">
         <f>100%-F24/16800000</f>
         <v>0.62282154761904762</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="18">
         <f>16800000-F24</f>
         <v>10463402</v>
       </c>
-      <c r="I24" s="30">
-        <f>E24/F24</f>
+      <c r="I24" s="23">
+        <f t="shared" si="0"/>
         <v>0.94688032916085252</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="18" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A25" s="47">
-        <f>A24+1</f>
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A25" s="40">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="23">
-        <f>[6]Лист1!$E$37</f>
+      <c r="E25" s="16">
+        <f>[7]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
-      <c r="F25" s="23">
-        <f>[6]Лист1!$F$37</f>
+      <c r="F25" s="16">
+        <f>[7]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="17">
         <f>100%-F25/18900000</f>
         <v>0.51458904761904756</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="18">
         <f>18900000-F25</f>
         <v>9725733</v>
       </c>
-      <c r="I25" s="30">
-        <f>E25/F25</f>
+      <c r="I25" s="23">
+        <f t="shared" si="0"/>
         <v>0.90691561516576746</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="18" t="s">
+      <c r="J25" s="15"/>
+      <c r="K25" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A26" s="47">
-        <f>A25+1</f>
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A26" s="40">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="23">
-        <f>[5]Лист1!$E$31</f>
+      <c r="E26" s="16">
+        <f>[8]Лист1!$E$31</f>
         <v>3143070</v>
       </c>
-      <c r="F26" s="23">
-        <f>[5]Лист1!$F$31</f>
+      <c r="F26" s="16">
+        <f>[8]Лист1!$F$31</f>
         <v>6932011</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="17">
         <f>100%-F26/14000000</f>
         <v>0.50485635714285715</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="18">
         <f>14000000-F26</f>
         <v>7067989</v>
       </c>
-      <c r="I26" s="30">
-        <f>E26/F26</f>
+      <c r="I26" s="23">
+        <f t="shared" si="0"/>
         <v>0.45341387946441514</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="18" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A27" s="47">
-        <f>A26+1</f>
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A27" s="40">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="23">
-        <f>[4]Лист1!$E$31</f>
+      <c r="E27" s="16">
+        <f>[9]Лист1!$E$31</f>
         <v>4294048</v>
       </c>
-      <c r="F27" s="23">
-        <f>[4]Лист1!$F$31</f>
+      <c r="F27" s="16">
+        <f>[9]Лист1!$F$31</f>
         <v>8845677</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="17">
         <f>100%-F27/16800000</f>
         <v>0.47347160714285719</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="18">
         <f>16800000-F27</f>
         <v>7954323</v>
       </c>
-      <c r="I27" s="30">
-        <f>E27/F27</f>
+      <c r="I27" s="23">
+        <f t="shared" si="0"/>
         <v>0.48544028908132186</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="18" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A28" s="17">
-        <f>A27+1</f>
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A28" s="10">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="12">
         <v>8343654</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="12">
         <v>9257311</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="37">
         <f>100%-F28/16800000</f>
         <v>0.44896958333333337</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="38">
         <f>16800000-F28</f>
         <v>7542689</v>
       </c>
-      <c r="I28" s="30">
-        <f>E28/F28</f>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
         <v>0.90130427723558171</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="18" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="28"/>
-    </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A29" s="17">
-        <f>A28+1</f>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A29" s="10">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16">
         <v>10659414</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="17">
         <f>100%-F29/16800000</f>
         <v>0.36551107142857142</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="18">
         <f>24000000-F29</f>
         <v>13340586</v>
       </c>
-      <c r="I29" s="30">
-        <f>E29/F29</f>
+      <c r="I29" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="18" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A30" s="47">
-        <f>A29+1</f>
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A30" s="40">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="19">
-        <f>[8]Лист1!$E$30</f>
-        <v>5336580</v>
-      </c>
-      <c r="F30" s="19">
-        <f>[8]Лист1!$F$30</f>
-        <v>12855955</v>
-      </c>
-      <c r="G30" s="44">
+      <c r="E30" s="12">
+        <f>[10]Лист1!$E$30</f>
+        <v>6849070</v>
+      </c>
+      <c r="F30" s="12">
+        <f>[10]Лист1!$F$30</f>
+        <v>14503171</v>
+      </c>
+      <c r="G30" s="37">
         <f>100%-F30/19600000</f>
-        <v>0.34408392857142855</v>
-      </c>
-      <c r="H30" s="45">
+        <v>0.26004229591836736</v>
+      </c>
+      <c r="H30" s="38">
         <f>19600000-F30</f>
-        <v>6744045</v>
-      </c>
-      <c r="I30" s="30">
-        <f>E30/F30</f>
-        <v>0.41510568448629448</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="18" t="s">
+        <v>5096829</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="0"/>
+        <v>0.47224637977446449</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A31" s="47">
-        <f>A30+1</f>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A31" s="40">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="19">
-        <f>[9]Лист1!$E$39</f>
+      <c r="E31" s="12">
+        <f>[11]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
-      <c r="F31" s="19">
-        <f>[9]Лист1!$F$39</f>
+      <c r="F31" s="12">
+        <f>[11]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="37">
         <f>100%-F31/18200000</f>
         <v>0.32799769230769227</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="38">
         <f>18200000-F31</f>
         <v>5969558</v>
       </c>
-      <c r="I31" s="30">
-        <f>E31/F31</f>
+      <c r="I31" s="23">
+        <f t="shared" si="0"/>
         <v>0.91973258202769781</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="18" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:12" s="26" customFormat="1" ht="30.6">
-      <c r="A32" s="17">
-        <f>A31+1</f>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A32" s="40">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="23">
-        <v>11941970</v>
-      </c>
-      <c r="F32" s="23">
-        <v>15330370</v>
-      </c>
-      <c r="G32" s="24">
+      <c r="E32" s="16">
+        <f>[14]Лист1!$E$30</f>
+        <v>13190994</v>
+      </c>
+      <c r="F32" s="16">
+        <f>[14]Лист1!$F$30</f>
+        <v>16642877</v>
+      </c>
+      <c r="G32" s="17">
         <f>100%-F32/21000000</f>
-        <v>0.26998238095238092</v>
-      </c>
-      <c r="H32" s="25">
+        <v>0.20748204761904765</v>
+      </c>
+      <c r="H32" s="18">
         <f>21000000-F32</f>
-        <v>5669630</v>
-      </c>
-      <c r="I32" s="30">
-        <f>E32/F32</f>
-        <v>0.77897467575798884</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="18" t="s">
+        <v>4357123</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7925909684966127</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30.6">
-      <c r="A33" s="17">
-        <f>A32+1</f>
+      <c r="A33" s="40">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="19">
-        <f>[11]Лист1!$E$32</f>
-        <v>5217384</v>
-      </c>
-      <c r="F33" s="19">
-        <f>[11]Лист1!$F$32</f>
-        <v>14336645</v>
-      </c>
-      <c r="G33" s="44">
+      <c r="E33" s="12">
+        <f>[12]Лист1!$E$32</f>
+        <v>6615167</v>
+      </c>
+      <c r="F33" s="12">
+        <f>[12]Лист1!$F$32</f>
+        <v>15776459</v>
+      </c>
+      <c r="G33" s="37">
         <f>100%-F33/18200000</f>
-        <v>0.2122722527472527</v>
-      </c>
-      <c r="H33" s="45">
+        <v>0.13316159340659339</v>
+      </c>
+      <c r="H33" s="38">
         <f>18200000-F33</f>
-        <v>3863355</v>
-      </c>
-      <c r="I33" s="30">
-        <f>E33/F33</f>
-        <v>0.36391945256369257</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="18" t="s">
+        <v>2423541</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="0"/>
+        <v>0.4193061953889653</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="31"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" ht="30.6">
-      <c r="A34" s="34">
-        <f>A33+1</f>
+      <c r="A34" s="27">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="37">
-        <f>[10]Лист1!$E$33</f>
-        <v>22375514</v>
-      </c>
-      <c r="F34" s="37">
-        <f>[10]Лист1!$F$33</f>
-        <v>24808144</v>
-      </c>
-      <c r="G34" s="41">
+      <c r="E34" s="30">
+        <f>[13]Лист1!$E$33</f>
+        <v>24278204</v>
+      </c>
+      <c r="F34" s="30">
+        <f>[13]Лист1!$F$33</f>
+        <v>26782614</v>
+      </c>
+      <c r="G34" s="34">
         <f>100%-F34/16800000</f>
-        <v>-0.47667523809523815</v>
-      </c>
-      <c r="H34" s="42">
+        <v>-0.59420321428571432</v>
+      </c>
+      <c r="H34" s="35">
         <f>16800000-F34</f>
-        <v>-8008144</v>
-      </c>
-      <c r="I34" s="38">
-        <f>E34/F34</f>
-        <v>0.9019422815346444</v>
-      </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="35" t="s">
+        <v>-9982614</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" si="0"/>
+        <v>0.90649120358453439</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="K34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="40"/>
+      <c r="L34" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
@@ -2666,95 +2698,4 @@
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="67"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="67"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -30,6 +30,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
@@ -45,9 +46,6 @@
     <t>№п/п</t>
   </si>
   <si>
-    <t>Количество выпущеной продукции</t>
-  </si>
-  <si>
     <t>Остаточный ресурс относительно поставленной задачи</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>III-2-82-450-1</t>
   </si>
   <si>
-    <t>«Кристалл 0,7» тип XXI-B-28-2.1в-700</t>
-  </si>
-  <si>
     <t>«Сваяк 0,7» тип XXI-КПМ-30-1-700</t>
   </si>
   <si>
@@ -180,10 +175,16 @@
     <t>"Франкония 0,75 л." X-28MCA-750</t>
   </si>
   <si>
-    <t>"Франкония 0,5 л." X-A-26-1-500 (Чистовые формы</t>
-  </si>
-  <si>
     <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.10.2019 г.</t>
+  </si>
+  <si>
+    <t>"Франкония 0,5 л." X-A-26-1-500 (Чистовые формы)</t>
+  </si>
+  <si>
+    <t>«Кристалл 0,7» тип XXI-B-28-2.1б-700</t>
+  </si>
+  <si>
+    <t>Приблизительное количество выпущеной продукции</t>
   </si>
 </sst>
 </file>
@@ -700,9 +701,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,6 +756,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,12 +817,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4294048</v>
+          </cell>
+          <cell r="F31">
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
@@ -842,12 +843,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -868,17 +869,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>6615167</v>
-          </cell>
-          <cell r="F32">
-            <v>15776459</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -894,12 +895,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
@@ -920,17 +921,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>13190994</v>
-          </cell>
-          <cell r="F30">
-            <v>16642877</v>
+        <row r="32">
+          <cell r="E32">
+            <v>6615167</v>
+          </cell>
+          <cell r="F32">
+            <v>15776459</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -946,17 +947,43 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>1810428</v>
-          </cell>
-          <cell r="F32">
-            <v>1922742</v>
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="30">
+          <cell r="E30">
+            <v>4648350</v>
+          </cell>
+          <cell r="F30">
+            <v>7162438</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1000,15 +1027,15 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>645420</v>
+            <v>1810428</v>
           </cell>
           <cell r="F32">
-            <v>851238</v>
+            <v>1922742</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1024,12 +1051,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1820497</v>
-          </cell>
-          <cell r="F31">
-            <v>1923608</v>
+        <row r="32">
+          <cell r="E32">
+            <v>645420</v>
+          </cell>
+          <cell r="F32">
+            <v>851238</v>
           </cell>
         </row>
       </sheetData>
@@ -1052,10 +1079,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>629376</v>
+            <v>1820497</v>
           </cell>
           <cell r="F31">
-            <v>2858476</v>
+            <v>1923608</v>
           </cell>
         </row>
       </sheetData>
@@ -1076,12 +1103,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4126964</v>
-          </cell>
-          <cell r="F30">
-            <v>4454263</v>
+        <row r="31">
+          <cell r="E31">
+            <v>629376</v>
+          </cell>
+          <cell r="F31">
+            <v>2858476</v>
           </cell>
         </row>
       </sheetData>
@@ -1102,12 +1129,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4126964</v>
+          </cell>
+          <cell r="F30">
+            <v>4454263</v>
           </cell>
         </row>
       </sheetData>
@@ -1128,12 +1155,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3143070</v>
-          </cell>
-          <cell r="F31">
-            <v>6932011</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1156,10 +1183,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>3143070</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>6932011</v>
           </cell>
         </row>
       </sheetData>
@@ -1463,16 +1490,16 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.21875" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="28.109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
@@ -1486,83 +1513,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="A1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="63.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="J3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" s="22" customFormat="1" ht="30.6">
@@ -1571,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1592,7 +1619,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="15"/>
       <c r="K5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="24"/>
     </row>
@@ -1602,13 +1629,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="16">
         <v>0</v>
@@ -1630,7 +1657,7 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="19"/>
     </row>
@@ -1640,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1668,63 +1695,85 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="22" customFormat="1" ht="13.8">
-      <c r="A8" s="10"/>
+      <c r="A8" s="40">
+        <f>A7+1</f>
+        <v>4</v>
+      </c>
       <c r="B8" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="23"/>
+      <c r="E8" s="16">
+        <f>[2]Лист1!$E$31</f>
+        <v>449036</v>
+      </c>
+      <c r="F8" s="16">
+        <f>[2]Лист1!$F$31</f>
+        <v>524968</v>
+      </c>
+      <c r="G8" s="25">
+        <f>100%-F8/15400000</f>
+        <v>0.96591116883116879</v>
+      </c>
+      <c r="H8" s="26">
+        <f>15400000-F8</f>
+        <v>14875032</v>
+      </c>
+      <c r="I8" s="23">
+        <f>E8/F8</f>
+        <v>0.85535880282226728</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="11"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="13.8">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="30.6">
       <c r="A9" s="10">
-        <f>A7+1</f>
-        <v>4</v>
+        <f>A8+1</f>
+        <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="16">
-        <f>[1]Лист1!$E$31</f>
-        <v>613088</v>
+        <v>557856</v>
       </c>
       <c r="F9" s="16">
-        <f>[1]Лист1!$F$31</f>
-        <v>721402</v>
+        <v>668458</v>
       </c>
       <c r="G9" s="25">
-        <f>100%-F9/19600000</f>
-        <v>0.96319377551020413</v>
+        <f>100%-F9/18900000</f>
+        <v>0.96463185185185185</v>
       </c>
       <c r="H9" s="26">
-        <f>18900000-F9</f>
-        <v>18178598</v>
+        <f>12600000-F9</f>
+        <v>11931542</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" ref="I9:I34" si="0">E9/F9</f>
-        <v>0.84985625213126659</v>
+        <f>E9/F9</f>
+        <v>0.83454158675638557</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="11"/>
-      <c r="L9"/>
+      <c r="K9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" s="22" customFormat="1" ht="13.8">
-      <c r="A10" s="40">
-        <f t="shared" ref="A10:A34" si="1">A9+1</f>
+      <c r="A10" s="10">
+        <f>A8+1</f>
         <v>5</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1733,357 +1782,354 @@
       <c r="C10" s="11"/>
       <c r="D10" s="20"/>
       <c r="E10" s="16">
-        <f>[2]Лист1!$E$31</f>
-        <v>449036</v>
+        <f>[1]Лист1!$E$31</f>
+        <v>613088</v>
       </c>
       <c r="F10" s="16">
-        <f>[2]Лист1!$F$31</f>
-        <v>524968</v>
+        <f>[1]Лист1!$F$31</f>
+        <v>721402</v>
       </c>
       <c r="G10" s="25">
-        <f>100%-F10/15400000</f>
-        <v>0.96591116883116879</v>
+        <f>100%-F10/19600000</f>
+        <v>0.96319377551020413</v>
       </c>
       <c r="H10" s="26">
-        <f>15400000-F10</f>
-        <v>14875032</v>
+        <f>18900000-F10</f>
+        <v>18178598</v>
       </c>
       <c r="I10" s="23">
-        <f t="shared" si="0"/>
-        <v>0.85535880282226728</v>
+        <f>E10/F10</f>
+        <v>0.84985625213126659</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="19"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="22" customFormat="1" ht="30.6">
       <c r="A11" s="10">
-        <f t="shared" si="1"/>
+        <f>A10+1</f>
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="16">
-        <v>557856</v>
+        <v>515328</v>
       </c>
       <c r="F11" s="16">
-        <v>668458</v>
+        <v>670208</v>
       </c>
       <c r="G11" s="25">
-        <f>100%-F11/18900000</f>
-        <v>0.96463185185185185</v>
+        <f>100%-F11/18200000</f>
+        <v>0.96317538461538466</v>
       </c>
       <c r="H11" s="26">
         <f>12600000-F11</f>
-        <v>11931542</v>
+        <v>11929792</v>
       </c>
       <c r="I11" s="23">
-        <f t="shared" si="0"/>
-        <v>0.83454158675638557</v>
+        <f>E11/F11</f>
+        <v>0.76890756302521013</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="22" customFormat="1" ht="30.6">
       <c r="A12" s="10">
-        <f t="shared" si="1"/>
+        <f>A11+1</f>
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="16">
-        <v>515328</v>
+        <v>763476</v>
       </c>
       <c r="F12" s="16">
-        <v>670208</v>
+        <v>975569</v>
       </c>
       <c r="G12" s="25">
-        <f>100%-F12/18200000</f>
-        <v>0.96317538461538466</v>
+        <f>100%-F12/16800000</f>
+        <v>0.94193041666666666</v>
       </c>
       <c r="H12" s="26">
-        <f>12600000-F12</f>
-        <v>11929792</v>
+        <f>16800000-F12</f>
+        <v>15824431</v>
       </c>
       <c r="I12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.76890756302521013</v>
+        <f>E12/F12</f>
+        <v>0.78259559293089465</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12"/>
+        <v>11</v>
+      </c>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" s="22" customFormat="1" ht="30.6">
       <c r="A13" s="10">
-        <f t="shared" si="1"/>
+        <f>A12+1</f>
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="16">
-        <f>[15]Лист1!$E$32</f>
-        <v>1810428</v>
-      </c>
-      <c r="F13" s="16">
-        <f>[15]Лист1!$F$32</f>
-        <v>1922742</v>
-      </c>
-      <c r="G13" s="25">
-        <f>100%-F13/15400000</f>
-        <v>0.87514662337662341</v>
-      </c>
-      <c r="H13" s="26">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12">
+        <v>386370</v>
+      </c>
+      <c r="F13" s="12">
+        <v>996472</v>
+      </c>
+      <c r="G13" s="13">
+        <f>100%-F13/16800000</f>
+        <v>0.94068619047619051</v>
+      </c>
+      <c r="H13" s="14">
         <f>12600000-F13</f>
-        <v>10677258</v>
+        <v>11603528</v>
       </c>
       <c r="I13" s="23">
-        <f t="shared" si="0"/>
-        <v>0.94158654671297548</v>
+        <f>E13/F13</f>
+        <v>0.38773793945038093</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A14" s="40">
+        <f>A13+1</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A14" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" s="16">
-        <v>763476</v>
+        <f>[4]Лист1!$E$32</f>
+        <v>645420</v>
       </c>
       <c r="F14" s="16">
-        <v>975569</v>
+        <f>[4]Лист1!$F$32</f>
+        <v>851238</v>
       </c>
       <c r="G14" s="25">
-        <f>100%-F14/16800000</f>
-        <v>0.94193041666666666</v>
+        <f>100%-F14/14000000</f>
+        <v>0.93919728571428573</v>
       </c>
       <c r="H14" s="26">
-        <f>16800000-F14</f>
-        <v>15824431</v>
+        <f>14000000-F14</f>
+        <v>13148762</v>
       </c>
       <c r="I14" s="23">
-        <f t="shared" si="0"/>
-        <v>0.78259559293089465</v>
+        <f>E14/F14</f>
+        <v>0.75821333164167948</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="27.6">
+      <c r="A15" s="40">
+        <f>A14+1</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="12">
-        <v>386370</v>
+        <f>[5]Лист1!$E$31</f>
+        <v>1820497</v>
       </c>
       <c r="F15" s="12">
-        <v>996472</v>
+        <f>[5]Лист1!$F$31</f>
+        <v>1923608</v>
       </c>
       <c r="G15" s="13">
         <f>100%-F15/16800000</f>
-        <v>0.94068619047619051</v>
+        <v>0.88549952380952379</v>
       </c>
       <c r="H15" s="14">
-        <f>12600000-F15</f>
-        <v>11603528</v>
+        <f>16800000-F15</f>
+        <v>14876392</v>
       </c>
       <c r="I15" s="23">
-        <f t="shared" si="0"/>
-        <v>0.38773793945038093</v>
+        <f>E15/F15</f>
+        <v>0.94639708298156378</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A16" s="40">
-        <f t="shared" si="1"/>
+      <c r="A16" s="10">
+        <f>A15+1</f>
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="16">
         <f>[3]Лист1!$E$32</f>
-        <v>645420</v>
+        <v>1810428</v>
       </c>
       <c r="F16" s="16">
         <f>[3]Лист1!$F$32</f>
-        <v>851238</v>
+        <v>1922742</v>
       </c>
       <c r="G16" s="25">
-        <f>100%-F16/14000000</f>
-        <v>0.93919728571428573</v>
+        <f>100%-F16/15400000</f>
+        <v>0.87514662337662341</v>
       </c>
       <c r="H16" s="26">
-        <f>14000000-F16</f>
-        <v>13148762</v>
+        <f>12600000-F16</f>
+        <v>10677258</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" si="0"/>
-        <v>0.75821333164167948</v>
+        <f>E16/F16</f>
+        <v>0.94158654671297548</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A17" s="40">
+        <f>A16+1</f>
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="27.6">
-      <c r="A17" s="40">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" s="12">
-        <f>[4]Лист1!$E$31</f>
-        <v>1820497</v>
+        <f>[6]Лист1!$E$31</f>
+        <v>629376</v>
       </c>
       <c r="F17" s="12">
-        <f>[4]Лист1!$F$31</f>
-        <v>1923608</v>
+        <f>[6]Лист1!$F$31</f>
+        <v>2858476</v>
       </c>
       <c r="G17" s="37">
         <f>100%-F17/16800000</f>
-        <v>0.88549952380952379</v>
+        <v>0.82985261904761909</v>
       </c>
       <c r="H17" s="38">
         <f>16800000-F17</f>
-        <v>14876392</v>
+        <v>13941524</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="0"/>
-        <v>0.94639708298156378</v>
+        <f>E17/F17</f>
+        <v>0.2201788645418048</v>
       </c>
       <c r="J17" s="15"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" s="19" customFormat="1" ht="31.2" thickBot="1">
-      <c r="A18" s="40">
-        <f t="shared" si="1"/>
+      <c r="A18" s="10">
+        <f>A17+1</f>
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="41">
-        <f>[5]Лист1!$E$31</f>
-        <v>629376</v>
-      </c>
-      <c r="F18" s="41">
-        <f>[5]Лист1!$F$31</f>
-        <v>2858476</v>
-      </c>
-      <c r="G18" s="37">
-        <f>100%-F18/16800000</f>
-        <v>0.82985261904761909</v>
-      </c>
-      <c r="H18" s="38">
-        <f>16800000-F18</f>
-        <v>13941524</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60">
+        <v>3080000</v>
+      </c>
+      <c r="G18" s="17">
+        <f>100%-F18/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H18" s="18">
+        <f>14000000-F18</f>
+        <v>10920000</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.2201788645418048</v>
+        <f>E18/F18</f>
+        <v>0</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="21"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A19" s="40">
-        <f t="shared" si="1"/>
+        <f>A18+1</f>
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="36">
-        <f>[6]Лист1!$E$30</f>
+        <f>[7]Лист1!$E$30</f>
         <v>4126964</v>
       </c>
       <c r="F19" s="36">
-        <f>[6]Лист1!$F$30</f>
+        <f>[7]Лист1!$F$30</f>
         <v>4454263</v>
       </c>
       <c r="G19" s="17">
@@ -2095,405 +2141,411 @@
         <v>14445737</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" si="0"/>
+        <f>E19/F19</f>
         <v>0.92652005505736867</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A20" s="10">
-        <f t="shared" si="1"/>
+        <f>A19+1</f>
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
-        <v>3080000</v>
-      </c>
-      <c r="G20" s="17">
-        <f>100%-F20/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H20" s="18">
-        <f>14000000-F20</f>
-        <v>10920000</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14">
+        <v>4055359</v>
+      </c>
+      <c r="G20" s="37">
+        <f>100%-F20/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H20" s="38">
+        <f>18900000-F20</f>
+        <v>14844641</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" si="0"/>
+        <f>E20/F20</f>
         <v>0</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A21" s="10">
-        <f t="shared" si="1"/>
+        <f>A20+1</f>
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14">
-        <v>4055359</v>
-      </c>
-      <c r="G21" s="37">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16">
+        <v>5511547</v>
+      </c>
+      <c r="G21" s="17">
         <f>100%-F21/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H21" s="38">
-        <f>18900000-F21</f>
-        <v>14844641</v>
+        <v>0.67193172619047625</v>
+      </c>
+      <c r="H21" s="18">
+        <f>12000000-F21</f>
+        <v>6488453</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" si="0"/>
+        <f>E21/F21</f>
         <v>0</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="33" customFormat="1" ht="30.6">
       <c r="A22" s="10">
-        <f t="shared" si="1"/>
+        <f>A21+1</f>
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16">
-        <v>5511547</v>
-      </c>
-      <c r="G22" s="17">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2131080</v>
+      </c>
+      <c r="F22" s="14">
+        <v>5638494</v>
+      </c>
+      <c r="G22" s="39">
         <f>100%-F22/16800000</f>
-        <v>0.67193172619047625</v>
-      </c>
-      <c r="H22" s="18">
-        <f>12000000-F22</f>
-        <v>6488453</v>
+        <v>0.66437535714285723</v>
+      </c>
+      <c r="H22" s="38">
+        <f>16800000-F22</f>
+        <v>11161506</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E22/F22</f>
+        <v>0.37795198505132754</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A23" s="40">
+        <f>A22+1</f>
+        <v>18</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2131080</v>
-      </c>
-      <c r="F23" s="14">
-        <v>5638494</v>
-      </c>
-      <c r="G23" s="39">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16">
+        <f>[16]Лист1!$E$30</f>
+        <v>4648350</v>
+      </c>
+      <c r="F23" s="16">
+        <f>[16]Лист1!$F$30</f>
+        <v>7162438</v>
+      </c>
+      <c r="G23" s="17">
         <f>100%-F23/16800000</f>
-        <v>0.66437535714285723</v>
-      </c>
-      <c r="H23" s="38">
+        <v>0.57366440476190483</v>
+      </c>
+      <c r="H23" s="18">
         <f>16800000-F23</f>
-        <v>11161506</v>
+        <v>9637562</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" si="0"/>
-        <v>0.37795198505132754</v>
+        <f>E23/F23</f>
+        <v>0.6489899109772399</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A24" s="40">
+        <f>A23+1</f>
+        <v>19</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16">
-        <v>6000000</v>
+        <f>[8]Лист1!$E$37</f>
+        <v>8320286</v>
       </c>
       <c r="F24" s="16">
-        <v>6336598</v>
+        <f>[8]Лист1!$F$37</f>
+        <v>9174267</v>
       </c>
       <c r="G24" s="17">
-        <f>100%-F24/16800000</f>
-        <v>0.62282154761904762</v>
+        <f>100%-F24/18900000</f>
+        <v>0.51458904761904756</v>
       </c>
       <c r="H24" s="18">
-        <f>16800000-F24</f>
-        <v>10463402</v>
+        <f>18900000-F24</f>
+        <v>9725733</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" si="0"/>
-        <v>0.94688032916085252</v>
+        <f>E24/F24</f>
+        <v>0.90691561516576746</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
+        <f>A24+1</f>
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16">
-        <f>[7]Лист1!$E$37</f>
-        <v>8320286</v>
+        <f>[9]Лист1!$E$31</f>
+        <v>3143070</v>
       </c>
       <c r="F25" s="16">
-        <f>[7]Лист1!$F$37</f>
-        <v>9174267</v>
+        <f>[9]Лист1!$F$31</f>
+        <v>6932011</v>
       </c>
       <c r="G25" s="17">
-        <f>100%-F25/18900000</f>
-        <v>0.51458904761904756</v>
+        <f>100%-F25/14000000</f>
+        <v>0.50485635714285715</v>
       </c>
       <c r="H25" s="18">
-        <f>18900000-F25</f>
-        <v>9725733</v>
+        <f>14000000-F25</f>
+        <v>7067989</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90691561516576746</v>
+        <f>E25/F25</f>
+        <v>0.45341387946441514</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
+        <f>A25+1</f>
         <v>21</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16">
-        <f>[8]Лист1!$E$31</f>
-        <v>3143070</v>
+        <f>[10]Лист1!$E$31</f>
+        <v>4294048</v>
       </c>
       <c r="F26" s="16">
-        <f>[8]Лист1!$F$31</f>
-        <v>6932011</v>
+        <f>[10]Лист1!$F$31</f>
+        <v>8845677</v>
       </c>
       <c r="G26" s="17">
-        <f>100%-F26/14000000</f>
-        <v>0.50485635714285715</v>
+        <f>100%-F26/16800000</f>
+        <v>0.47347160714285719</v>
       </c>
       <c r="H26" s="18">
-        <f>14000000-F26</f>
-        <v>7067989</v>
+        <f>16800000-F26</f>
+        <v>7954323</v>
       </c>
       <c r="I26" s="23">
-        <f t="shared" si="0"/>
-        <v>0.45341387946441514</v>
+        <f>E26/F26</f>
+        <v>0.48544028908132186</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A27" s="10">
+        <f>A26+1</f>
+        <v>22</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A27" s="40">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="16">
-        <f>[9]Лист1!$E$31</f>
-        <v>4294048</v>
-      </c>
-      <c r="F27" s="16">
-        <f>[9]Лист1!$F$31</f>
-        <v>8845677</v>
-      </c>
-      <c r="G27" s="17">
+        <v>14</v>
+      </c>
+      <c r="E27" s="12">
+        <v>8343654</v>
+      </c>
+      <c r="F27" s="12">
+        <v>9257311</v>
+      </c>
+      <c r="G27" s="37">
         <f>100%-F27/16800000</f>
-        <v>0.47347160714285719</v>
-      </c>
-      <c r="H27" s="18">
+        <v>0.44896958333333337</v>
+      </c>
+      <c r="H27" s="38">
         <f>16800000-F27</f>
-        <v>7954323</v>
+        <v>7542689</v>
       </c>
       <c r="I27" s="23">
-        <f t="shared" si="0"/>
-        <v>0.48544028908132186</v>
+        <f>E27/F27</f>
+        <v>0.90130427723558171</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A28" s="10">
-        <f t="shared" si="1"/>
+        <f>A27+1</f>
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="12">
-        <v>8343654</v>
-      </c>
-      <c r="F28" s="12">
-        <v>9257311</v>
-      </c>
-      <c r="G28" s="37">
+        <v>14</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
+        <v>10659414</v>
+      </c>
+      <c r="G28" s="17">
         <f>100%-F28/16800000</f>
-        <v>0.44896958333333337</v>
-      </c>
-      <c r="H28" s="38">
-        <f>16800000-F28</f>
-        <v>7542689</v>
+        <v>0.36551107142857142</v>
+      </c>
+      <c r="H28" s="18">
+        <f>24000000-F28</f>
+        <v>13340586</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90130427723558171</v>
+        <f>E28/F28</f>
+        <v>0</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="30.6">
+      <c r="A29" s="40">
+        <f>A28+1</f>
+        <v>24</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A29" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16">
-        <v>10659414</v>
-      </c>
-      <c r="G29" s="17">
-        <f>100%-F29/16800000</f>
-        <v>0.36551107142857142</v>
-      </c>
-      <c r="H29" s="18">
-        <f>24000000-F29</f>
-        <v>13340586</v>
+        <v>14</v>
+      </c>
+      <c r="E29" s="12">
+        <f>[12]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F29" s="12">
+        <f>[12]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G29" s="37">
+        <f>100%-F29/18200000</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H29" s="38">
+        <f>18200000-F29</f>
+        <v>5969558</v>
       </c>
       <c r="I29" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E29/F29</f>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A30" s="40">
-        <f t="shared" si="1"/>
+        <f>A29+1</f>
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="12">
-        <f>[10]Лист1!$E$30</f>
+        <f>[11]Лист1!$E$30</f>
         <v>6849070</v>
       </c>
       <c r="F30" s="12">
-        <f>[10]Лист1!$F$30</f>
+        <f>[11]Лист1!$F$30</f>
         <v>14503171</v>
       </c>
       <c r="G30" s="37">
@@ -2505,179 +2557,154 @@
         <v>5096829</v>
       </c>
       <c r="I30" s="23">
-        <f t="shared" si="0"/>
+        <f>E30/F30</f>
         <v>0.47224637977446449</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A31" s="40">
-        <f t="shared" si="1"/>
+        <f>A30+1</f>
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="12">
-        <f>[11]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F31" s="12">
-        <f>[11]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G31" s="37">
-        <f>100%-F31/18200000</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H31" s="38">
-        <f>18200000-F31</f>
-        <v>5969558</v>
+        <v>14</v>
+      </c>
+      <c r="E31" s="16">
+        <f>[13]Лист1!$E$30</f>
+        <v>13190994</v>
+      </c>
+      <c r="F31" s="16">
+        <f>[13]Лист1!$F$30</f>
+        <v>16642877</v>
+      </c>
+      <c r="G31" s="17">
+        <f>100%-F31/21000000</f>
+        <v>0.20748204761904765</v>
+      </c>
+      <c r="H31" s="18">
+        <f>21000000-F31</f>
+        <v>4357123</v>
       </c>
       <c r="I31" s="23">
-        <f t="shared" si="0"/>
-        <v>0.91973258202769781</v>
+        <f>E31/F31</f>
+        <v>0.7925909684966127</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="21"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="19" customFormat="1" ht="30.6">
       <c r="A32" s="40">
-        <f t="shared" si="1"/>
+        <f>A31+1</f>
         <v>27</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="16">
-        <f>[14]Лист1!$E$30</f>
-        <v>13190994</v>
-      </c>
-      <c r="F32" s="16">
-        <f>[14]Лист1!$F$30</f>
-        <v>16642877</v>
-      </c>
-      <c r="G32" s="17">
-        <f>100%-F32/21000000</f>
-        <v>0.20748204761904765</v>
-      </c>
-      <c r="H32" s="18">
-        <f>21000000-F32</f>
-        <v>4357123</v>
+        <v>14</v>
+      </c>
+      <c r="E32" s="12">
+        <f>[14]Лист1!$E$32</f>
+        <v>6615167</v>
+      </c>
+      <c r="F32" s="12">
+        <f>[14]Лист1!$F$32</f>
+        <v>15776459</v>
+      </c>
+      <c r="G32" s="37">
+        <f>100%-F32/18200000</f>
+        <v>0.13316159340659339</v>
+      </c>
+      <c r="H32" s="38">
+        <f>18200000-F32</f>
+        <v>2423541</v>
       </c>
       <c r="I32" s="23">
-        <f t="shared" si="0"/>
-        <v>0.7925909684966127</v>
+        <f>E32/F32</f>
+        <v>0.4193061953889653</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" ht="30.6">
+      <c r="A33" s="27">
+        <f>A32+1</f>
+        <v>28</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="30.6">
-      <c r="A33" s="40">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="12">
-        <f>[12]Лист1!$E$32</f>
-        <v>6615167</v>
-      </c>
-      <c r="F33" s="12">
-        <f>[12]Лист1!$F$32</f>
-        <v>15776459</v>
-      </c>
-      <c r="G33" s="37">
-        <f>100%-F33/18200000</f>
-        <v>0.13316159340659339</v>
-      </c>
-      <c r="H33" s="38">
-        <f>18200000-F33</f>
-        <v>2423541</v>
-      </c>
-      <c r="I33" s="23">
-        <f t="shared" si="0"/>
-        <v>0.4193061953889653</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="1:12" ht="30.6">
-      <c r="A34" s="27">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="30">
-        <f>[13]Лист1!$E$33</f>
+      <c r="E33" s="30">
+        <f>[15]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F34" s="30">
-        <f>[13]Лист1!$F$33</f>
+      <c r="F33" s="30">
+        <f>[15]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G34" s="34">
-        <f>100%-F34/16800000</f>
+      <c r="G33" s="34">
+        <f>100%-F33/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H34" s="35">
-        <f>16800000-F34</f>
+      <c r="H33" s="35">
+        <f>16800000-F33</f>
         <v>-9982614</v>
       </c>
-      <c r="I34" s="31">
-        <f t="shared" si="0"/>
+      <c r="I33" s="31">
+        <f>E33/F33</f>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="33"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.8">
+      <c r="A34" s="10"/>
+      <c r="B34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:L32">
-      <sortCondition descending="1" ref="G3:G19"/>
+    <sortState ref="A6:L34">
+      <sortCondition descending="1" ref="G3:G21"/>
     </sortState>
   </autoFilter>
   <mergeCells count="10">
@@ -2695,7 +2722,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -31,6 +31,8 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
@@ -701,6 +703,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,9 +761,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,10 +795,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>613088</v>
+            <v>449036</v>
           </cell>
           <cell r="F31">
-            <v>721402</v>
+            <v>524968</v>
           </cell>
         </row>
       </sheetData>
@@ -819,10 +821,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
@@ -843,12 +845,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4294048</v>
+          </cell>
+          <cell r="F31">
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
@@ -897,10 +899,10 @@
       <sheetData sheetId="0">
         <row r="30">
           <cell r="E30">
-            <v>13190994</v>
+            <v>6849070</v>
           </cell>
           <cell r="F30">
-            <v>16642877</v>
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -921,12 +923,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>6615167</v>
-          </cell>
-          <cell r="F32">
-            <v>15776459</v>
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
@@ -947,12 +949,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="32">
+          <cell r="E32">
+            <v>6615167</v>
+          </cell>
+          <cell r="F32">
+            <v>15776459</v>
           </cell>
         </row>
       </sheetData>
@@ -973,17 +975,69 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4648350</v>
-          </cell>
-          <cell r="F30">
-            <v>7162438</v>
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>9280512</v>
+          </cell>
+          <cell r="F31">
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1001,10 +1055,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>449036</v>
+            <v>613088</v>
           </cell>
           <cell r="F31">
-            <v>524968</v>
+            <v>721402</v>
           </cell>
         </row>
       </sheetData>
@@ -1027,15 +1081,15 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>1810428</v>
+            <v>645420</v>
           </cell>
           <cell r="F32">
-            <v>1922742</v>
+            <v>851238</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1051,12 +1105,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>645420</v>
-          </cell>
-          <cell r="F32">
-            <v>851238</v>
+        <row r="31">
+          <cell r="E31">
+            <v>1820497</v>
+          </cell>
+          <cell r="F31">
+            <v>1923608</v>
           </cell>
         </row>
       </sheetData>
@@ -1077,12 +1131,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1820497</v>
-          </cell>
-          <cell r="F31">
-            <v>1923608</v>
+        <row r="32">
+          <cell r="E32">
+            <v>1810428</v>
+          </cell>
+          <cell r="F32">
+            <v>1922742</v>
           </cell>
         </row>
       </sheetData>
@@ -1138,8 +1192,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1155,12 +1209,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4648350</v>
+          </cell>
+          <cell r="F30">
+            <v>7162438</v>
           </cell>
         </row>
       </sheetData>
@@ -1181,12 +1235,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3143070</v>
-          </cell>
-          <cell r="F31">
-            <v>6932011</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1490,10 +1544,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1513,40 +1567,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1555,26 +1609,26 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="56" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1587,12 +1641,12 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10">
         <f>A4+1</f>
         <v>1</v>
@@ -1623,7 +1677,7 @@
       </c>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10">
         <f>A5+1</f>
         <v>2</v>
@@ -1652,7 +1706,7 @@
         <v>16800000</v>
       </c>
       <c r="I6" s="23" t="e">
-        <f>E6/F6</f>
+        <f t="shared" ref="I6:I33" si="0">E6/F6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="15"/>
@@ -1661,7 +1715,7 @@
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10">
         <f>A6+1</f>
         <v>3</v>
@@ -1690,7 +1744,7 @@
         <v>18900000</v>
       </c>
       <c r="I7" s="23" t="e">
-        <f>E7/F7</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="15"/>
@@ -1699,7 +1753,7 @@
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="13.8">
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="40">
         <f>A7+1</f>
         <v>4</v>
@@ -1710,11 +1764,11 @@
       <c r="C8" s="11"/>
       <c r="D8" s="20"/>
       <c r="E8" s="16">
-        <f>[2]Лист1!$E$31</f>
+        <f>[1]Лист1!$E$31</f>
         <v>449036</v>
       </c>
       <c r="F8" s="16">
-        <f>[2]Лист1!$F$31</f>
+        <f>[1]Лист1!$F$31</f>
         <v>524968</v>
       </c>
       <c r="G8" s="25">
@@ -1726,14 +1780,14 @@
         <v>14875032</v>
       </c>
       <c r="I8" s="23">
-        <f>E8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.85535880282226728</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="11"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="10">
         <f>A8+1</f>
         <v>5</v>
@@ -1762,7 +1816,7 @@
         <v>11931542</v>
       </c>
       <c r="I9" s="23">
-        <f>E9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.83454158675638557</v>
       </c>
       <c r="J9" s="15"/>
@@ -1771,7 +1825,7 @@
       </c>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="13.8">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="10">
         <f>A8+1</f>
         <v>5</v>
@@ -1782,11 +1836,11 @@
       <c r="C10" s="11"/>
       <c r="D10" s="20"/>
       <c r="E10" s="16">
-        <f>[1]Лист1!$E$31</f>
+        <f>[2]Лист1!$E$31</f>
         <v>613088</v>
       </c>
       <c r="F10" s="16">
-        <f>[1]Лист1!$F$31</f>
+        <f>[2]Лист1!$F$31</f>
         <v>721402</v>
       </c>
       <c r="G10" s="25">
@@ -1798,16 +1852,16 @@
         <v>18178598</v>
       </c>
       <c r="I10" s="23">
-        <f>E10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.84985625213126659</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="11"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="11" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="10">
-        <f>A10+1</f>
+        <f t="shared" ref="A11:A33" si="1">A10+1</f>
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1834,7 +1888,7 @@
         <v>11929792</v>
       </c>
       <c r="I11" s="23">
-        <f>E11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.76890756302521013</v>
       </c>
       <c r="J11" s="15"/>
@@ -1843,9 +1897,9 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="30.6">
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="10">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1872,7 +1926,7 @@
         <v>15824431</v>
       </c>
       <c r="I12" s="23">
-        <f>E12/F12</f>
+        <f t="shared" si="0"/>
         <v>0.78259559293089465</v>
       </c>
       <c r="J12" s="15"/>
@@ -1881,9 +1935,9 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="30.6">
-      <c r="A13" s="10">
-        <f>A12+1</f>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="40">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1896,22 +1950,24 @@
         <v>14</v>
       </c>
       <c r="E13" s="12">
-        <v>386370</v>
+        <f>[18]Лист1!$E$31</f>
+        <v>803358</v>
       </c>
       <c r="F13" s="12">
-        <v>996472</v>
+        <f>[18]Лист1!$F$31</f>
+        <v>1444922</v>
       </c>
       <c r="G13" s="13">
         <f>100%-F13/16800000</f>
-        <v>0.94068619047619051</v>
+        <v>0.91399273809523807</v>
       </c>
       <c r="H13" s="14">
         <f>12600000-F13</f>
-        <v>11603528</v>
+        <v>11155078</v>
       </c>
       <c r="I13" s="23">
-        <f>E13/F13</f>
-        <v>0.38773793945038093</v>
+        <f t="shared" si="0"/>
+        <v>0.55598710518630068</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="11" t="s">
@@ -1919,9 +1975,9 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="40">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1934,11 +1990,11 @@
         <v>14</v>
       </c>
       <c r="E14" s="16">
-        <f>[4]Лист1!$E$32</f>
+        <f>[3]Лист1!$E$32</f>
         <v>645420</v>
       </c>
       <c r="F14" s="16">
-        <f>[4]Лист1!$F$32</f>
+        <f>[3]Лист1!$F$32</f>
         <v>851238</v>
       </c>
       <c r="G14" s="25">
@@ -1950,7 +2006,7 @@
         <v>13148762</v>
       </c>
       <c r="I14" s="23">
-        <f>E14/F14</f>
+        <f t="shared" si="0"/>
         <v>0.75821333164167948</v>
       </c>
       <c r="J14" s="15"/>
@@ -1958,9 +2014,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="27.6">
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="40">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1973,11 +2029,11 @@
         <v>14</v>
       </c>
       <c r="E15" s="12">
-        <f>[5]Лист1!$E$31</f>
+        <f>[4]Лист1!$E$31</f>
         <v>1820497</v>
       </c>
       <c r="F15" s="12">
-        <f>[5]Лист1!$F$31</f>
+        <f>[4]Лист1!$F$31</f>
         <v>1923608</v>
       </c>
       <c r="G15" s="13">
@@ -1989,16 +2045,16 @@
         <v>14876392</v>
       </c>
       <c r="I15" s="23">
-        <f>E15/F15</f>
+        <f t="shared" si="0"/>
         <v>0.94639708298156378</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="11"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="10">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -2011,11 +2067,11 @@
         <v>16</v>
       </c>
       <c r="E16" s="16">
-        <f>[3]Лист1!$E$32</f>
+        <f>[5]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
       <c r="F16" s="16">
-        <f>[3]Лист1!$F$32</f>
+        <f>[5]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
       <c r="G16" s="25">
@@ -2027,7 +2083,7 @@
         <v>10677258</v>
       </c>
       <c r="I16" s="23">
-        <f>E16/F16</f>
+        <f t="shared" si="0"/>
         <v>0.94158654671297548</v>
       </c>
       <c r="J16" s="15"/>
@@ -2035,9 +2091,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="40">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -2066,7 +2122,7 @@
         <v>13941524</v>
       </c>
       <c r="I17" s="23">
-        <f>E17/F17</f>
+        <f t="shared" si="0"/>
         <v>0.2201788645418048</v>
       </c>
       <c r="J17" s="15"/>
@@ -2075,9 +2131,9 @@
       </c>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" s="19" customFormat="1" ht="31.2" thickBot="1">
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="10">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -2089,8 +2145,8 @@
       <c r="D18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41">
         <v>3080000</v>
       </c>
       <c r="G18" s="17">
@@ -2102,7 +2158,7 @@
         <v>10920000</v>
       </c>
       <c r="I18" s="23">
-        <f>E18/F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="15"/>
@@ -2110,9 +2166,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="40">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2141,7 +2197,7 @@
         <v>14445737</v>
       </c>
       <c r="I19" s="23">
-        <f>E19/F19</f>
+        <f t="shared" si="0"/>
         <v>0.92652005505736867</v>
       </c>
       <c r="J19" s="15"/>
@@ -2149,9 +2205,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="10">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -2176,7 +2232,7 @@
         <v>14844641</v>
       </c>
       <c r="I20" s="23">
-        <f>E20/F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="15"/>
@@ -2184,9 +2240,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="10">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -2211,7 +2267,7 @@
         <v>6488453</v>
       </c>
       <c r="I21" s="23">
-        <f>E21/F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="15"/>
@@ -2219,9 +2275,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="33" customFormat="1" ht="30.6">
+    <row r="22" spans="1:12" s="33" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="10">
-        <f>A21+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2248,7 +2304,7 @@
         <v>11161506</v>
       </c>
       <c r="I22" s="23">
-        <f>E22/F22</f>
+        <f t="shared" si="0"/>
         <v>0.37795198505132754</v>
       </c>
       <c r="J22" s="15"/>
@@ -2257,9 +2313,9 @@
       </c>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="40">
-        <f>A22+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -2272,11 +2328,11 @@
         <v>14</v>
       </c>
       <c r="E23" s="16">
-        <f>[16]Лист1!$E$30</f>
+        <f>[8]Лист1!$E$30</f>
         <v>4648350</v>
       </c>
       <c r="F23" s="16">
-        <f>[16]Лист1!$F$30</f>
+        <f>[8]Лист1!$F$30</f>
         <v>7162438</v>
       </c>
       <c r="G23" s="17">
@@ -2288,7 +2344,7 @@
         <v>9637562</v>
       </c>
       <c r="I23" s="23">
-        <f>E23/F23</f>
+        <f t="shared" si="0"/>
         <v>0.6489899109772399</v>
       </c>
       <c r="J23" s="15"/>
@@ -2296,9 +2352,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="40">
-        <f>A23+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2311,11 +2367,11 @@
         <v>14</v>
       </c>
       <c r="E24" s="16">
-        <f>[8]Лист1!$E$37</f>
+        <f>[9]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
       <c r="F24" s="16">
-        <f>[8]Лист1!$F$37</f>
+        <f>[9]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
       <c r="G24" s="17">
@@ -2327,7 +2383,7 @@
         <v>9725733</v>
       </c>
       <c r="I24" s="23">
-        <f>E24/F24</f>
+        <f t="shared" si="0"/>
         <v>0.90691561516576746</v>
       </c>
       <c r="J24" s="15"/>
@@ -2335,9 +2391,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="40">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -2350,33 +2406,33 @@
         <v>14</v>
       </c>
       <c r="E25" s="16">
-        <f>[9]Лист1!$E$31</f>
-        <v>3143070</v>
+        <f>[10]Лист1!$E$31</f>
+        <v>3585960</v>
       </c>
       <c r="F25" s="16">
-        <f>[9]Лист1!$F$31</f>
-        <v>6932011</v>
+        <f>[10]Лист1!$F$31</f>
+        <v>7428717</v>
       </c>
       <c r="G25" s="17">
         <f>100%-F25/14000000</f>
-        <v>0.50485635714285715</v>
+        <v>0.46937735714285711</v>
       </c>
       <c r="H25" s="18">
         <f>14000000-F25</f>
-        <v>7067989</v>
+        <v>6571283</v>
       </c>
       <c r="I25" s="23">
-        <f>E25/F25</f>
-        <v>0.45341387946441514</v>
+        <f t="shared" si="0"/>
+        <v>0.48271592523984963</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="40">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -2389,11 +2445,11 @@
         <v>14</v>
       </c>
       <c r="E26" s="16">
-        <f>[10]Лист1!$E$31</f>
+        <f>[11]Лист1!$E$31</f>
         <v>4294048</v>
       </c>
       <c r="F26" s="16">
-        <f>[10]Лист1!$F$31</f>
+        <f>[11]Лист1!$F$31</f>
         <v>8845677</v>
       </c>
       <c r="G26" s="17">
@@ -2405,7 +2461,7 @@
         <v>7954323</v>
       </c>
       <c r="I26" s="23">
-        <f>E26/F26</f>
+        <f t="shared" si="0"/>
         <v>0.48544028908132186</v>
       </c>
       <c r="J26" s="15"/>
@@ -2413,9 +2469,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="30.6">
-      <c r="A27" s="10">
-        <f>A26+1</f>
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="40">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -2428,22 +2484,24 @@
         <v>14</v>
       </c>
       <c r="E27" s="12">
-        <v>8343654</v>
+        <f>[17]Лист1!$E$31</f>
+        <v>9280512</v>
       </c>
       <c r="F27" s="12">
-        <v>9257311</v>
+        <f>[17]Лист1!$F$31</f>
+        <v>10267748</v>
       </c>
       <c r="G27" s="37">
         <f>100%-F27/16800000</f>
-        <v>0.44896958333333337</v>
+        <v>0.38882452380952381</v>
       </c>
       <c r="H27" s="38">
         <f>16800000-F27</f>
-        <v>7542689</v>
+        <v>6532252</v>
       </c>
       <c r="I27" s="23">
-        <f>E27/F27</f>
-        <v>0.90130427723558171</v>
+        <f t="shared" si="0"/>
+        <v>0.90385077623642496</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="11" t="s">
@@ -2451,9 +2509,9 @@
       </c>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="10">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -2478,7 +2536,7 @@
         <v>13340586</v>
       </c>
       <c r="I28" s="23">
-        <f>E28/F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="15"/>
@@ -2486,9 +2544,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="40">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -2517,7 +2575,7 @@
         <v>5969558</v>
       </c>
       <c r="I29" s="23">
-        <f>E29/F29</f>
+        <f t="shared" si="0"/>
         <v>0.91973258202769781</v>
       </c>
       <c r="J29" s="15"/>
@@ -2526,9 +2584,9 @@
       </c>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="40">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -2541,11 +2599,11 @@
         <v>14</v>
       </c>
       <c r="E30" s="12">
-        <f>[11]Лист1!$E$30</f>
+        <f>[13]Лист1!$E$30</f>
         <v>6849070</v>
       </c>
       <c r="F30" s="12">
-        <f>[11]Лист1!$F$30</f>
+        <f>[13]Лист1!$F$30</f>
         <v>14503171</v>
       </c>
       <c r="G30" s="37">
@@ -2557,7 +2615,7 @@
         <v>5096829</v>
       </c>
       <c r="I30" s="23">
-        <f>E30/F30</f>
+        <f t="shared" si="0"/>
         <v>0.47224637977446449</v>
       </c>
       <c r="J30" s="15"/>
@@ -2566,9 +2624,9 @@
       </c>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="40">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -2581,11 +2639,11 @@
         <v>14</v>
       </c>
       <c r="E31" s="16">
-        <f>[13]Лист1!$E$30</f>
+        <f>[14]Лист1!$E$30</f>
         <v>13190994</v>
       </c>
       <c r="F31" s="16">
-        <f>[13]Лист1!$F$30</f>
+        <f>[14]Лист1!$F$30</f>
         <v>16642877</v>
       </c>
       <c r="G31" s="17">
@@ -2597,7 +2655,7 @@
         <v>4357123</v>
       </c>
       <c r="I31" s="23">
-        <f>E31/F31</f>
+        <f t="shared" si="0"/>
         <v>0.7925909684966127</v>
       </c>
       <c r="J31" s="15"/>
@@ -2605,9 +2663,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="30.6">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="40">
-        <f>A31+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -2620,11 +2678,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="12">
-        <f>[14]Лист1!$E$32</f>
+        <f>[15]Лист1!$E$32</f>
         <v>6615167</v>
       </c>
       <c r="F32" s="12">
-        <f>[14]Лист1!$F$32</f>
+        <f>[15]Лист1!$F$32</f>
         <v>15776459</v>
       </c>
       <c r="G32" s="37">
@@ -2636,7 +2694,7 @@
         <v>2423541</v>
       </c>
       <c r="I32" s="23">
-        <f>E32/F32</f>
+        <f t="shared" si="0"/>
         <v>0.4193061953889653</v>
       </c>
       <c r="J32" s="15"/>
@@ -2645,9 +2703,9 @@
       </c>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" ht="30.6">
+    <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="27">
-        <f>A32+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -2660,11 +2718,11 @@
         <v>14</v>
       </c>
       <c r="E33" s="30">
-        <f>[15]Лист1!$E$33</f>
+        <f>[16]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
       <c r="F33" s="30">
-        <f>[15]Лист1!$F$33</f>
+        <f>[16]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
       <c r="G33" s="34">
@@ -2676,7 +2734,7 @@
         <v>-9982614</v>
       </c>
       <c r="I33" s="31">
-        <f>E33/F33</f>
+        <f t="shared" si="0"/>
         <v>0.90649120358453439</v>
       </c>
       <c r="J33" s="32"/>
@@ -2685,7 +2743,7 @@
       </c>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="13.8">
+    <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2722,7 +2780,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -33,6 +33,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
@@ -193,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -242,12 +243,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
@@ -268,8 +263,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +307,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -563,21 +576,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,7 +585,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,28 +615,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -651,61 +637,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,10 +677,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,16 +710,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,12 +820,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3585960</v>
-          </cell>
-          <cell r="F31">
-            <v>7428717</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -847,15 +848,15 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -871,12 +872,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4294048</v>
+          </cell>
+          <cell r="F31">
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
@@ -897,17 +898,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="31">
+          <cell r="E31">
+            <v>9270726</v>
+          </cell>
+          <cell r="F31">
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -923,12 +924,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>13190994</v>
-          </cell>
-          <cell r="F30">
-            <v>16642877</v>
+        <row r="31">
+          <cell r="E31">
+            <v>3558492</v>
+          </cell>
+          <cell r="F31">
+            <v>11902998</v>
           </cell>
         </row>
       </sheetData>
@@ -949,12 +950,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>6615167</v>
-          </cell>
-          <cell r="F32">
-            <v>15776459</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -975,17 +976,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1001,17 +1002,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>9280512</v>
-          </cell>
-          <cell r="F31">
-            <v>10267748</v>
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1027,12 +1028,38 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>803358</v>
-          </cell>
-          <cell r="F31">
-            <v>1444922</v>
+        <row r="32">
+          <cell r="E32">
+            <v>6622752</v>
+          </cell>
+          <cell r="F32">
+            <v>15784268</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
           </cell>
         </row>
       </sheetData>
@@ -1079,12 +1106,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>645420</v>
-          </cell>
-          <cell r="F32">
-            <v>851238</v>
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
           </cell>
         </row>
       </sheetData>
@@ -1105,12 +1132,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1820497</v>
-          </cell>
-          <cell r="F31">
-            <v>1923608</v>
+        <row r="32">
+          <cell r="E32">
+            <v>645420</v>
+          </cell>
+          <cell r="F32">
+            <v>851238</v>
           </cell>
         </row>
       </sheetData>
@@ -1131,17 +1158,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>1810428</v>
-          </cell>
-          <cell r="F32">
-            <v>1922742</v>
+        <row r="31">
+          <cell r="E31">
+            <v>3363115</v>
+          </cell>
+          <cell r="F31">
+            <v>3554106</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1157,12 +1184,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>629376</v>
-          </cell>
-          <cell r="F31">
-            <v>2858476</v>
+        <row r="32">
+          <cell r="E32">
+            <v>1810428</v>
+          </cell>
+          <cell r="F32">
+            <v>1922742</v>
           </cell>
         </row>
       </sheetData>
@@ -1183,17 +1210,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4126964</v>
-          </cell>
-          <cell r="F30">
-            <v>4454263</v>
+        <row r="31">
+          <cell r="E31">
+            <v>629376</v>
+          </cell>
+          <cell r="F31">
+            <v>2858476</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1211,15 +1238,15 @@
       <sheetData sheetId="0">
         <row r="30">
           <cell r="E30">
-            <v>4648350</v>
+            <v>4126964</v>
           </cell>
           <cell r="F30">
-            <v>7162438</v>
+            <v>4454263</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1235,17 +1262,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4658136</v>
+          </cell>
+          <cell r="F30">
+            <v>7162438</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1544,10 +1571,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1567,40 +1594,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1609,26 +1636,26 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1641,1122 +1668,1126 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="45"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10">
         <f>A4+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49">
         <f>100%-F5/16800000</f>
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="48">
         <f>18200000-F5</f>
         <v>18200000</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="20">
         <f>100%-F6/16800000</f>
         <v>1</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="21">
         <f>16800000-F6</f>
         <v>16800000</v>
       </c>
-      <c r="I6" s="23" t="e">
-        <f t="shared" ref="I6:I33" si="0">E6/F6</f>
+      <c r="I6" s="50" t="e">
+        <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10">
         <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="20">
         <f>100%-F7/19600000</f>
         <v>1</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="21">
         <f>18900000-F7</f>
         <v>18900000</v>
       </c>
-      <c r="I7" s="23" t="e">
-        <f t="shared" si="0"/>
+      <c r="I7" s="50" t="e">
+        <f>E7/F7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="40">
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="46">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="49">
+        <f>100%-F8/16800000</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="28">
+        <f>A8+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="16">
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="51">
         <f>[1]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="51">
         <f>[1]Лист1!$F$31</f>
         <v>524968</v>
       </c>
-      <c r="G8" s="25">
-        <f>100%-F8/15400000</f>
+      <c r="G9" s="20">
+        <f>100%-F9/15400000</f>
         <v>0.96591116883116879</v>
       </c>
-      <c r="H8" s="26">
-        <f>15400000-F8</f>
+      <c r="H9" s="21">
+        <f>15400000-F9</f>
         <v>14875032</v>
       </c>
-      <c r="I8" s="23">
-        <f t="shared" si="0"/>
+      <c r="I9" s="50">
+        <f>E9/F9</f>
         <v>0.85535880282226728</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="10">
-        <f>A8+1</f>
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="51">
         <v>557856</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="51">
         <v>668458</v>
       </c>
-      <c r="G9" s="25">
-        <f>100%-F9/18900000</f>
+      <c r="G10" s="20">
+        <f>100%-F10/18900000</f>
         <v>0.96463185185185185</v>
       </c>
-      <c r="H9" s="26">
-        <f>12600000-F9</f>
+      <c r="H10" s="21">
+        <f>12600000-F10</f>
         <v>11931542</v>
       </c>
-      <c r="I9" s="23">
-        <f t="shared" si="0"/>
+      <c r="I10" s="50">
+        <f>E10/F10</f>
         <v>0.83454158675638557</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="11" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="10">
-        <f>A8+1</f>
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="10">
+        <f>A9+1</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16">
+      <c r="C11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="51">
         <f>[2]Лист1!$E$31</f>
         <v>613088</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="51">
         <f>[2]Лист1!$F$31</f>
         <v>721402</v>
       </c>
-      <c r="G10" s="25">
-        <f>100%-F10/19600000</f>
+      <c r="G11" s="20">
+        <f>100%-F11/19600000</f>
         <v>0.96319377551020413</v>
       </c>
-      <c r="H10" s="26">
-        <f>18900000-F10</f>
+      <c r="H11" s="21">
+        <f>18900000-F11</f>
         <v>18178598</v>
       </c>
-      <c r="I10" s="23">
-        <f t="shared" si="0"/>
+      <c r="I11" s="50">
+        <f>E11/F11</f>
         <v>0.84985625213126659</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="11"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="10">
-        <f t="shared" ref="A11:A33" si="1">A10+1</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>7</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="16">
-        <v>515328</v>
-      </c>
-      <c r="F11" s="16">
-        <v>670208</v>
-      </c>
-      <c r="G11" s="25">
-        <f>100%-F11/18200000</f>
-        <v>0.96317538461538466</v>
-      </c>
-      <c r="H11" s="26">
-        <f>12600000-F11</f>
-        <v>11929792</v>
-      </c>
-      <c r="I11" s="23">
-        <f t="shared" si="0"/>
-        <v>0.76890756302521013</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16">
-        <v>763476</v>
-      </c>
-      <c r="F12" s="16">
-        <v>975569</v>
-      </c>
-      <c r="G12" s="25">
-        <f>100%-F12/16800000</f>
-        <v>0.94193041666666666</v>
-      </c>
-      <c r="H12" s="26">
-        <f>16800000-F12</f>
-        <v>15824431</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.78259559293089465</v>
-      </c>
-      <c r="J12" s="15"/>
+      <c r="E12" s="51">
+        <v>515328</v>
+      </c>
+      <c r="F12" s="51">
+        <v>670208</v>
+      </c>
+      <c r="G12" s="20">
+        <f>100%-F12/18200000</f>
+        <v>0.96317538461538466</v>
+      </c>
+      <c r="H12" s="21">
+        <f>12600000-F12</f>
+        <v>11929792</v>
+      </c>
+      <c r="I12" s="50">
+        <f>E12/F12</f>
+        <v>0.76890756302521013</v>
+      </c>
+      <c r="J12" s="12"/>
       <c r="K12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="40">
-        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="10">
+        <f>A12+1</f>
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>23</v>
+      <c r="B13" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="12">
-        <f>[18]Лист1!$E$31</f>
-        <v>803358</v>
-      </c>
-      <c r="F13" s="12">
-        <f>[18]Лист1!$F$31</f>
-        <v>1444922</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="E13" s="51">
+        <v>763476</v>
+      </c>
+      <c r="F13" s="51">
+        <v>975569</v>
+      </c>
+      <c r="G13" s="20">
         <f>100%-F13/16800000</f>
-        <v>0.91399273809523807</v>
-      </c>
-      <c r="H13" s="14">
-        <f>12600000-F13</f>
-        <v>11155078</v>
-      </c>
-      <c r="I13" s="23">
-        <f t="shared" si="0"/>
-        <v>0.55598710518630068</v>
-      </c>
-      <c r="J13" s="15"/>
+        <v>0.94193041666666666</v>
+      </c>
+      <c r="H13" s="21">
+        <f>16800000-F13</f>
+        <v>15824431</v>
+      </c>
+      <c r="I13" s="50">
+        <f>E13/F13</f>
+        <v>0.78259559293089465</v>
+      </c>
+      <c r="J13" s="12"/>
       <c r="K13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="40">
-        <f t="shared" si="1"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="28">
+        <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="16">
-        <f>[3]Лист1!$E$32</f>
+      <c r="E14" s="51">
+        <f>[4]Лист1!$E$32</f>
         <v>645420</v>
       </c>
-      <c r="F14" s="16">
-        <f>[3]Лист1!$F$32</f>
+      <c r="F14" s="51">
+        <f>[4]Лист1!$F$32</f>
         <v>851238</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="20">
         <f>100%-F14/14000000</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="21">
         <f>14000000-F14</f>
         <v>13148762</v>
       </c>
-      <c r="I14" s="23">
-        <f t="shared" si="0"/>
+      <c r="I14" s="50">
+        <f>E14/F14</f>
         <v>0.75821333164167948</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="40">
-        <f t="shared" si="1"/>
+    <row r="15" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="28">
+        <f>A14+1</f>
         <v>10</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>42</v>
+      <c r="B15" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="12">
-        <f>[4]Лист1!$E$31</f>
-        <v>1820497</v>
-      </c>
-      <c r="F15" s="12">
-        <f>[4]Лист1!$F$31</f>
-        <v>1923608</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="E15" s="52">
+        <f>[3]Лист1!$E$31</f>
+        <v>803358</v>
+      </c>
+      <c r="F15" s="48">
+        <f>[3]Лист1!$F$31</f>
+        <v>1444922</v>
+      </c>
+      <c r="G15" s="49">
         <f>100%-F15/16800000</f>
-        <v>0.88549952380952379</v>
-      </c>
-      <c r="H15" s="14">
-        <f>16800000-F15</f>
-        <v>14876392</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="0"/>
-        <v>0.94639708298156378</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
+        <v>0.91399273809523807</v>
+      </c>
+      <c r="H15" s="48">
+        <f>12600000-F15</f>
+        <v>11155078</v>
+      </c>
+      <c r="I15" s="50">
+        <f>E15/F15</f>
+        <v>0.55598710518630068</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="28">
+        <f>A15+1</f>
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="16">
-        <f>[5]Лист1!$E$32</f>
+      <c r="E16" s="51">
+        <f>[6]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
-      <c r="F16" s="16">
-        <f>[5]Лист1!$F$32</f>
+      <c r="F16" s="51">
+        <f>[6]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="20">
         <f>100%-F16/15400000</f>
         <v>0.87514662337662341</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="21">
         <f>12600000-F16</f>
         <v>10677258</v>
       </c>
-      <c r="I16" s="23">
-        <f t="shared" si="0"/>
+      <c r="I16" s="50">
+        <f>E16/F16</f>
         <v>0.94158654671297548</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="40">
-        <f t="shared" si="1"/>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="28">
+        <f>A16+1</f>
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12">
-        <f>[6]Лист1!$E$31</f>
+      <c r="E17" s="52">
+        <f>[7]Лист1!$E$31</f>
         <v>629376</v>
       </c>
-      <c r="F17" s="12">
-        <f>[6]Лист1!$F$31</f>
+      <c r="F17" s="48">
+        <f>[7]Лист1!$F$31</f>
         <v>2858476</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="53">
         <f>100%-F17/16800000</f>
         <v>0.82985261904761909</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="54">
         <f>16800000-F17</f>
         <v>13941524</v>
       </c>
-      <c r="I17" s="23">
-        <f t="shared" si="0"/>
+      <c r="I17" s="50">
+        <f>E17/F17</f>
         <v>0.2201788645418048</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="28">
+        <f>A17+1</f>
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>27</v>
+      <c r="B18" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41">
-        <v>3080000</v>
-      </c>
-      <c r="G18" s="17">
-        <f>100%-F18/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H18" s="18">
-        <f>14000000-F18</f>
-        <v>10920000</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="40">
-        <f t="shared" si="1"/>
+      <c r="E18" s="48">
+        <f>[5]Лист1!$E$31</f>
+        <v>3363115</v>
+      </c>
+      <c r="F18" s="48">
+        <f>[5]Лист1!$F$31</f>
+        <v>3554106</v>
+      </c>
+      <c r="G18" s="53">
+        <f>100%-F18/16800000</f>
+        <v>0.78844607142857148</v>
+      </c>
+      <c r="H18" s="54">
+        <f>16800000-F18</f>
+        <v>13245894</v>
+      </c>
+      <c r="I18" s="50">
+        <f>E18/F18</f>
+        <v>0.94626187288730279</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="10">
+        <f>A18+1</f>
         <v>14</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>35</v>
+      <c r="B19" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="36">
-        <f>[7]Лист1!$E$30</f>
-        <v>4126964</v>
-      </c>
-      <c r="F19" s="36">
-        <f>[7]Лист1!$F$30</f>
-        <v>4454263</v>
-      </c>
-      <c r="G19" s="17">
-        <f>100%-F19/18900000</f>
-        <v>0.76432470899470895</v>
-      </c>
-      <c r="H19" s="18">
-        <f>18900000-F19</f>
-        <v>14445737</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92652005505736867</v>
-      </c>
-      <c r="J19" s="15"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55">
+        <v>3080000</v>
+      </c>
+      <c r="G19" s="13">
+        <f>100%-F19/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H19" s="14">
+        <f>14000000-F19</f>
+        <v>10920000</v>
+      </c>
+      <c r="I19" s="50">
+        <f>E19/F19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12"/>
       <c r="K19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="28">
+        <f>A19+1</f>
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>24</v>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14">
-        <v>4055359</v>
-      </c>
-      <c r="G20" s="37">
-        <f>100%-F20/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H20" s="38">
+      <c r="E20" s="51">
+        <f>[8]Лист1!$E$30</f>
+        <v>4126964</v>
+      </c>
+      <c r="F20" s="51">
+        <f>[8]Лист1!$F$30</f>
+        <v>4454263</v>
+      </c>
+      <c r="G20" s="13">
+        <f>100%-F20/18900000</f>
+        <v>0.76432470899470895</v>
+      </c>
+      <c r="H20" s="14">
         <f>18900000-F20</f>
-        <v>14844641</v>
-      </c>
-      <c r="I20" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="15"/>
+        <v>14445737</v>
+      </c>
+      <c r="I20" s="50">
+        <f>E20/F20</f>
+        <v>0.92652005505736867</v>
+      </c>
+      <c r="J20" s="12"/>
       <c r="K20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="10">
-        <f t="shared" si="1"/>
+        <f>A20+1</f>
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>28</v>
+      <c r="B21" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16">
-        <v>5511547</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48">
+        <v>4055359</v>
+      </c>
+      <c r="G21" s="53">
         <f>100%-F21/16800000</f>
-        <v>0.67193172619047625</v>
-      </c>
-      <c r="H21" s="18">
-        <f>12000000-F21</f>
-        <v>6488453</v>
-      </c>
-      <c r="I21" s="23">
-        <f t="shared" si="0"/>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H21" s="54">
+        <f>18900000-F21</f>
+        <v>14844641</v>
+      </c>
+      <c r="I21" s="50">
+        <f>E21/F21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="33" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:12" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="10">
-        <f t="shared" si="1"/>
+        <f>A21+1</f>
         <v>17</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>17</v>
+      <c r="B22" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="12">
-        <v>2131080</v>
-      </c>
-      <c r="F22" s="14">
-        <v>5638494</v>
-      </c>
-      <c r="G22" s="39">
+      <c r="E22" s="51"/>
+      <c r="F22" s="51">
+        <v>5511547</v>
+      </c>
+      <c r="G22" s="13">
         <f>100%-F22/16800000</f>
-        <v>0.66437535714285723</v>
-      </c>
-      <c r="H22" s="38">
-        <f>16800000-F22</f>
-        <v>11161506</v>
-      </c>
-      <c r="I22" s="23">
-        <f t="shared" si="0"/>
-        <v>0.37795198505132754</v>
-      </c>
-      <c r="J22" s="15"/>
+        <v>0.67193172619047625</v>
+      </c>
+      <c r="H22" s="14">
+        <f>12000000-F22</f>
+        <v>6488453</v>
+      </c>
+      <c r="I22" s="50">
+        <f>E22/F22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="40">
-        <f t="shared" si="1"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="10">
+        <f>A22+1</f>
         <v>18</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>46</v>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="16">
-        <f>[8]Лист1!$E$30</f>
-        <v>4648350</v>
-      </c>
-      <c r="F23" s="16">
-        <f>[8]Лист1!$F$30</f>
-        <v>7162438</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="E23" s="52">
+        <v>2131080</v>
+      </c>
+      <c r="F23" s="48">
+        <v>5638494</v>
+      </c>
+      <c r="G23" s="56">
         <f>100%-F23/16800000</f>
-        <v>0.57366440476190483</v>
-      </c>
-      <c r="H23" s="18">
+        <v>0.66437535714285723</v>
+      </c>
+      <c r="H23" s="54">
         <f>16800000-F23</f>
-        <v>9637562</v>
-      </c>
-      <c r="I23" s="23">
-        <f t="shared" si="0"/>
-        <v>0.6489899109772399</v>
-      </c>
-      <c r="J23" s="15"/>
+        <v>11161506</v>
+      </c>
+      <c r="I23" s="50">
+        <f>E23/F23</f>
+        <v>0.37795198505132754</v>
+      </c>
+      <c r="J23" s="12"/>
       <c r="K23" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="40">
-        <f t="shared" si="1"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="28">
+        <f>A23+1</f>
         <v>19</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>36</v>
+      <c r="B24" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16">
-        <f>[9]Лист1!$E$37</f>
-        <v>8320286</v>
-      </c>
-      <c r="F24" s="16">
-        <f>[9]Лист1!$F$37</f>
-        <v>9174267</v>
-      </c>
-      <c r="G24" s="17">
-        <f>100%-F24/18900000</f>
-        <v>0.51458904761904756</v>
-      </c>
-      <c r="H24" s="18">
-        <f>18900000-F24</f>
-        <v>9725733</v>
-      </c>
-      <c r="I24" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90691561516576746</v>
-      </c>
-      <c r="J24" s="15"/>
+      <c r="E24" s="57">
+        <f>[9]Лист1!$E$30</f>
+        <v>4658136</v>
+      </c>
+      <c r="F24" s="51">
+        <f>[9]Лист1!$F$30</f>
+        <v>7162438</v>
+      </c>
+      <c r="G24" s="13">
+        <f>100%-F24/16800000</f>
+        <v>0.57366440476190483</v>
+      </c>
+      <c r="H24" s="14">
+        <f>16800000-F24</f>
+        <v>9637562</v>
+      </c>
+      <c r="I24" s="50">
+        <f>E24/F24</f>
+        <v>0.65035620552666562</v>
+      </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="40">
-        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="28">
+        <f>A24+1</f>
         <v>20</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>41</v>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="16">
-        <f>[10]Лист1!$E$31</f>
-        <v>3585960</v>
-      </c>
-      <c r="F25" s="16">
-        <f>[10]Лист1!$F$31</f>
-        <v>7428717</v>
-      </c>
-      <c r="G25" s="17">
-        <f>100%-F25/14000000</f>
-        <v>0.46937735714285711</v>
-      </c>
-      <c r="H25" s="18">
-        <f>14000000-F25</f>
-        <v>6571283</v>
-      </c>
-      <c r="I25" s="23">
-        <f t="shared" si="0"/>
-        <v>0.48271592523984963</v>
-      </c>
-      <c r="J25" s="15"/>
+      <c r="E25" s="51">
+        <f>[10]Лист1!$E$37</f>
+        <v>8320286</v>
+      </c>
+      <c r="F25" s="51">
+        <f>[10]Лист1!$F$37</f>
+        <v>9174267</v>
+      </c>
+      <c r="G25" s="13">
+        <f>100%-F25/18900000</f>
+        <v>0.51458904761904756</v>
+      </c>
+      <c r="H25" s="14">
+        <f>18900000-F25</f>
+        <v>9725733</v>
+      </c>
+      <c r="I25" s="50">
+        <f>E25/F25</f>
+        <v>0.90691561516576746</v>
+      </c>
+      <c r="J25" s="12"/>
       <c r="K25" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="40">
-        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="28">
+        <f>A25+1</f>
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16">
-        <f>[11]Лист1!$E$31</f>
+      <c r="E26" s="57">
+        <f>[12]Лист1!$E$31</f>
         <v>4294048</v>
       </c>
-      <c r="F26" s="16">
-        <f>[11]Лист1!$F$31</f>
+      <c r="F26" s="51">
+        <f>[12]Лист1!$F$31</f>
         <v>8845677</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <f>100%-F26/16800000</f>
         <v>0.47347160714285719</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="14">
         <f>16800000-F26</f>
         <v>7954323</v>
       </c>
-      <c r="I26" s="23">
-        <f t="shared" si="0"/>
+      <c r="I26" s="50">
+        <f>E26/F26</f>
         <v>0.48544028908132186</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="40">
-        <f t="shared" si="1"/>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="28">
+        <f>A26+1</f>
         <v>22</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>22</v>
+      <c r="B27" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="12">
-        <f>[17]Лист1!$E$31</f>
-        <v>9280512</v>
-      </c>
-      <c r="F27" s="12">
-        <f>[17]Лист1!$F$31</f>
-        <v>10267748</v>
-      </c>
-      <c r="G27" s="37">
-        <f>100%-F27/16800000</f>
-        <v>0.38882452380952381</v>
-      </c>
-      <c r="H27" s="38">
-        <f>16800000-F27</f>
-        <v>6532252</v>
-      </c>
-      <c r="I27" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90385077623642496</v>
-      </c>
-      <c r="J27" s="15"/>
+      <c r="E27" s="57">
+        <f>[11]Лист1!$E$31</f>
+        <v>3585960</v>
+      </c>
+      <c r="F27" s="51">
+        <f>[11]Лист1!$F$31</f>
+        <v>7428717</v>
+      </c>
+      <c r="G27" s="13">
+        <f>100%-F27/14000000</f>
+        <v>0.46937735714285711</v>
+      </c>
+      <c r="H27" s="14">
+        <f>14000000-F27</f>
+        <v>6571283</v>
+      </c>
+      <c r="I27" s="50">
+        <f>E27/F27</f>
+        <v>0.48271592523984963</v>
+      </c>
+      <c r="J27" s="12"/>
       <c r="K27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="28" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="28">
+        <f>A27+1</f>
         <v>23</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>25</v>
+      <c r="B28" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
-        <v>10659414</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="E28" s="48">
+        <f>[13]Лист1!$E$31</f>
+        <v>9270726</v>
+      </c>
+      <c r="F28" s="48">
+        <f>[13]Лист1!$F$31</f>
+        <v>10267748</v>
+      </c>
+      <c r="G28" s="53">
         <f>100%-F28/16800000</f>
-        <v>0.36551107142857142</v>
-      </c>
-      <c r="H28" s="18">
-        <f>24000000-F28</f>
-        <v>13340586</v>
-      </c>
-      <c r="I28" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="15"/>
+        <v>0.38882452380952381</v>
+      </c>
+      <c r="H28" s="54">
+        <f>16800000-F28</f>
+        <v>6532252</v>
+      </c>
+      <c r="I28" s="50">
+        <f>E28/F28</f>
+        <v>0.90289769480123583</v>
+      </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="40">
-        <f t="shared" si="1"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="28">
+        <f>A28+1</f>
         <v>24</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="12">
-        <f>[12]Лист1!$E$39</f>
+      <c r="E29" s="48">
+        <f>[15]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
-      <c r="F29" s="12">
-        <f>[12]Лист1!$F$39</f>
+      <c r="F29" s="48">
+        <f>[15]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="53">
         <f>100%-F29/18200000</f>
         <v>0.32799769230769227</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="54">
         <f>18200000-F29</f>
         <v>5969558</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" si="0"/>
+      <c r="I29" s="50">
+        <f>E29/F29</f>
         <v>0.91973258202769781</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="40">
-        <f t="shared" si="1"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="28">
+        <f>A29+1</f>
         <v>25</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>18</v>
+      <c r="B30" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="12">
-        <f>[13]Лист1!$E$30</f>
-        <v>6849070</v>
-      </c>
-      <c r="F30" s="12">
-        <f>[13]Лист1!$F$30</f>
-        <v>14503171</v>
-      </c>
-      <c r="G30" s="37">
-        <f>100%-F30/19600000</f>
-        <v>0.26004229591836736</v>
-      </c>
-      <c r="H30" s="38">
-        <f>19600000-F30</f>
-        <v>5096829</v>
-      </c>
-      <c r="I30" s="23">
-        <f t="shared" si="0"/>
-        <v>0.47224637977446449</v>
-      </c>
-      <c r="J30" s="15"/>
+      <c r="E30" s="57">
+        <f>[14]Лист1!$E$31</f>
+        <v>3558492</v>
+      </c>
+      <c r="F30" s="51">
+        <f>[14]Лист1!$F$31</f>
+        <v>11902998</v>
+      </c>
+      <c r="G30" s="13">
+        <f>100%-F30/16800000</f>
+        <v>0.29148821428571425</v>
+      </c>
+      <c r="H30" s="14">
+        <f>24000000-F30</f>
+        <v>12097002</v>
+      </c>
+      <c r="I30" s="50">
+        <f>E30/F30</f>
+        <v>0.29895762395322589</v>
+      </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="40">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="28">
+        <f>A30+1</f>
         <v>26</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>40</v>
+      <c r="B31" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="16">
-        <f>[14]Лист1!$E$30</f>
-        <v>13190994</v>
-      </c>
-      <c r="F31" s="16">
-        <f>[14]Лист1!$F$30</f>
-        <v>16642877</v>
-      </c>
-      <c r="G31" s="17">
-        <f>100%-F31/21000000</f>
-        <v>0.20748204761904765</v>
-      </c>
-      <c r="H31" s="18">
-        <f>21000000-F31</f>
-        <v>4357123</v>
-      </c>
-      <c r="I31" s="23">
-        <f t="shared" si="0"/>
-        <v>0.7925909684966127</v>
-      </c>
-      <c r="J31" s="15"/>
+      <c r="E31" s="52">
+        <f>[16]Лист1!$E$30</f>
+        <v>6849070</v>
+      </c>
+      <c r="F31" s="48">
+        <f>[16]Лист1!$F$30</f>
+        <v>14503171</v>
+      </c>
+      <c r="G31" s="53">
+        <f>100%-F31/19600000</f>
+        <v>0.26004229591836736</v>
+      </c>
+      <c r="H31" s="54">
+        <f>19600000-F31</f>
+        <v>5096829</v>
+      </c>
+      <c r="I31" s="50">
+        <f>E31/F31</f>
+        <v>0.47224637977446449</v>
+      </c>
+      <c r="J31" s="12"/>
       <c r="K31" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="40">
-        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="28">
+        <f>A31+1</f>
         <v>27</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>20</v>
+      <c r="B32" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="12">
-        <f>[15]Лист1!$E$32</f>
-        <v>6615167</v>
-      </c>
-      <c r="F32" s="12">
-        <f>[15]Лист1!$F$32</f>
-        <v>15776459</v>
-      </c>
-      <c r="G32" s="37">
-        <f>100%-F32/18200000</f>
-        <v>0.13316159340659339</v>
-      </c>
-      <c r="H32" s="38">
-        <f>18200000-F32</f>
-        <v>2423541</v>
-      </c>
-      <c r="I32" s="23">
-        <f t="shared" si="0"/>
-        <v>0.4193061953889653</v>
-      </c>
-      <c r="J32" s="15"/>
+      <c r="E32" s="51">
+        <f>[17]Лист1!$E$30</f>
+        <v>13190994</v>
+      </c>
+      <c r="F32" s="51">
+        <f>[17]Лист1!$F$30</f>
+        <v>16642877</v>
+      </c>
+      <c r="G32" s="13">
+        <f>100%-F32/21000000</f>
+        <v>0.20748204761904765</v>
+      </c>
+      <c r="H32" s="14">
+        <f>21000000-F32</f>
+        <v>4357123</v>
+      </c>
+      <c r="I32" s="50">
+        <f>E32/F32</f>
+        <v>0.7925909684966127</v>
+      </c>
+      <c r="J32" s="12"/>
       <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="A33" s="28">
+        <f>A32+1</f>
+        <v>28</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="52">
+        <f>[18]Лист1!$E$32</f>
+        <v>6622752</v>
+      </c>
+      <c r="F33" s="48">
+        <f>[18]Лист1!$F$32</f>
+        <v>15784268</v>
+      </c>
+      <c r="G33" s="53">
+        <f>100%-F33/18200000</f>
+        <v>0.13273252747252751</v>
+      </c>
+      <c r="H33" s="54">
+        <f>18200000-F33</f>
+        <v>2415732</v>
+      </c>
+      <c r="I33" s="50">
+        <f>E33/F33</f>
+        <v>0.41957929249554049</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="27">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="22">
+        <f>A33+1</f>
         <v>29</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="B34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D34" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="30">
-        <f>[16]Лист1!$E$33</f>
+      <c r="E34" s="58">
+        <f>[19]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F33" s="30">
-        <f>[16]Лист1!$F$33</f>
+      <c r="F34" s="58">
+        <f>[19]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G33" s="34">
-        <f>100%-F33/16800000</f>
+      <c r="G34" s="47">
+        <f>100%-F34/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H33" s="35">
-        <f>16800000-F33</f>
+      <c r="H34" s="27">
+        <f>16800000-F34</f>
         <v>-9982614</v>
       </c>
-      <c r="I33" s="31">
-        <f t="shared" si="0"/>
+      <c r="I34" s="59">
+        <f>E34/F34</f>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="28" t="s">
+      <c r="J34" s="25"/>
+      <c r="K34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="33"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="11"/>
+      <c r="L34" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -37,14 +37,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>№п/п</t>
   </si>
@@ -178,9 +178,6 @@
     <t>"Франкония 0,75 л." X-28MCA-750</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.10.2019 г.</t>
-  </si>
-  <si>
     <t>"Франкония 0,5 л." X-A-26-1-500 (Чистовые формы)</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t>Приблизительное количество выпущеной продукции</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.11.2019 г.</t>
+  </si>
+  <si>
+    <t>"Байрон 0.5 л." XXI-В-30-4А-500</t>
   </si>
 </sst>
 </file>
@@ -646,9 +649,6 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,6 +665,48 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,58 +752,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,15 +851,15 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>3585960</v>
+            <v>4294048</v>
           </cell>
           <cell r="F31">
-            <v>7428717</v>
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -874,10 +877,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
@@ -907,8 +910,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -924,12 +927,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3558492</v>
-          </cell>
-          <cell r="F31">
-            <v>11902998</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -950,12 +953,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
@@ -985,8 +988,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1030,15 +1033,15 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>6622752</v>
+            <v>8848812</v>
           </cell>
           <cell r="F32">
-            <v>15784268</v>
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1106,12 +1109,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>803358</v>
-          </cell>
-          <cell r="F31">
-            <v>1444922</v>
+        <row r="32">
+          <cell r="E32">
+            <v>645420</v>
+          </cell>
+          <cell r="F32">
+            <v>851238</v>
           </cell>
         </row>
       </sheetData>
@@ -1132,12 +1135,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>645420</v>
-          </cell>
-          <cell r="F32">
-            <v>851238</v>
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
           </cell>
         </row>
       </sheetData>
@@ -1158,17 +1161,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3363115</v>
-          </cell>
-          <cell r="F31">
-            <v>3554106</v>
+        <row r="32">
+          <cell r="E32">
+            <v>1810428</v>
+          </cell>
+          <cell r="F32">
+            <v>1922742</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1184,12 +1187,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>1810428</v>
-          </cell>
-          <cell r="F32">
-            <v>1922742</v>
+        <row r="31">
+          <cell r="E31">
+            <v>629376</v>
+          </cell>
+          <cell r="F31">
+            <v>2858476</v>
           </cell>
         </row>
       </sheetData>
@@ -1212,10 +1215,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>629376</v>
+            <v>5344626</v>
           </cell>
           <cell r="F31">
-            <v>2858476</v>
+            <v>5601912</v>
           </cell>
         </row>
       </sheetData>
@@ -1245,8 +1248,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1271,8 +1274,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1568,13 +1571,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1594,68 +1597,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="60" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1668,14 +1671,14 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A10" si="0">A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1687,17 +1690,17 @@
       <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31">
         <f>100%-F5/16800000</f>
         <v>1</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="30">
         <f>18200000-F5</f>
         <v>18200000</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
         <v>11</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1718,8 +1721,8 @@
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="20">
         <f>100%-F6/16800000</f>
         <v>1</v>
@@ -1728,7 +1731,7 @@
         <f>16800000-F6</f>
         <v>16800000</v>
       </c>
-      <c r="I6" s="50" t="e">
+      <c r="I6" s="32" t="e">
         <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1752,8 +1755,8 @@
       <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="20">
         <f>100%-F7/19600000</f>
         <v>1</v>
@@ -1762,7 +1765,7 @@
         <f>18900000-F7</f>
         <v>18900000</v>
       </c>
-      <c r="I7" s="50" t="e">
+      <c r="I7" s="32" t="e">
         <f>E7/F7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1773,30 +1776,30 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="46">
-        <f>A7+1</f>
+      <c r="A8" s="28">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="49">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31">
         <f>100%-F8/16800000</f>
         <v>1</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="12"/>
       <c r="K8" s="11"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="28">
-        <f>A8+1</f>
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1804,11 +1807,11 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="51">
+      <c r="E9" s="33">
         <f>[1]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="33">
         <f>[1]Лист1!$F$31</f>
         <v>524968</v>
       </c>
@@ -1820,8 +1823,8 @@
         <f>15400000-F9</f>
         <v>14875032</v>
       </c>
-      <c r="I9" s="50">
-        <f>E9/F9</f>
+      <c r="I9" s="32">
+        <f t="shared" ref="I9:I35" si="1">E9/F9</f>
         <v>0.85535880282226728</v>
       </c>
       <c r="J9" s="12"/>
@@ -1830,7 +1833,7 @@
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1842,10 +1845,10 @@
       <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="33">
         <v>557856</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="33">
         <v>668458</v>
       </c>
       <c r="G10" s="20">
@@ -1856,8 +1859,8 @@
         <f>12600000-F10</f>
         <v>11931542</v>
       </c>
-      <c r="I10" s="50">
-        <f>E10/F10</f>
+      <c r="I10" s="32">
+        <f t="shared" si="1"/>
         <v>0.83454158675638557</v>
       </c>
       <c r="J10" s="12"/>
@@ -1872,15 +1875,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="51">
+      <c r="E11" s="33">
         <f>[2]Лист1!$E$31</f>
         <v>613088</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="33">
         <f>[2]Лист1!$F$31</f>
         <v>721402</v>
       </c>
@@ -1892,8 +1895,8 @@
         <f>18900000-F11</f>
         <v>18178598</v>
       </c>
-      <c r="I11" s="50">
-        <f>E11/F11</f>
+      <c r="I11" s="32">
+        <f t="shared" si="1"/>
         <v>0.84985625213126659</v>
       </c>
       <c r="J11" s="12"/>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="12" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="10">
-        <f>A11+1</f>
+        <f t="shared" ref="A12:A35" si="2">A11+1</f>
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1914,10 +1917,10 @@
       <c r="D12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="33">
         <v>515328</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="33">
         <v>670208</v>
       </c>
       <c r="G12" s="20">
@@ -1928,8 +1931,8 @@
         <f>12600000-F12</f>
         <v>11929792</v>
       </c>
-      <c r="I12" s="50">
-        <f>E12/F12</f>
+      <c r="I12" s="32">
+        <f t="shared" si="1"/>
         <v>0.76890756302521013</v>
       </c>
       <c r="J12" s="12"/>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="13" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="10">
-        <f>A12+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1952,10 +1955,10 @@
       <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="33">
         <v>763476</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="33">
         <v>975569</v>
       </c>
       <c r="G13" s="20">
@@ -1966,8 +1969,8 @@
         <f>16800000-F13</f>
         <v>15824431</v>
       </c>
-      <c r="I13" s="50">
-        <f>E13/F13</f>
+      <c r="I13" s="32">
+        <f t="shared" si="1"/>
         <v>0.78259559293089465</v>
       </c>
       <c r="J13" s="12"/>
@@ -1977,8 +1980,8 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="28">
-        <f>A13+1</f>
+      <c r="A14" s="27">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1990,12 +1993,12 @@
       <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="51">
-        <f>[4]Лист1!$E$32</f>
+      <c r="E14" s="33">
+        <f>[3]Лист1!$E$32</f>
         <v>645420</v>
       </c>
-      <c r="F14" s="51">
-        <f>[4]Лист1!$F$32</f>
+      <c r="F14" s="33">
+        <f>[3]Лист1!$F$32</f>
         <v>851238</v>
       </c>
       <c r="G14" s="20">
@@ -2006,8 +2009,8 @@
         <f>14000000-F14</f>
         <v>13148762</v>
       </c>
-      <c r="I14" s="50">
-        <f>E14/F14</f>
+      <c r="I14" s="32">
+        <f t="shared" si="1"/>
         <v>0.75821333164167948</v>
       </c>
       <c r="J14" s="12"/>
@@ -2016,8 +2019,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="28">
-        <f>A14+1</f>
+      <c r="A15" s="27">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2029,24 +2032,24 @@
       <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="52">
-        <f>[3]Лист1!$E$31</f>
+      <c r="E15" s="34">
+        <f>[4]Лист1!$E$31</f>
         <v>803358</v>
       </c>
-      <c r="F15" s="48">
-        <f>[3]Лист1!$F$31</f>
+      <c r="F15" s="30">
+        <f>[4]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="31">
         <f>100%-F15/16800000</f>
         <v>0.91399273809523807</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="30">
         <f>12600000-F15</f>
         <v>11155078</v>
       </c>
-      <c r="I15" s="50">
-        <f>E15/F15</f>
+      <c r="I15" s="32">
+        <f t="shared" si="1"/>
         <v>0.55598710518630068</v>
       </c>
       <c r="J15" s="12"/>
@@ -2056,8 +2059,8 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="28">
-        <f>A15+1</f>
+      <c r="A16" s="27">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -2069,12 +2072,12 @@
       <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="51">
-        <f>[6]Лист1!$E$32</f>
+      <c r="E16" s="33">
+        <f>[5]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
-      <c r="F16" s="51">
-        <f>[6]Лист1!$F$32</f>
+      <c r="F16" s="33">
+        <f>[5]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
       <c r="G16" s="20">
@@ -2085,8 +2088,8 @@
         <f>12600000-F16</f>
         <v>10677258</v>
       </c>
-      <c r="I16" s="50">
-        <f>E16/F16</f>
+      <c r="I16" s="32">
+        <f t="shared" si="1"/>
         <v>0.94158654671297548</v>
       </c>
       <c r="J16" s="12"/>
@@ -2095,8 +2098,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="28">
-        <f>A16+1</f>
+      <c r="A17" s="27">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2108,24 +2111,24 @@
       <c r="D17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="52">
-        <f>[7]Лист1!$E$31</f>
+      <c r="E17" s="34">
+        <f>[6]Лист1!$E$31</f>
         <v>629376</v>
       </c>
-      <c r="F17" s="48">
-        <f>[7]Лист1!$F$31</f>
+      <c r="F17" s="30">
+        <f>[6]Лист1!$F$31</f>
         <v>2858476</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="35">
         <f>100%-F17/16800000</f>
         <v>0.82985261904761909</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="36">
         <f>16800000-F17</f>
         <v>13941524</v>
       </c>
-      <c r="I17" s="50">
-        <f>E17/F17</f>
+      <c r="I17" s="32">
+        <f t="shared" si="1"/>
         <v>0.2201788645418048</v>
       </c>
       <c r="J17" s="12"/>
@@ -2135,8 +2138,8 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="28">
-        <f>A17+1</f>
+      <c r="A18" s="27">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2148,25 +2151,25 @@
       <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="48">
-        <f>[5]Лист1!$E$31</f>
-        <v>3363115</v>
-      </c>
-      <c r="F18" s="48">
-        <f>[5]Лист1!$F$31</f>
-        <v>3554106</v>
-      </c>
-      <c r="G18" s="53">
+      <c r="E18" s="30">
+        <f>[7]Лист1!$E$31</f>
+        <v>5344626</v>
+      </c>
+      <c r="F18" s="30">
+        <f>[7]Лист1!$F$31</f>
+        <v>5601912</v>
+      </c>
+      <c r="G18" s="35">
         <f>100%-F18/16800000</f>
-        <v>0.78844607142857148</v>
-      </c>
-      <c r="H18" s="54">
+        <v>0.66655285714285717</v>
+      </c>
+      <c r="H18" s="36">
         <f>16800000-F18</f>
-        <v>13245894</v>
-      </c>
-      <c r="I18" s="50">
-        <f>E18/F18</f>
-        <v>0.94626187288730279</v>
+        <v>11198088</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="1"/>
+        <v>0.95407175264445421</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="11"/>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="19" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="10">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2186,8 +2189,8 @@
       <c r="D19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37">
         <v>3080000</v>
       </c>
       <c r="G19" s="13">
@@ -2198,8 +2201,8 @@
         <f>14000000-F19</f>
         <v>10920000</v>
       </c>
-      <c r="I19" s="50">
-        <f>E19/F19</f>
+      <c r="I19" s="32">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="12"/>
@@ -2208,8 +2211,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="28">
-        <f>A19+1</f>
+      <c r="A20" s="27">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2221,11 +2224,11 @@
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="33">
         <f>[8]Лист1!$E$30</f>
         <v>4126964</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="33">
         <f>[8]Лист1!$F$30</f>
         <v>4454263</v>
       </c>
@@ -2237,8 +2240,8 @@
         <f>18900000-F20</f>
         <v>14445737</v>
       </c>
-      <c r="I20" s="50">
-        <f>E20/F20</f>
+      <c r="I20" s="32">
+        <f t="shared" si="1"/>
         <v>0.92652005505736867</v>
       </c>
       <c r="J20" s="12"/>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="10">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -2260,20 +2263,20 @@
       <c r="D21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30">
         <v>4055359</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="35">
         <f>100%-F21/16800000</f>
         <v>0.75860958333333328</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="36">
         <f>18900000-F21</f>
         <v>14844641</v>
       </c>
-      <c r="I21" s="50">
-        <f>E21/F21</f>
+      <c r="I21" s="32">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="12"/>
@@ -2281,9 +2284,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="26" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="10">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -2295,8 +2298,8 @@
       <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
         <v>5511547</v>
       </c>
       <c r="G22" s="13">
@@ -2307,8 +2310,8 @@
         <f>12000000-F22</f>
         <v>6488453</v>
       </c>
-      <c r="I22" s="50">
-        <f>E22/F22</f>
+      <c r="I22" s="32">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="12"/>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="10">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -2331,22 +2334,22 @@
       <c r="D23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="34">
         <v>2131080</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="30">
         <v>5638494</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="38">
         <f>100%-F23/16800000</f>
         <v>0.66437535714285723</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="36">
         <f>16800000-F23</f>
         <v>11161506</v>
       </c>
-      <c r="I23" s="50">
-        <f>E23/F23</f>
+      <c r="I23" s="32">
+        <f t="shared" si="1"/>
         <v>0.37795198505132754</v>
       </c>
       <c r="J23" s="12"/>
@@ -2356,12 +2359,12 @@
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="28">
-        <f>A23+1</f>
+      <c r="A24" s="27">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>12</v>
@@ -2369,11 +2372,11 @@
       <c r="D24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="39">
         <f>[9]Лист1!$E$30</f>
         <v>4658136</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="33">
         <f>[9]Лист1!$F$30</f>
         <v>7162438</v>
       </c>
@@ -2385,8 +2388,8 @@
         <f>16800000-F24</f>
         <v>9637562</v>
       </c>
-      <c r="I24" s="50">
-        <f>E24/F24</f>
+      <c r="I24" s="32">
+        <f t="shared" si="1"/>
         <v>0.65035620552666562</v>
       </c>
       <c r="J24" s="12"/>
@@ -2395,8 +2398,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="28">
-        <f>A24+1</f>
+      <c r="A25" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -2408,11 +2411,11 @@
       <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="33">
         <f>[10]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="33">
         <f>[10]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
@@ -2424,8 +2427,8 @@
         <f>18900000-F25</f>
         <v>9725733</v>
       </c>
-      <c r="I25" s="50">
-        <f>E25/F25</f>
+      <c r="I25" s="32">
+        <f t="shared" si="1"/>
         <v>0.90691561516576746</v>
       </c>
       <c r="J25" s="12"/>
@@ -2434,8 +2437,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="28">
-        <f>A25+1</f>
+      <c r="A26" s="27">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -2447,12 +2450,12 @@
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="57">
-        <f>[12]Лист1!$E$31</f>
+      <c r="E26" s="39">
+        <f>[11]Лист1!$E$31</f>
         <v>4294048</v>
       </c>
-      <c r="F26" s="51">
-        <f>[12]Лист1!$F$31</f>
+      <c r="F26" s="33">
+        <f>[11]Лист1!$F$31</f>
         <v>8845677</v>
       </c>
       <c r="G26" s="13">
@@ -2463,8 +2466,8 @@
         <f>16800000-F26</f>
         <v>7954323</v>
       </c>
-      <c r="I26" s="50">
-        <f>E26/F26</f>
+      <c r="I26" s="32">
+        <f t="shared" si="1"/>
         <v>0.48544028908132186</v>
       </c>
       <c r="J26" s="12"/>
@@ -2473,8 +2476,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="28">
-        <f>A26+1</f>
+      <c r="A27" s="27">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -2486,12 +2489,12 @@
       <c r="D27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="57">
-        <f>[11]Лист1!$E$31</f>
+      <c r="E27" s="39">
+        <f>[12]Лист1!$E$31</f>
         <v>3585960</v>
       </c>
-      <c r="F27" s="51">
-        <f>[11]Лист1!$F$31</f>
+      <c r="F27" s="33">
+        <f>[12]Лист1!$F$31</f>
         <v>7428717</v>
       </c>
       <c r="G27" s="13">
@@ -2502,8 +2505,8 @@
         <f>14000000-F27</f>
         <v>6571283</v>
       </c>
-      <c r="I27" s="50">
-        <f>E27/F27</f>
+      <c r="I27" s="32">
+        <f t="shared" si="1"/>
         <v>0.48271592523984963</v>
       </c>
       <c r="J27" s="12"/>
@@ -2512,8 +2515,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="28">
-        <f>A27+1</f>
+      <c r="A28" s="27">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -2525,24 +2528,24 @@
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="30">
         <f>[13]Лист1!$E$31</f>
         <v>9270726</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="30">
         <f>[13]Лист1!$F$31</f>
         <v>10267748</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="35">
         <f>100%-F28/16800000</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="36">
         <f>16800000-F28</f>
         <v>6532252</v>
       </c>
-      <c r="I28" s="50">
-        <f>E28/F28</f>
+      <c r="I28" s="32">
+        <f t="shared" si="1"/>
         <v>0.90289769480123583</v>
       </c>
       <c r="J28" s="12"/>
@@ -2552,8 +2555,8 @@
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="28">
-        <f>A28+1</f>
+      <c r="A29" s="27">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -2565,24 +2568,24 @@
       <c r="D29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="48">
-        <f>[15]Лист1!$E$39</f>
+      <c r="E29" s="30">
+        <f>[14]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
-      <c r="F29" s="48">
-        <f>[15]Лист1!$F$39</f>
+      <c r="F29" s="30">
+        <f>[14]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="35">
         <f>100%-F29/18200000</f>
         <v>0.32799769230769227</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="36">
         <f>18200000-F29</f>
         <v>5969558</v>
       </c>
-      <c r="I29" s="50">
-        <f>E29/F29</f>
+      <c r="I29" s="32">
+        <f t="shared" si="1"/>
         <v>0.91973258202769781</v>
       </c>
       <c r="J29" s="12"/>
@@ -2592,8 +2595,8 @@
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="28">
-        <f>A29+1</f>
+      <c r="A30" s="27">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -2605,25 +2608,25 @@
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="57">
-        <f>[14]Лист1!$E$31</f>
-        <v>3558492</v>
-      </c>
-      <c r="F30" s="51">
-        <f>[14]Лист1!$F$31</f>
-        <v>11902998</v>
+      <c r="E30" s="39">
+        <f>[15]Лист1!$E$31</f>
+        <v>4259304</v>
+      </c>
+      <c r="F30" s="33">
+        <f>[15]Лист1!$F$31</f>
+        <v>12624642</v>
       </c>
       <c r="G30" s="13">
         <f>100%-F30/16800000</f>
-        <v>0.29148821428571425</v>
+        <v>0.24853321428571429</v>
       </c>
       <c r="H30" s="14">
         <f>24000000-F30</f>
-        <v>12097002</v>
-      </c>
-      <c r="I30" s="50">
-        <f>E30/F30</f>
-        <v>0.29895762395322589</v>
+        <v>11375358</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" si="1"/>
+        <v>0.33738018076076931</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="11" t="s">
@@ -2631,8 +2634,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="28">
-        <f>A30+1</f>
+      <c r="A31" s="27">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2644,24 +2647,24 @@
       <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="34">
         <f>[16]Лист1!$E$30</f>
         <v>6849070</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="30">
         <f>[16]Лист1!$F$30</f>
         <v>14503171</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="35">
         <f>100%-F31/19600000</f>
         <v>0.26004229591836736</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="36">
         <f>19600000-F31</f>
         <v>5096829</v>
       </c>
-      <c r="I31" s="50">
-        <f>E31/F31</f>
+      <c r="I31" s="32">
+        <f t="shared" si="1"/>
         <v>0.47224637977446449</v>
       </c>
       <c r="J31" s="12"/>
@@ -2671,8 +2674,8 @@
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="28">
-        <f>A31+1</f>
+      <c r="A32" s="27">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -2684,11 +2687,11 @@
       <c r="D32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="33">
         <f>[17]Лист1!$E$30</f>
         <v>13190994</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="33">
         <f>[17]Лист1!$F$30</f>
         <v>16642877</v>
       </c>
@@ -2700,8 +2703,8 @@
         <f>21000000-F32</f>
         <v>4357123</v>
       </c>
-      <c r="I32" s="50">
-        <f>E32/F32</f>
+      <c r="I32" s="32">
+        <f t="shared" si="1"/>
         <v>0.7925909684966127</v>
       </c>
       <c r="J32" s="12"/>
@@ -2710,8 +2713,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="28">
-        <f>A32+1</f>
+      <c r="A33" s="27">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -2723,25 +2726,25 @@
       <c r="D33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="34">
         <f>[18]Лист1!$E$32</f>
-        <v>6622752</v>
-      </c>
-      <c r="F33" s="48">
+        <v>8848812</v>
+      </c>
+      <c r="F33" s="30">
         <f>[18]Лист1!$F$32</f>
-        <v>15784268</v>
-      </c>
-      <c r="G33" s="53">
+        <v>18119313</v>
+      </c>
+      <c r="G33" s="35">
         <f>100%-F33/18200000</f>
-        <v>0.13273252747252751</v>
-      </c>
-      <c r="H33" s="54">
+        <v>4.4333516483516799E-3</v>
+      </c>
+      <c r="H33" s="36">
         <f>18200000-F33</f>
-        <v>2415732</v>
-      </c>
-      <c r="I33" s="50">
-        <f>E33/F33</f>
-        <v>0.41957929249554049</v>
+        <v>80687</v>
+      </c>
+      <c r="I33" s="32">
+        <f t="shared" si="1"/>
+        <v>0.4883635488828964</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="11" t="s">
@@ -2750,44 +2753,63 @@
       <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="22">
-        <f>A33+1</f>
+      <c r="A34" s="27">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E35" s="40">
         <f>[19]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F35" s="40">
         <f>[19]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G34" s="47">
-        <f>100%-F34/16800000</f>
+      <c r="G35" s="29">
+        <f>100%-F35/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H34" s="27">
-        <f>16800000-F34</f>
+      <c r="H35" s="26">
+        <f>16800000-F35</f>
         <v>-9982614</v>
       </c>
-      <c r="I34" s="59">
-        <f>E34/F34</f>
+      <c r="I35" s="41">
+        <f t="shared" si="1"/>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="23" t="s">
+      <c r="J35" s="24"/>
+      <c r="K35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="26"/>
+      <c r="L35" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
@@ -2811,7 +2833,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -707,6 +707,9 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,9 +765,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
@@ -1597,40 +1597,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1639,26 +1639,26 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1671,9 +1671,9 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="45"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="61"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="30"/>
       <c r="G34" s="35"/>
       <c r="H34" s="36"/>

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -34,17 +34,19 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>№п/п</t>
   </si>
@@ -191,6 +193,9 @@
   </si>
   <si>
     <t>"Байрон 0.5 л." XXI-В-30-4А-500</t>
+  </si>
+  <si>
+    <t>"Круглая 0,2 л." XXI-В-28-1-200-5</t>
   </si>
 </sst>
 </file>
@@ -823,12 +828,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
@@ -849,12 +854,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4294048</v>
-          </cell>
-          <cell r="F31">
-            <v>8845677</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -877,10 +882,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>3585960</v>
+            <v>4294048</v>
           </cell>
           <cell r="F31">
-            <v>7428717</v>
+            <v>8845677</v>
           </cell>
         </row>
       </sheetData>
@@ -903,10 +908,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>9270726</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>10267748</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
@@ -927,12 +932,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>9270726</v>
+          </cell>
+          <cell r="F31">
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
@@ -953,12 +958,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4259304</v>
-          </cell>
-          <cell r="F31">
-            <v>12624642</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -979,12 +984,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,10 +1012,10 @@
       <sheetData sheetId="0">
         <row r="30">
           <cell r="E30">
-            <v>13190994</v>
+            <v>6849070</v>
           </cell>
           <cell r="F30">
-            <v>16642877</v>
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -1031,12 +1036,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
@@ -1057,12 +1062,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -1099,6 +1104,78 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>948096</v>
+          </cell>
+          <cell r="F32">
+            <v>1031915</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1265,12 +1342,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4658136</v>
-          </cell>
-          <cell r="F30">
-            <v>7162438</v>
+        <row r="32">
+          <cell r="E32">
+            <v>2527011</v>
+          </cell>
+          <cell r="F32">
+            <v>2734020</v>
           </cell>
         </row>
       </sheetData>
@@ -1571,13 +1648,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1824,7 +1901,7 @@
         <v>14875032</v>
       </c>
       <c r="I9" s="32">
-        <f t="shared" ref="I9:I35" si="1">E9/F9</f>
+        <f t="shared" ref="I9:I36" si="1">E9/F9</f>
         <v>0.85535880282226728</v>
       </c>
       <c r="J9" s="12"/>
@@ -1905,7 +1982,7 @@
     </row>
     <row r="12" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="10">
-        <f t="shared" ref="A12:A35" si="2">A11+1</f>
+        <f t="shared" ref="A12:A36" si="2">A11+1</f>
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -2359,51 +2436,43 @@
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="27">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="39">
-        <f>[9]Лист1!$E$30</f>
-        <v>4658136</v>
-      </c>
-      <c r="F24" s="33">
-        <f>[9]Лист1!$F$30</f>
-        <v>7162438</v>
-      </c>
-      <c r="G24" s="13">
+        <v>49</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="42">
+        <f>[9]Лист1!$E$32</f>
+        <v>2527011</v>
+      </c>
+      <c r="F24" s="30">
+        <f>[9]Лист1!$F$32</f>
+        <v>2734020</v>
+      </c>
+      <c r="G24" s="38">
         <f>100%-F24/16800000</f>
-        <v>0.57366440476190483</v>
-      </c>
-      <c r="H24" s="14">
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="H24" s="36">
         <f>16800000-F24</f>
-        <v>9637562</v>
+        <v>14065980</v>
       </c>
       <c r="I24" s="32">
-        <f t="shared" si="1"/>
-        <v>0.65035620552666562</v>
+        <f t="shared" ref="I24" si="3">E24/F24</f>
+        <v>0.92428402133122656</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="27">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>A23+1</f>
+        <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -2411,38 +2480,38 @@
       <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="33">
-        <f>[10]Лист1!$E$37</f>
-        <v>8320286</v>
+      <c r="E25" s="39">
+        <f>[10]Лист1!$E$30</f>
+        <v>6320916</v>
       </c>
       <c r="F25" s="33">
-        <f>[10]Лист1!$F$37</f>
-        <v>9174267</v>
+        <f>[10]Лист1!$F$30</f>
+        <v>8887400</v>
       </c>
       <c r="G25" s="13">
-        <f>100%-F25/18900000</f>
-        <v>0.51458904761904756</v>
+        <f>100%-F25/16800000</f>
+        <v>0.47098809523809526</v>
       </c>
       <c r="H25" s="14">
-        <f>18900000-F25</f>
-        <v>9725733</v>
+        <f>16800000-F25</f>
+        <v>7912600</v>
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>0.90691561516576746</v>
+        <v>0.71122217971510227</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="27">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
@@ -2450,38 +2519,38 @@
       <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="39">
-        <f>[11]Лист1!$E$31</f>
-        <v>4294048</v>
+      <c r="E26" s="33">
+        <f>[11]Лист1!$E$37</f>
+        <v>8320286</v>
       </c>
       <c r="F26" s="33">
-        <f>[11]Лист1!$F$31</f>
-        <v>8845677</v>
+        <f>[11]Лист1!$F$37</f>
+        <v>9174267</v>
       </c>
       <c r="G26" s="13">
-        <f>100%-F26/16800000</f>
-        <v>0.47347160714285719</v>
+        <f>100%-F26/18900000</f>
+        <v>0.51458904761904756</v>
       </c>
       <c r="H26" s="14">
-        <f>16800000-F26</f>
-        <v>7954323</v>
+        <f>18900000-F26</f>
+        <v>9725733</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>0.48544028908132186</v>
+        <v>0.90691561516576746</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="27">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>12</v>
@@ -2491,23 +2560,23 @@
       </c>
       <c r="E27" s="39">
         <f>[12]Лист1!$E$31</f>
-        <v>3585960</v>
+        <v>4294048</v>
       </c>
       <c r="F27" s="33">
         <f>[12]Лист1!$F$31</f>
-        <v>7428717</v>
+        <v>8845677</v>
       </c>
       <c r="G27" s="13">
-        <f>100%-F27/14000000</f>
-        <v>0.46937735714285711</v>
+        <f>100%-F27/16800000</f>
+        <v>0.47347160714285719</v>
       </c>
       <c r="H27" s="14">
-        <f>14000000-F27</f>
-        <v>6571283</v>
+        <f>16800000-F27</f>
+        <v>7954323</v>
       </c>
       <c r="I27" s="32">
         <f t="shared" si="1"/>
-        <v>0.48271592523984963</v>
+        <v>0.48544028908132186</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="11" t="s">
@@ -2517,10 +2586,10 @@
     <row r="28" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="27">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>12</v>
@@ -2528,39 +2597,38 @@
       <c r="D28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="39">
         <f>[13]Лист1!$E$31</f>
-        <v>9270726</v>
-      </c>
-      <c r="F28" s="30">
+        <v>3585960</v>
+      </c>
+      <c r="F28" s="33">
         <f>[13]Лист1!$F$31</f>
-        <v>10267748</v>
-      </c>
-      <c r="G28" s="35">
-        <f>100%-F28/16800000</f>
-        <v>0.38882452380952381</v>
-      </c>
-      <c r="H28" s="36">
-        <f>16800000-F28</f>
-        <v>6532252</v>
+        <v>7428717</v>
+      </c>
+      <c r="G28" s="13">
+        <f>100%-F28/14000000</f>
+        <v>0.46937735714285711</v>
+      </c>
+      <c r="H28" s="14">
+        <f>14000000-F28</f>
+        <v>6571283</v>
       </c>
       <c r="I28" s="32">
         <f t="shared" si="1"/>
-        <v>0.90289769480123583</v>
+        <v>0.48271592523984963</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="27">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
@@ -2569,24 +2637,24 @@
         <v>14</v>
       </c>
       <c r="E29" s="30">
-        <f>[14]Лист1!$E$39</f>
-        <v>11248736</v>
+        <f>[14]Лист1!$E$31</f>
+        <v>9270726</v>
       </c>
       <c r="F29" s="30">
-        <f>[14]Лист1!$F$39</f>
-        <v>12230442</v>
+        <f>[14]Лист1!$F$31</f>
+        <v>10267748</v>
       </c>
       <c r="G29" s="35">
-        <f>100%-F29/18200000</f>
-        <v>0.32799769230769227</v>
+        <f>100%-F29/16800000</f>
+        <v>0.38882452380952381</v>
       </c>
       <c r="H29" s="36">
-        <f>18200000-F29</f>
-        <v>5969558</v>
+        <f>16800000-F29</f>
+        <v>6532252</v>
       </c>
       <c r="I29" s="32">
         <f t="shared" si="1"/>
-        <v>0.91973258202769781</v>
+        <v>0.90289769480123583</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="11" t="s">
@@ -2597,10 +2665,10 @@
     <row r="30" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="27">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>12</v>
@@ -2608,38 +2676,39 @@
       <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="39">
-        <f>[15]Лист1!$E$31</f>
-        <v>4259304</v>
-      </c>
-      <c r="F30" s="33">
-        <f>[15]Лист1!$F$31</f>
-        <v>12624642</v>
-      </c>
-      <c r="G30" s="13">
-        <f>100%-F30/16800000</f>
-        <v>0.24853321428571429</v>
-      </c>
-      <c r="H30" s="14">
-        <f>24000000-F30</f>
-        <v>11375358</v>
+      <c r="E30" s="30">
+        <f>[15]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F30" s="30">
+        <f>[15]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G30" s="35">
+        <f>100%-F30/18200000</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H30" s="36">
+        <f>18200000-F30</f>
+        <v>5969558</v>
       </c>
       <c r="I30" s="32">
         <f t="shared" si="1"/>
-        <v>0.33738018076076931</v>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="27">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>12</v>
@@ -2647,39 +2716,38 @@
       <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="34">
-        <f>[16]Лист1!$E$30</f>
-        <v>6849070</v>
-      </c>
-      <c r="F31" s="30">
-        <f>[16]Лист1!$F$30</f>
-        <v>14503171</v>
-      </c>
-      <c r="G31" s="35">
-        <f>100%-F31/19600000</f>
-        <v>0.26004229591836736</v>
-      </c>
-      <c r="H31" s="36">
-        <f>19600000-F31</f>
-        <v>5096829</v>
+      <c r="E31" s="39">
+        <f>[16]Лист1!$E$31</f>
+        <v>4259304</v>
+      </c>
+      <c r="F31" s="33">
+        <f>[16]Лист1!$F$31</f>
+        <v>12624642</v>
+      </c>
+      <c r="G31" s="13">
+        <f>100%-F31/16800000</f>
+        <v>0.24853321428571429</v>
+      </c>
+      <c r="H31" s="14">
+        <f>24000000-F31</f>
+        <v>11375358</v>
       </c>
       <c r="I31" s="32">
         <f t="shared" si="1"/>
-        <v>0.47224637977446449</v>
+        <v>0.33738018076076931</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="27">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>12</v>
@@ -2687,38 +2755,39 @@
       <c r="D32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="34">
         <f>[17]Лист1!$E$30</f>
-        <v>13190994</v>
-      </c>
-      <c r="F32" s="33">
+        <v>6849070</v>
+      </c>
+      <c r="F32" s="30">
         <f>[17]Лист1!$F$30</f>
-        <v>16642877</v>
-      </c>
-      <c r="G32" s="13">
-        <f>100%-F32/21000000</f>
-        <v>0.20748204761904765</v>
-      </c>
-      <c r="H32" s="14">
-        <f>21000000-F32</f>
-        <v>4357123</v>
+        <v>14503171</v>
+      </c>
+      <c r="G32" s="35">
+        <f>100%-F32/19600000</f>
+        <v>0.26004229591836736</v>
+      </c>
+      <c r="H32" s="36">
+        <f>19600000-F32</f>
+        <v>5096829</v>
       </c>
       <c r="I32" s="32">
         <f t="shared" si="1"/>
-        <v>0.7925909684966127</v>
+        <v>0.47224637977446449</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="27">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>12</v>
@@ -2726,90 +2795,144 @@
       <c r="D33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="34">
-        <f>[18]Лист1!$E$32</f>
-        <v>8848812</v>
-      </c>
-      <c r="F33" s="30">
-        <f>[18]Лист1!$F$32</f>
-        <v>18119313</v>
-      </c>
-      <c r="G33" s="35">
-        <f>100%-F33/18200000</f>
-        <v>4.4333516483516799E-3</v>
-      </c>
-      <c r="H33" s="36">
-        <f>18200000-F33</f>
-        <v>80687</v>
+      <c r="E33" s="33">
+        <f>[18]Лист1!$E$30</f>
+        <v>13190994</v>
+      </c>
+      <c r="F33" s="33">
+        <f>[18]Лист1!$F$30</f>
+        <v>16642877</v>
+      </c>
+      <c r="G33" s="13">
+        <f>100%-F33/21000000</f>
+        <v>0.20748204761904765</v>
+      </c>
+      <c r="H33" s="14">
+        <f>21000000-F33</f>
+        <v>4357123</v>
       </c>
       <c r="I33" s="32">
         <f t="shared" si="1"/>
-        <v>0.4883635488828964</v>
+        <v>0.7925909684966127</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="19"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="27">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="34">
+        <f>[19]Лист1!$E$32</f>
+        <v>8848812</v>
+      </c>
+      <c r="F34" s="30">
+        <f>[19]Лист1!$F$32</f>
+        <v>18119313</v>
+      </c>
+      <c r="G34" s="35">
+        <f>100%-F34/18200000</f>
+        <v>4.4333516483516799E-3</v>
+      </c>
+      <c r="H34" s="36">
+        <f>18200000-F34</f>
+        <v>80687</v>
+      </c>
+      <c r="I34" s="32">
+        <f t="shared" si="1"/>
+        <v>0.4883635488828964</v>
+      </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="27">
         <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="42">
+        <f>[21]Паспорт!$E$32</f>
+        <v>948096</v>
+      </c>
+      <c r="F35" s="30">
+        <f>[21]Паспорт!$F$32</f>
+        <v>1031915</v>
+      </c>
+      <c r="G35" s="35">
+        <f>100%-F35/15400000</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="H35" s="36">
+        <f>15400000-F35</f>
+        <v>14368085</v>
+      </c>
+      <c r="I35" s="32">
+        <f t="shared" ref="I35" si="4">E35/F35</f>
+        <v>0.91877334858006721</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="27">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="40">
-        <f>[19]Лист1!$E$33</f>
+      <c r="E36" s="40">
+        <f>[20]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F35" s="40">
-        <f>[19]Лист1!$F$33</f>
+      <c r="F36" s="40">
+        <f>[20]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G35" s="29">
-        <f>100%-F35/16800000</f>
+      <c r="G36" s="29">
+        <f>100%-F36/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H35" s="26">
-        <f>16800000-F35</f>
+      <c r="H36" s="26">
+        <f>16800000-F36</f>
         <v>-9982614</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I36" s="41">
         <f t="shared" si="1"/>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="22" t="s">
+      <c r="J36" s="24"/>
+      <c r="K36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="25"/>
+      <c r="L36" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
@@ -2833,7 +2956,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -36,17 +36,20 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>№п/п</t>
   </si>
@@ -138,9 +141,6 @@
     <t>«Фляга 0,2 л» тип XIII-В-28-2.1в-200-1</t>
   </si>
   <si>
-    <t>«Фляга 0,2 л»  НОВЫЙ ФОРМОКОМПЛЕКТ тип XIII-В-28-2.1в-200-2</t>
-  </si>
-  <si>
     <t>«Фляга 0,5» тип XIII-B-28-2-500-4</t>
   </si>
   <si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>"Круглая 0,2 л." XXI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>«Фляга 0,2 л» тип XIII-В-28-2-200-3</t>
+  </si>
+  <si>
+    <t>"Ведьма 0.5" тип XXI-В-28-2.1-500-4</t>
+  </si>
+  <si>
+    <t>"Баден 0.7 л." XI-28МСА-700</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +320,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +596,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,9 +623,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,9 +667,6 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -688,7 +685,7 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,13 +694,10 @@
     <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,6 +764,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,12 +825,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6320916</v>
-          </cell>
-          <cell r="F30">
-            <v>8887400</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -854,17 +851,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4824196</v>
+          </cell>
+          <cell r="F31">
+            <v>9443259</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -882,10 +879,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4294048</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>8845677</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
@@ -908,10 +905,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>3585960</v>
+            <v>9270726</v>
           </cell>
           <cell r="F31">
-            <v>7428717</v>
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
@@ -932,12 +929,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>9270726</v>
-          </cell>
-          <cell r="F31">
-            <v>10267748</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -958,17 +955,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -984,12 +981,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4259304</v>
-          </cell>
-          <cell r="F31">
-            <v>12624642</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -1012,10 +1009,10 @@
       <sheetData sheetId="0">
         <row r="30">
           <cell r="E30">
-            <v>6849070</v>
+            <v>13190994</v>
           </cell>
           <cell r="F30">
-            <v>14503171</v>
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
@@ -1036,17 +1033,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>13190994</v>
-          </cell>
-          <cell r="F30">
-            <v>16642877</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1056,23 +1053,45 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>8848812</v>
+            <v>948096</v>
           </cell>
           <cell r="F32">
-            <v>18119313</v>
+            <v>1031915</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1134,7 +1153,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Паспорт"/>
+      <sheetName val="Лист1"/>
       <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
@@ -1152,10 +1171,128 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>948096</v>
+            <v>2527011</v>
           </cell>
           <cell r="F32">
-            <v>1031915</v>
+            <v>2734020</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="E26">
+            <v>5937705</v>
+          </cell>
+          <cell r="F26">
+            <v>6283268</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>497004</v>
+          </cell>
+          <cell r="F31">
+            <v>650324</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>246960</v>
+          </cell>
+          <cell r="F32">
+            <v>275256</v>
           </cell>
         </row>
       </sheetData>
@@ -1299,8 +1436,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1342,17 +1479,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>2527011</v>
-          </cell>
-          <cell r="F32">
-            <v>2734020</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1648,13 +1785,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1674,68 +1811,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="A1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1748,1196 +1885,1272 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="10">
-        <f t="shared" ref="A5:A10" si="0">A4+1</f>
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29">
         <f>100%-F5/16800000</f>
         <v>1</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="28">
         <f>18200000-F5</f>
         <v>18200000</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="20">
-        <f>100%-F6/16800000</f>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="19">
+        <f>100%-F6/19600000</f>
         <v>1</v>
       </c>
-      <c r="H6" s="21">
-        <f>16800000-F6</f>
-        <v>16800000</v>
-      </c>
-      <c r="I6" s="32" t="e">
+      <c r="H6" s="20">
+        <f>18900000-F6</f>
+        <v>18900000</v>
+      </c>
+      <c r="I6" s="30" t="e">
         <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="10">
-        <f t="shared" si="0"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="26">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29">
+        <f>100%-F7/16800000</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="26">
+        <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="20">
-        <f>100%-F7/19600000</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="21">
-        <f>18900000-F7</f>
-        <v>18900000</v>
-      </c>
-      <c r="I7" s="32" t="e">
-        <f>E7/F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31">
-        <f>100%-F8/16800000</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="33">
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="31">
         <f>[1]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F8" s="31">
         <f>[1]Лист1!$F$31</f>
         <v>524968</v>
       </c>
-      <c r="G9" s="20">
-        <f>100%-F9/15400000</f>
+      <c r="G8" s="19">
+        <f>100%-F8/15400000</f>
         <v>0.96591116883116879</v>
       </c>
-      <c r="H9" s="21">
-        <f>15400000-F9</f>
+      <c r="H8" s="20">
+        <f>15400000-F8</f>
         <v>14875032</v>
       </c>
-      <c r="I9" s="32">
-        <f t="shared" ref="I9:I36" si="1">E9/F9</f>
+      <c r="I8" s="30">
+        <f>E8/F8</f>
         <v>0.85535880282226728</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="26">
+        <f>A8+1</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E9" s="31">
         <v>557856</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F9" s="31">
         <v>668458</v>
       </c>
-      <c r="G10" s="20">
-        <f>100%-F10/18900000</f>
+      <c r="G9" s="19">
+        <f>100%-F9/18900000</f>
         <v>0.96463185185185185</v>
       </c>
-      <c r="H10" s="21">
-        <f>12600000-F10</f>
+      <c r="H9" s="20">
+        <f>12600000-F9</f>
         <v>11931542</v>
       </c>
-      <c r="I10" s="32">
-        <f t="shared" si="1"/>
+      <c r="I9" s="30">
+        <f>E9/F9</f>
         <v>0.83454158675638557</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="10">
-        <f>A9+1</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="33">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="26">
+        <f>A8+1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="31">
         <f>[2]Лист1!$E$31</f>
         <v>613088</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F10" s="31">
         <f>[2]Лист1!$F$31</f>
         <v>721402</v>
       </c>
-      <c r="G11" s="20">
-        <f>100%-F11/19600000</f>
+      <c r="G10" s="19">
+        <f>100%-F10/19600000</f>
         <v>0.96319377551020413</v>
       </c>
-      <c r="H11" s="21">
-        <f>18900000-F11</f>
+      <c r="H10" s="20">
+        <f>18900000-F10</f>
         <v>18178598</v>
       </c>
-      <c r="I11" s="32">
-        <f t="shared" si="1"/>
+      <c r="I10" s="30">
+        <f>E10/F10</f>
         <v>0.84985625213126659</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="26">
+        <f>A10+1</f>
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="31">
+        <v>515328</v>
+      </c>
+      <c r="F11" s="31">
+        <v>670208</v>
+      </c>
+      <c r="G11" s="19">
+        <f>100%-F11/18200000</f>
+        <v>0.96317538461538466</v>
+      </c>
+      <c r="H11" s="20">
+        <f>12600000-F11</f>
+        <v>11929792</v>
+      </c>
+      <c r="I11" s="30">
+        <f>E11/F11</f>
+        <v>0.76890756302521013</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="10">
-        <f t="shared" ref="A12:A36" si="2">A11+1</f>
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="26">
+        <f t="shared" ref="A12:A13" si="0">A11+1</f>
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="39">
+        <f>[23]Паспорт!$E$31</f>
+        <v>497004</v>
+      </c>
+      <c r="F12" s="28">
+        <f>[23]Паспорт!$F$31</f>
+        <v>650324</v>
+      </c>
+      <c r="G12" s="29">
+        <f>100%-F12/15400000</f>
+        <v>0.95777116883116886</v>
+      </c>
+      <c r="H12" s="28">
+        <f>15400000-F12</f>
+        <v>14749676</v>
+      </c>
+      <c r="I12" s="30">
+        <f>E12/F12</f>
+        <v>0.76424059391933863</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33">
-        <v>515328</v>
-      </c>
-      <c r="F12" s="33">
-        <v>670208</v>
-      </c>
-      <c r="G12" s="20">
-        <f>100%-F12/18200000</f>
-        <v>0.96317538461538466</v>
-      </c>
-      <c r="H12" s="21">
-        <f>12600000-F12</f>
-        <v>11929792</v>
-      </c>
-      <c r="I12" s="32">
-        <f t="shared" si="1"/>
-        <v>0.76890756302521013</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>763476</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>975569</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f>100%-F13/16800000</f>
         <v>0.94193041666666666</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f>16800000-F13</f>
         <v>15824431</v>
       </c>
-      <c r="I13" s="32">
-        <f t="shared" si="1"/>
+      <c r="I13" s="30">
+        <f>E13/F13</f>
         <v>0.78259559293089465</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="27">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="26">
+        <f>A13+1</f>
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <f>[3]Лист1!$E$32</f>
         <v>645420</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="31">
         <f>[3]Лист1!$F$32</f>
         <v>851238</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f>100%-F14/14000000</f>
         <v>0.93919728571428573</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f>14000000-F14</f>
         <v>13148762</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
+        <f>E14/F14</f>
+        <v>0.75821333164167948</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="26">
+        <f t="shared" ref="A15:A16" si="1">A14+1</f>
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="39">
+        <f>[24]Лист1!$E$32</f>
+        <v>246960</v>
+      </c>
+      <c r="F15" s="28">
+        <f>[24]Лист1!$F$32</f>
+        <v>275256</v>
+      </c>
+      <c r="G15" s="29">
+        <f>100%-F15/4200000</f>
+        <v>0.93446285714285715</v>
+      </c>
+      <c r="H15" s="28">
+        <f>4200000-F15</f>
+        <v>3924744</v>
+      </c>
+      <c r="I15" s="30">
+        <f>E15/F15</f>
+        <v>0.8972011509285901</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="26">
         <f t="shared" si="1"/>
-        <v>0.75821333164167948</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="27">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="39">
+        <f>[19]Паспорт!$E$32</f>
+        <v>948096</v>
+      </c>
+      <c r="F16" s="28">
+        <f>[19]Паспорт!$F$32</f>
+        <v>1031915</v>
+      </c>
+      <c r="G16" s="29">
+        <f>100%-F16/15400000</f>
+        <v>0.93299253246753244</v>
+      </c>
+      <c r="H16" s="28">
+        <f>15400000-F16</f>
+        <v>14368085</v>
+      </c>
+      <c r="I16" s="30">
+        <f>E16/F16</f>
+        <v>0.91877334858006721</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="26">
+        <f>A16+1</f>
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E17" s="32">
         <f>[4]Лист1!$E$31</f>
         <v>803358</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F17" s="28">
         <f>[4]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
-      <c r="G15" s="31">
-        <f>100%-F15/16800000</f>
+      <c r="G17" s="33">
+        <f>100%-F17/16800000</f>
         <v>0.91399273809523807</v>
       </c>
-      <c r="H15" s="30">
-        <f>12600000-F15</f>
+      <c r="H17" s="34">
+        <f>12600000-F17</f>
         <v>11155078</v>
       </c>
-      <c r="I15" s="32">
-        <f t="shared" si="1"/>
+      <c r="I17" s="30">
+        <f>E17/F17</f>
         <v>0.55598710518630068</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="27">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="26">
+        <f>A17+1</f>
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E18" s="31">
         <f>[5]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F18" s="31">
         <f>[5]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
-      <c r="G16" s="20">
-        <f>100%-F16/15400000</f>
+      <c r="G18" s="12">
+        <f>100%-F18/15400000</f>
         <v>0.87514662337662341</v>
       </c>
-      <c r="H16" s="21">
-        <f>12600000-F16</f>
+      <c r="H18" s="13">
+        <f>12600000-F18</f>
         <v>10677258</v>
       </c>
-      <c r="I16" s="32">
-        <f t="shared" si="1"/>
+      <c r="I18" s="30">
+        <f>E18/F18</f>
         <v>0.94158654671297548</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="11" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="27">
-        <f t="shared" si="2"/>
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="26">
+        <f>A18+1</f>
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="59">
+        <f>[21]Лист1!$E$32</f>
+        <v>2527011</v>
+      </c>
+      <c r="F19" s="59">
+        <f>[21]Лист1!$F$32</f>
+        <v>2734020</v>
+      </c>
+      <c r="G19" s="35">
+        <f>100%-F19/16800000</f>
+        <v>0.83726071428571425</v>
+      </c>
+      <c r="H19" s="34">
+        <f>16800000-F19</f>
+        <v>14065980</v>
+      </c>
+      <c r="I19" s="30">
+        <f>E19/F19</f>
+        <v>0.92428402133122656</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="26">
+        <f>A19+1</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E20" s="32">
         <f>[6]Лист1!$E$31</f>
         <v>629376</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F20" s="28">
         <f>[6]Лист1!$F$31</f>
         <v>2858476</v>
       </c>
-      <c r="G17" s="35">
-        <f>100%-F17/16800000</f>
+      <c r="G20" s="33">
+        <f>100%-F20/16800000</f>
         <v>0.82985261904761909</v>
       </c>
-      <c r="H17" s="36">
-        <f>16800000-F17</f>
+      <c r="H20" s="34">
+        <f>16800000-F20</f>
         <v>13941524</v>
       </c>
-      <c r="I17" s="32">
-        <f t="shared" si="1"/>
+      <c r="I20" s="30">
+        <f>E20/F20</f>
         <v>0.2201788645418048</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="27">
-        <f t="shared" si="2"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="26">
+        <f>A20+1</f>
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31">
+        <v>3080000</v>
+      </c>
+      <c r="G21" s="12">
+        <f>100%-F21/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H21" s="13">
+        <f>14000000-F21</f>
+        <v>10920000</v>
+      </c>
+      <c r="I21" s="30">
+        <f>E21/F21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="26">
+        <f>A21+1</f>
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="31">
+        <f>[8]Лист1!$E$30</f>
+        <v>4126964</v>
+      </c>
+      <c r="F22" s="31">
+        <f>[8]Лист1!$F$30</f>
+        <v>4454263</v>
+      </c>
+      <c r="G22" s="12">
+        <f>100%-F22/18900000</f>
+        <v>0.76432470899470895</v>
+      </c>
+      <c r="H22" s="13">
+        <f>18900000-F22</f>
+        <v>14445737</v>
+      </c>
+      <c r="I22" s="30">
+        <f>E22/F22</f>
+        <v>0.92652005505736867</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="26">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28">
+        <v>4055359</v>
+      </c>
+      <c r="G23" s="33">
+        <f>100%-F23/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H23" s="34">
+        <f>18900000-F23</f>
+        <v>14844641</v>
+      </c>
+      <c r="I23" s="30">
+        <f>E23/F23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="26">
+        <f>A23+1</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31">
+        <v>5511547</v>
+      </c>
+      <c r="G24" s="12">
+        <f>100%-F24/16800000</f>
+        <v>0.67193172619047625</v>
+      </c>
+      <c r="H24" s="13">
+        <f>12000000-F24</f>
+        <v>6488453</v>
+      </c>
+      <c r="I24" s="30">
+        <f>E24/F24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="26">
+        <f>A24+1</f>
+        <v>19</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="28">
         <f>[7]Лист1!$E$31</f>
         <v>5344626</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F25" s="28">
         <f>[7]Лист1!$F$31</f>
         <v>5601912</v>
       </c>
-      <c r="G18" s="35">
-        <f>100%-F18/16800000</f>
+      <c r="G25" s="33">
+        <f>100%-F25/16800000</f>
         <v>0.66655285714285717</v>
       </c>
-      <c r="H18" s="36">
-        <f>16800000-F18</f>
+      <c r="H25" s="34">
+        <f>16800000-F25</f>
         <v>11198088</v>
       </c>
-      <c r="I18" s="32">
-        <f t="shared" si="1"/>
+      <c r="I25" s="30">
+        <f>E25/F25</f>
         <v>0.95407175264445421</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="10">
-        <f t="shared" si="2"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="26">
+        <f>A25+1</f>
+        <v>20</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="E26" s="32">
+        <v>2131080</v>
+      </c>
+      <c r="F26" s="28">
+        <v>5638494</v>
+      </c>
+      <c r="G26" s="35">
+        <f>100%-F26/16800000</f>
+        <v>0.66437535714285723</v>
+      </c>
+      <c r="H26" s="34">
+        <f>16800000-F26</f>
+        <v>11161506</v>
+      </c>
+      <c r="I26" s="30">
+        <f>E26/F26</f>
+        <v>0.37795198505132754</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="26">
+        <f>A26+1</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="31">
+        <f>[22]Лист1!$E$26</f>
+        <v>5937705</v>
+      </c>
+      <c r="F27" s="31">
+        <f>[22]Лист1!$F$26</f>
+        <v>6283268</v>
+      </c>
+      <c r="G27" s="12">
+        <f>100%-F27/16800000</f>
+        <v>0.6259959523809524</v>
+      </c>
+      <c r="H27" s="13">
+        <f>16800000-F27</f>
+        <v>10516732</v>
+      </c>
+      <c r="I27" s="30">
+        <f>E27/F27</f>
+        <v>0.94500266421868362</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="26">
+        <f>A27+1</f>
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="31">
+        <f>[10]Лист1!$E$37</f>
+        <v>8320286</v>
+      </c>
+      <c r="F28" s="31">
+        <f>[10]Лист1!$F$37</f>
+        <v>9174267</v>
+      </c>
+      <c r="G28" s="12">
+        <f>100%-F28/18900000</f>
+        <v>0.51458904761904756</v>
+      </c>
+      <c r="H28" s="13">
+        <f>18900000-F28</f>
+        <v>9725733</v>
+      </c>
+      <c r="I28" s="30">
+        <f>E28/F28</f>
+        <v>0.90691561516576746</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="26">
+        <f>A28+1</f>
+        <v>23</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="36">
+        <f>[9]Лист1!$E$30</f>
+        <v>6320916</v>
+      </c>
+      <c r="F29" s="31">
+        <f>[9]Лист1!$F$30</f>
+        <v>8887400</v>
+      </c>
+      <c r="G29" s="12">
+        <f>100%-F29/16800000</f>
+        <v>0.47098809523809526</v>
+      </c>
+      <c r="H29" s="13">
+        <f>16800000-F29</f>
+        <v>7912600</v>
+      </c>
+      <c r="I29" s="30">
+        <f>E29/F29</f>
+        <v>0.71122217971510227</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="26">
+        <f>A29+1</f>
+        <v>24</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="36">
+        <f>[12]Лист1!$E$31</f>
+        <v>3585960</v>
+      </c>
+      <c r="F30" s="31">
+        <f>[12]Лист1!$F$31</f>
+        <v>7428717</v>
+      </c>
+      <c r="G30" s="12">
+        <f>100%-F30/14000000</f>
+        <v>0.46937735714285711</v>
+      </c>
+      <c r="H30" s="13">
+        <f>14000000-F30</f>
+        <v>6571283</v>
+      </c>
+      <c r="I30" s="30">
+        <f>E30/F30</f>
+        <v>0.48271592523984963</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="26">
+        <f>A30+1</f>
+        <v>25</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="36">
+        <f>[11]Лист1!$E$31</f>
+        <v>4824196</v>
+      </c>
+      <c r="F31" s="31">
+        <f>[11]Лист1!$F$31</f>
+        <v>9443259</v>
+      </c>
+      <c r="G31" s="12">
+        <f>100%-F31/16800000</f>
+        <v>0.43790125000000002</v>
+      </c>
+      <c r="H31" s="13">
+        <f>16800000-F31</f>
+        <v>7356741</v>
+      </c>
+      <c r="I31" s="30">
+        <f>E31/F31</f>
+        <v>0.51086134564349028</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="26">
+        <f>A31+1</f>
+        <v>26</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="28">
+        <f>[13]Лист1!$E$31</f>
+        <v>9270726</v>
+      </c>
+      <c r="F32" s="28">
+        <f>[13]Лист1!$F$31</f>
+        <v>10267748</v>
+      </c>
+      <c r="G32" s="33">
+        <f>100%-F32/16800000</f>
+        <v>0.38882452380952381</v>
+      </c>
+      <c r="H32" s="34">
+        <f>16800000-F32</f>
+        <v>6532252</v>
+      </c>
+      <c r="I32" s="30">
+        <f>E32/F32</f>
+        <v>0.90289769480123583</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="26">
+        <f>A32+1</f>
         <v>27</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37">
-        <v>3080000</v>
-      </c>
-      <c r="G19" s="13">
-        <f>100%-F19/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H19" s="14">
-        <f>14000000-F19</f>
-        <v>10920000</v>
-      </c>
-      <c r="I19" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11" t="s">
+      <c r="E33" s="28">
+        <f>[14]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F33" s="28">
+        <f>[14]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G33" s="33">
+        <f>100%-F33/18200000</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H33" s="34">
+        <f>18200000-F33</f>
+        <v>5969558</v>
+      </c>
+      <c r="I33" s="30">
+        <f>E33/F33</f>
+        <v>0.91973258202769781</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="27">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="26">
+        <f>A33+1</f>
+        <v>28</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="33">
-        <f>[8]Лист1!$E$30</f>
-        <v>4126964</v>
-      </c>
-      <c r="F20" s="33">
-        <f>[8]Лист1!$F$30</f>
-        <v>4454263</v>
-      </c>
-      <c r="G20" s="13">
-        <f>100%-F20/18900000</f>
-        <v>0.76432470899470895</v>
-      </c>
-      <c r="H20" s="14">
-        <f>18900000-F20</f>
-        <v>14445737</v>
-      </c>
-      <c r="I20" s="32">
-        <f t="shared" si="1"/>
-        <v>0.92652005505736867</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11" t="s">
+      <c r="E34" s="32">
+        <f>[16]Лист1!$E$30</f>
+        <v>6849070</v>
+      </c>
+      <c r="F34" s="28">
+        <f>[16]Лист1!$F$30</f>
+        <v>14503171</v>
+      </c>
+      <c r="G34" s="33">
+        <f>100%-F34/19600000</f>
+        <v>0.26004229591836736</v>
+      </c>
+      <c r="H34" s="34">
+        <f>19600000-F34</f>
+        <v>5096829</v>
+      </c>
+      <c r="I34" s="30">
+        <f>E34/F34</f>
+        <v>0.47224637977446449</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="26">
+        <f>A34+1</f>
+        <v>29</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="36">
+        <f>[15]Лист1!$E$31</f>
+        <v>4259304</v>
+      </c>
+      <c r="F35" s="31">
+        <f>[15]Лист1!$F$31</f>
+        <v>12624642</v>
+      </c>
+      <c r="G35" s="12">
+        <f>100%-F35/16800000</f>
+        <v>0.24853321428571429</v>
+      </c>
+      <c r="H35" s="13">
+        <f>24000000-F35</f>
+        <v>11375358</v>
+      </c>
+      <c r="I35" s="30">
+        <f>E35/F35</f>
+        <v>0.33738018076076931</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="26">
+        <f>A35+1</f>
+        <v>30</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="31">
+        <f>[17]Лист1!$E$30</f>
+        <v>13190994</v>
+      </c>
+      <c r="F36" s="31">
+        <f>[17]Лист1!$F$30</f>
+        <v>16642877</v>
+      </c>
+      <c r="G36" s="12">
+        <f>100%-F36/21000000</f>
+        <v>0.20748204761904765</v>
+      </c>
+      <c r="H36" s="13">
+        <f>21000000-F36</f>
+        <v>4357123</v>
+      </c>
+      <c r="I36" s="30">
+        <f>E36/F36</f>
+        <v>0.7925909684966127</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="10">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="26">
+        <f>A36+1</f>
+        <v>31</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30">
-        <v>4055359</v>
-      </c>
-      <c r="G21" s="35">
-        <f>100%-F21/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H21" s="36">
-        <f>18900000-F21</f>
-        <v>14844641</v>
-      </c>
-      <c r="I21" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11" t="s">
+      <c r="E37" s="32">
+        <f>[18]Лист1!$E$32</f>
+        <v>8848812</v>
+      </c>
+      <c r="F37" s="28">
+        <f>[18]Лист1!$F$32</f>
+        <v>18119313</v>
+      </c>
+      <c r="G37" s="33">
+        <f>100%-F37/18200000</f>
+        <v>4.4333516483516799E-3</v>
+      </c>
+      <c r="H37" s="34">
+        <f>18200000-F37</f>
+        <v>80687</v>
+      </c>
+      <c r="I37" s="30">
+        <f>E37/F37</f>
+        <v>0.4883635488828964</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="10">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1">
+      <c r="A38" s="26">
+        <f>A37+1</f>
+        <v>32</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33">
-        <v>5511547</v>
-      </c>
-      <c r="G22" s="13">
-        <f>100%-F22/16800000</f>
-        <v>0.67193172619047625</v>
-      </c>
-      <c r="H22" s="14">
-        <f>12000000-F22</f>
-        <v>6488453</v>
-      </c>
-      <c r="I22" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="10">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="34">
-        <v>2131080</v>
-      </c>
-      <c r="F23" s="30">
-        <v>5638494</v>
-      </c>
-      <c r="G23" s="38">
-        <f>100%-F23/16800000</f>
-        <v>0.66437535714285723</v>
-      </c>
-      <c r="H23" s="36">
-        <f>16800000-F23</f>
-        <v>11161506</v>
-      </c>
-      <c r="I23" s="32">
-        <f t="shared" si="1"/>
-        <v>0.37795198505132754</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="42">
-        <f>[9]Лист1!$E$32</f>
-        <v>2527011</v>
-      </c>
-      <c r="F24" s="30">
-        <f>[9]Лист1!$F$32</f>
-        <v>2734020</v>
-      </c>
-      <c r="G24" s="38">
-        <f>100%-F24/16800000</f>
-        <v>0.83726071428571425</v>
-      </c>
-      <c r="H24" s="36">
-        <f>16800000-F24</f>
-        <v>14065980</v>
-      </c>
-      <c r="I24" s="32">
-        <f t="shared" ref="I24" si="3">E24/F24</f>
-        <v>0.92428402133122656</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="27">
-        <f>A23+1</f>
-        <v>19</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="39">
-        <f>[10]Лист1!$E$30</f>
-        <v>6320916</v>
-      </c>
-      <c r="F25" s="33">
-        <f>[10]Лист1!$F$30</f>
-        <v>8887400</v>
-      </c>
-      <c r="G25" s="13">
-        <f>100%-F25/16800000</f>
-        <v>0.47098809523809526</v>
-      </c>
-      <c r="H25" s="14">
-        <f>16800000-F25</f>
-        <v>7912600</v>
-      </c>
-      <c r="I25" s="32">
-        <f t="shared" si="1"/>
-        <v>0.71122217971510227</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="27">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="33">
-        <f>[11]Лист1!$E$37</f>
-        <v>8320286</v>
-      </c>
-      <c r="F26" s="33">
-        <f>[11]Лист1!$F$37</f>
-        <v>9174267</v>
-      </c>
-      <c r="G26" s="13">
-        <f>100%-F26/18900000</f>
-        <v>0.51458904761904756</v>
-      </c>
-      <c r="H26" s="14">
-        <f>18900000-F26</f>
-        <v>9725733</v>
-      </c>
-      <c r="I26" s="32">
-        <f t="shared" si="1"/>
-        <v>0.90691561516576746</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="27">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="39">
-        <f>[12]Лист1!$E$31</f>
-        <v>4294048</v>
-      </c>
-      <c r="F27" s="33">
-        <f>[12]Лист1!$F$31</f>
-        <v>8845677</v>
-      </c>
-      <c r="G27" s="13">
-        <f>100%-F27/16800000</f>
-        <v>0.47347160714285719</v>
-      </c>
-      <c r="H27" s="14">
-        <f>16800000-F27</f>
-        <v>7954323</v>
-      </c>
-      <c r="I27" s="32">
-        <f t="shared" si="1"/>
-        <v>0.48544028908132186</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="27">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="39">
-        <f>[13]Лист1!$E$31</f>
-        <v>3585960</v>
-      </c>
-      <c r="F28" s="33">
-        <f>[13]Лист1!$F$31</f>
-        <v>7428717</v>
-      </c>
-      <c r="G28" s="13">
-        <f>100%-F28/14000000</f>
-        <v>0.46937735714285711</v>
-      </c>
-      <c r="H28" s="14">
-        <f>14000000-F28</f>
-        <v>6571283</v>
-      </c>
-      <c r="I28" s="32">
-        <f t="shared" si="1"/>
-        <v>0.48271592523984963</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="27">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="30">
-        <f>[14]Лист1!$E$31</f>
-        <v>9270726</v>
-      </c>
-      <c r="F29" s="30">
-        <f>[14]Лист1!$F$31</f>
-        <v>10267748</v>
-      </c>
-      <c r="G29" s="35">
-        <f>100%-F29/16800000</f>
-        <v>0.38882452380952381</v>
-      </c>
-      <c r="H29" s="36">
-        <f>16800000-F29</f>
-        <v>6532252</v>
-      </c>
-      <c r="I29" s="32">
-        <f t="shared" si="1"/>
-        <v>0.90289769480123583</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="27">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="30">
-        <f>[15]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F30" s="30">
-        <f>[15]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G30" s="35">
-        <f>100%-F30/18200000</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H30" s="36">
-        <f>18200000-F30</f>
-        <v>5969558</v>
-      </c>
-      <c r="I30" s="32">
-        <f t="shared" si="1"/>
-        <v>0.91973258202769781</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="27">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="39">
-        <f>[16]Лист1!$E$31</f>
-        <v>4259304</v>
-      </c>
-      <c r="F31" s="33">
-        <f>[16]Лист1!$F$31</f>
-        <v>12624642</v>
-      </c>
-      <c r="G31" s="13">
-        <f>100%-F31/16800000</f>
-        <v>0.24853321428571429</v>
-      </c>
-      <c r="H31" s="14">
-        <f>24000000-F31</f>
-        <v>11375358</v>
-      </c>
-      <c r="I31" s="32">
-        <f t="shared" si="1"/>
-        <v>0.33738018076076931</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="27">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="34">
-        <f>[17]Лист1!$E$30</f>
-        <v>6849070</v>
-      </c>
-      <c r="F32" s="30">
-        <f>[17]Лист1!$F$30</f>
-        <v>14503171</v>
-      </c>
-      <c r="G32" s="35">
-        <f>100%-F32/19600000</f>
-        <v>0.26004229591836736</v>
-      </c>
-      <c r="H32" s="36">
-        <f>19600000-F32</f>
-        <v>5096829</v>
-      </c>
-      <c r="I32" s="32">
-        <f t="shared" si="1"/>
-        <v>0.47224637977446449</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="27">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="33">
-        <f>[18]Лист1!$E$30</f>
-        <v>13190994</v>
-      </c>
-      <c r="F33" s="33">
-        <f>[18]Лист1!$F$30</f>
-        <v>16642877</v>
-      </c>
-      <c r="G33" s="13">
-        <f>100%-F33/21000000</f>
-        <v>0.20748204761904765</v>
-      </c>
-      <c r="H33" s="14">
-        <f>21000000-F33</f>
-        <v>4357123</v>
-      </c>
-      <c r="I33" s="32">
-        <f t="shared" si="1"/>
-        <v>0.7925909684966127</v>
-      </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="27">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="34">
-        <f>[19]Лист1!$E$32</f>
-        <v>8848812</v>
-      </c>
-      <c r="F34" s="30">
-        <f>[19]Лист1!$F$32</f>
-        <v>18119313</v>
-      </c>
-      <c r="G34" s="35">
-        <f>100%-F34/18200000</f>
-        <v>4.4333516483516799E-3</v>
-      </c>
-      <c r="H34" s="36">
-        <f>18200000-F34</f>
-        <v>80687</v>
-      </c>
-      <c r="I34" s="32">
-        <f t="shared" si="1"/>
-        <v>0.4883635488828964</v>
-      </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="19"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="27">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="42">
-        <f>[21]Паспорт!$E$32</f>
-        <v>948096</v>
-      </c>
-      <c r="F35" s="30">
-        <f>[21]Паспорт!$F$32</f>
-        <v>1031915</v>
-      </c>
-      <c r="G35" s="35">
-        <f>100%-F35/15400000</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="H35" s="36">
-        <f>15400000-F35</f>
-        <v>14368085</v>
-      </c>
-      <c r="I35" s="32">
-        <f t="shared" ref="I35" si="4">E35/F35</f>
-        <v>0.91877334858006721</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="19"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="27">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="40">
+      <c r="E38" s="37">
         <f>[20]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F38" s="37">
         <f>[20]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G36" s="29">
-        <f>100%-F36/16800000</f>
+      <c r="G38" s="27">
+        <f>100%-F38/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H36" s="26">
-        <f>16800000-F36</f>
+      <c r="H38" s="25">
+        <f>16800000-F38</f>
         <v>-9982614</v>
       </c>
-      <c r="I36" s="41">
-        <f t="shared" si="1"/>
+      <c r="I38" s="38">
+        <f>E38/F38</f>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="22" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="25"/>
+      <c r="L38" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:L34">
+    <sortState ref="A6:L38">
       <sortCondition descending="1" ref="G3:G21"/>
     </sortState>
   </autoFilter>
@@ -2956,7 +3169,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -39,17 +39,18 @@
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
   <si>
     <t>№п/п</t>
   </si>
@@ -189,9 +190,6 @@
     <t>Приблизительное количество выпущеной продукции</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.11.2019 г.</t>
-  </si>
-  <si>
     <t>"Байрон 0.5 л." XXI-В-30-4А-500</t>
   </si>
   <si>
@@ -205,6 +203,12 @@
   </si>
   <si>
     <t>"Баден 0.7 л." XI-28МСА-700</t>
+  </si>
+  <si>
+    <t>"Тоник 0.2" тип V-GPI-630-200</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.12.2019 г.</t>
   </si>
 </sst>
 </file>
@@ -709,6 +713,9 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,9 +771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,12 +829,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4126964</v>
+          </cell>
+          <cell r="F30">
+            <v>4454263</v>
           </cell>
         </row>
       </sheetData>
@@ -853,15 +857,15 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4824196</v>
+            <v>5344626</v>
           </cell>
           <cell r="F31">
-            <v>9443259</v>
+            <v>5601912</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -877,12 +881,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3585960</v>
-          </cell>
-          <cell r="F31">
-            <v>7428717</v>
+        <row r="26">
+          <cell r="E26">
+            <v>7275420</v>
+          </cell>
+          <cell r="F26">
+            <v>7668663</v>
           </cell>
         </row>
       </sheetData>
@@ -903,12 +907,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>9270726</v>
-          </cell>
-          <cell r="F31">
-            <v>10267748</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -929,12 +933,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
@@ -957,15 +961,15 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4259304</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>12624642</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -981,12 +985,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4824196</v>
+          </cell>
+          <cell r="F31">
+            <v>9443259</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,12 +1011,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>13190994</v>
-          </cell>
-          <cell r="F30">
-            <v>16642877</v>
+        <row r="31">
+          <cell r="E31">
+            <v>9270726</v>
+          </cell>
+          <cell r="F31">
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
@@ -1033,17 +1037,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1053,45 +1057,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Детали ф-тов"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="E32">
-            <v>948096</v>
-          </cell>
-          <cell r="F32">
-            <v>1031915</v>
+      <sheetData sheetId="0">
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1133,12 +1115,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
@@ -1154,6 +1136,84 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>24278204</v>
+          </cell>
+          <cell r="F33">
+            <v>26782614</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Паспорт"/>
       <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
@@ -1195,7 +1255,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1205,23 +1265,23 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="E26">
-            <v>5937705</v>
-          </cell>
-          <cell r="F26">
-            <v>6283268</v>
+        <row r="33">
+          <cell r="E33">
+            <v>1766331</v>
+          </cell>
+          <cell r="F33">
+            <v>1993309</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1250,24 +1310,50 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>645420</v>
+          </cell>
+          <cell r="F32">
+            <v>851238</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1313,105 +1399,49 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>645420</v>
-          </cell>
-          <cell r="F32">
-            <v>851238</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>803358</v>
-          </cell>
-          <cell r="F31">
-            <v>1444922</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>1810428</v>
-          </cell>
-          <cell r="F32">
-            <v>1922742</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>629376</v>
-          </cell>
-          <cell r="F31">
-            <v>2858476</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="32">
+          <cell r="E32">
+            <v>948096</v>
+          </cell>
+          <cell r="F32">
+            <v>1031915</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1429,15 +1459,15 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>5344626</v>
+            <v>803358</v>
           </cell>
           <cell r="F31">
-            <v>5601912</v>
+            <v>1444922</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1453,12 +1483,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4126964</v>
-          </cell>
-          <cell r="F30">
-            <v>4454263</v>
+        <row r="32">
+          <cell r="E32">
+            <v>1810428</v>
+          </cell>
+          <cell r="F32">
+            <v>1922742</v>
           </cell>
         </row>
       </sheetData>
@@ -1479,17 +1509,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6320916</v>
-          </cell>
-          <cell r="F30">
-            <v>8887400</v>
-          </cell>
+        <row r="31">
+          <cell r="E31"/>
+          <cell r="F31"/>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1785,13 +1811,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A38"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1811,40 +1837,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1853,26 +1879,26 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1885,9 +1911,9 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
@@ -2002,7 +2028,7 @@
         <v>14875032</v>
       </c>
       <c r="I8" s="30">
-        <f>E8/F8</f>
+        <f t="shared" ref="I8:I39" si="0">E8/F8</f>
         <v>0.85535880282226728</v>
       </c>
       <c r="J8" s="11"/>
@@ -2038,7 +2064,7 @@
         <v>11931542</v>
       </c>
       <c r="I9" s="30">
-        <f>E9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.83454158675638557</v>
       </c>
       <c r="J9" s="11"/>
@@ -2074,7 +2100,7 @@
         <v>18178598</v>
       </c>
       <c r="I10" s="30">
-        <f>E10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.84985625213126659</v>
       </c>
       <c r="J10" s="11"/>
@@ -2110,7 +2136,7 @@
         <v>11929792</v>
       </c>
       <c r="I11" s="30">
-        <f>E11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.76890756302521013</v>
       </c>
       <c r="J11" s="11"/>
@@ -2121,20 +2147,20 @@
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="26">
-        <f t="shared" ref="A12:A13" si="0">A11+1</f>
+        <f t="shared" ref="A12:A13" si="1">A11+1</f>
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="15"/>
       <c r="E12" s="39">
-        <f>[23]Паспорт!$E$31</f>
+        <f>[3]Паспорт!$E$31</f>
         <v>497004</v>
       </c>
       <c r="F12" s="28">
-        <f>[23]Паспорт!$F$31</f>
+        <f>[3]Паспорт!$F$31</f>
         <v>650324</v>
       </c>
       <c r="G12" s="29">
@@ -2146,7 +2172,7 @@
         <v>14749676</v>
       </c>
       <c r="I12" s="30">
-        <f>E12/F12</f>
+        <f t="shared" si="0"/>
         <v>0.76424059391933863</v>
       </c>
       <c r="J12" s="11"/>
@@ -2155,7 +2181,7 @@
     </row>
     <row r="13" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2182,7 +2208,7 @@
         <v>15824431</v>
       </c>
       <c r="I13" s="30">
-        <f>E13/F13</f>
+        <f t="shared" si="0"/>
         <v>0.78259559293089465</v>
       </c>
       <c r="J13" s="11"/>
@@ -2206,11 +2232,11 @@
         <v>14</v>
       </c>
       <c r="E14" s="31">
-        <f>[3]Лист1!$E$32</f>
+        <f>[4]Лист1!$E$32</f>
         <v>645420</v>
       </c>
       <c r="F14" s="31">
-        <f>[3]Лист1!$F$32</f>
+        <f>[4]Лист1!$F$32</f>
         <v>851238</v>
       </c>
       <c r="G14" s="19">
@@ -2222,7 +2248,7 @@
         <v>13148762</v>
       </c>
       <c r="I14" s="30">
-        <f>E14/F14</f>
+        <f t="shared" si="0"/>
         <v>0.75821333164167948</v>
       </c>
       <c r="J14" s="11"/>
@@ -2232,20 +2258,20 @@
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="26">
-        <f t="shared" ref="A15:A16" si="1">A14+1</f>
+        <f t="shared" ref="A15:A16" si="2">A14+1</f>
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="15"/>
       <c r="E15" s="39">
-        <f>[24]Лист1!$E$32</f>
+        <f>[5]Лист1!$E$32</f>
         <v>246960</v>
       </c>
       <c r="F15" s="28">
-        <f>[24]Лист1!$F$32</f>
+        <f>[5]Лист1!$F$32</f>
         <v>275256</v>
       </c>
       <c r="G15" s="29">
@@ -2257,7 +2283,7 @@
         <v>3924744</v>
       </c>
       <c r="I15" s="30">
-        <f>E15/F15</f>
+        <f t="shared" si="0"/>
         <v>0.8972011509285901</v>
       </c>
       <c r="J15" s="11"/>
@@ -2266,20 +2292,20 @@
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="15"/>
       <c r="E16" s="39">
-        <f>[19]Паспорт!$E$32</f>
+        <f>[6]Паспорт!$E$32</f>
         <v>948096</v>
       </c>
       <c r="F16" s="28">
-        <f>[19]Паспорт!$F$32</f>
+        <f>[6]Паспорт!$F$32</f>
         <v>1031915</v>
       </c>
       <c r="G16" s="29">
@@ -2291,7 +2317,7 @@
         <v>14368085</v>
       </c>
       <c r="I16" s="30">
-        <f>E16/F16</f>
+        <f t="shared" si="0"/>
         <v>0.91877334858006721</v>
       </c>
       <c r="J16" s="11"/>
@@ -2300,7 +2326,7 @@
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="26">
-        <f>A16+1</f>
+        <f t="shared" ref="A17:A37" si="3">A16+1</f>
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2313,11 +2339,11 @@
         <v>14</v>
       </c>
       <c r="E17" s="32">
-        <f>[4]Лист1!$E$31</f>
+        <f>[7]Лист1!$E$31</f>
         <v>803358</v>
       </c>
       <c r="F17" s="28">
-        <f>[4]Лист1!$F$31</f>
+        <f>[7]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
       <c r="G17" s="33">
@@ -2329,7 +2355,7 @@
         <v>11155078</v>
       </c>
       <c r="I17" s="30">
-        <f>E17/F17</f>
+        <f t="shared" si="0"/>
         <v>0.55598710518630068</v>
       </c>
       <c r="J17" s="11"/>
@@ -2340,7 +2366,7 @@
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="26">
-        <f>A17+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2353,11 +2379,11 @@
         <v>16</v>
       </c>
       <c r="E18" s="31">
-        <f>[5]Лист1!$E$32</f>
+        <f>[8]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
       <c r="F18" s="31">
-        <f>[5]Лист1!$F$32</f>
+        <f>[8]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
       <c r="G18" s="12">
@@ -2369,7 +2395,7 @@
         <v>10677258</v>
       </c>
       <c r="I18" s="30">
-        <f>E18/F18</f>
+        <f t="shared" si="0"/>
         <v>0.94158654671297548</v>
       </c>
       <c r="J18" s="11"/>
@@ -2379,20 +2405,20 @@
     </row>
     <row r="19" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="26">
-        <f>A18+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="59">
-        <f>[21]Лист1!$E$32</f>
+      <c r="E19" s="40">
+        <f>[24]Паспорт!$E$32</f>
         <v>2527011</v>
       </c>
-      <c r="F19" s="59">
-        <f>[21]Лист1!$F$32</f>
+      <c r="F19" s="40">
+        <f>[24]Паспорт!$F$32</f>
         <v>2734020</v>
       </c>
       <c r="G19" s="35">
@@ -2404,7 +2430,7 @@
         <v>14065980</v>
       </c>
       <c r="I19" s="30">
-        <f>E19/F19</f>
+        <f t="shared" si="0"/>
         <v>0.92428402133122656</v>
       </c>
       <c r="J19" s="11"/>
@@ -2413,7 +2439,7 @@
     </row>
     <row r="20" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="26">
-        <f>A19+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2426,24 +2452,24 @@
         <v>14</v>
       </c>
       <c r="E20" s="32">
-        <f>[6]Лист1!$E$31</f>
-        <v>629376</v>
+        <f>[9]Лист1!$E$31</f>
+        <v>0</v>
       </c>
       <c r="F20" s="28">
-        <f>[6]Лист1!$F$31</f>
-        <v>2858476</v>
+        <f>[9]Лист1!$F$31</f>
+        <v>0</v>
       </c>
       <c r="G20" s="33">
         <f>100%-F20/16800000</f>
-        <v>0.82985261904761909</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34">
         <f>16800000-F20</f>
-        <v>13941524</v>
-      </c>
-      <c r="I20" s="30">
-        <f>E20/F20</f>
-        <v>0.2201788645418048</v>
+        <v>16800000</v>
+      </c>
+      <c r="I20" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="10" t="s">
@@ -2453,7 +2479,7 @@
     </row>
     <row r="21" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="26">
-        <f>A20+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2478,7 +2504,7 @@
         <v>10920000</v>
       </c>
       <c r="I21" s="30">
-        <f>E21/F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="11"/>
@@ -2488,7 +2514,7 @@
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="26">
-        <f>A21+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -2501,11 +2527,11 @@
         <v>14</v>
       </c>
       <c r="E22" s="31">
-        <f>[8]Лист1!$E$30</f>
+        <f>[10]Лист1!$E$30</f>
         <v>4126964</v>
       </c>
       <c r="F22" s="31">
-        <f>[8]Лист1!$F$30</f>
+        <f>[10]Лист1!$F$30</f>
         <v>4454263</v>
       </c>
       <c r="G22" s="12">
@@ -2517,7 +2543,7 @@
         <v>14445737</v>
       </c>
       <c r="I22" s="30">
-        <f>E22/F22</f>
+        <f t="shared" si="0"/>
         <v>0.92652005505736867</v>
       </c>
       <c r="J22" s="11"/>
@@ -2528,7 +2554,7 @@
     </row>
     <row r="23" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="26">
-        <f>A22+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2553,7 +2579,7 @@
         <v>14844641</v>
       </c>
       <c r="I23" s="30">
-        <f>E23/F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="11"/>
@@ -2563,7 +2589,7 @@
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="26">
-        <f>A23+1</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -2588,7 +2614,7 @@
         <v>6488453</v>
       </c>
       <c r="I24" s="30">
-        <f>E24/F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="11"/>
@@ -2598,7 +2624,7 @@
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="26">
-        <f>A24+1</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2611,11 +2637,11 @@
         <v>14</v>
       </c>
       <c r="E25" s="28">
-        <f>[7]Лист1!$E$31</f>
+        <f>[11]Лист1!$E$31</f>
         <v>5344626</v>
       </c>
       <c r="F25" s="28">
-        <f>[7]Лист1!$F$31</f>
+        <f>[11]Лист1!$F$31</f>
         <v>5601912</v>
       </c>
       <c r="G25" s="33">
@@ -2627,7 +2653,7 @@
         <v>11198088</v>
       </c>
       <c r="I25" s="30">
-        <f>E25/F25</f>
+        <f t="shared" si="0"/>
         <v>0.95407175264445421</v>
       </c>
       <c r="J25" s="11"/>
@@ -2636,7 +2662,7 @@
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="26">
-        <f>A25+1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2663,7 +2689,7 @@
         <v>11161506</v>
       </c>
       <c r="I26" s="30">
-        <f>E26/F26</f>
+        <f t="shared" si="0"/>
         <v>0.37795198505132754</v>
       </c>
       <c r="J26" s="11"/>
@@ -2674,11 +2700,11 @@
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="26">
-        <f>A26+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>12</v>
@@ -2687,24 +2713,24 @@
         <v>14</v>
       </c>
       <c r="E27" s="31">
-        <f>[22]Лист1!$E$26</f>
-        <v>5937705</v>
+        <f>[12]Лист1!$E$26</f>
+        <v>7275420</v>
       </c>
       <c r="F27" s="31">
-        <f>[22]Лист1!$F$26</f>
-        <v>6283268</v>
+        <f>[12]Лист1!$F$26</f>
+        <v>7668663</v>
       </c>
       <c r="G27" s="12">
         <f>100%-F27/16800000</f>
-        <v>0.6259959523809524</v>
+        <v>0.54353196428571426</v>
       </c>
       <c r="H27" s="13">
         <f>16800000-F27</f>
-        <v>10516732</v>
+        <v>9131337</v>
       </c>
       <c r="I27" s="30">
-        <f>E27/F27</f>
-        <v>0.94500266421868362</v>
+        <f t="shared" si="0"/>
+        <v>0.94872078744365218</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="10" t="s">
@@ -2713,7 +2739,7 @@
     </row>
     <row r="28" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="26">
-        <f>A27+1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -2726,11 +2752,11 @@
         <v>14</v>
       </c>
       <c r="E28" s="31">
-        <f>[10]Лист1!$E$37</f>
+        <f>[13]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
       <c r="F28" s="31">
-        <f>[10]Лист1!$F$37</f>
+        <f>[13]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
       <c r="G28" s="12">
@@ -2742,7 +2768,7 @@
         <v>9725733</v>
       </c>
       <c r="I28" s="30">
-        <f>E28/F28</f>
+        <f t="shared" si="0"/>
         <v>0.90691561516576746</v>
       </c>
       <c r="J28" s="11"/>
@@ -2752,7 +2778,7 @@
     </row>
     <row r="29" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="26">
-        <f>A28+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -2765,11 +2791,11 @@
         <v>14</v>
       </c>
       <c r="E29" s="36">
-        <f>[9]Лист1!$E$30</f>
+        <f>[14]Лист1!$E$30</f>
         <v>6320916</v>
       </c>
       <c r="F29" s="31">
-        <f>[9]Лист1!$F$30</f>
+        <f>[14]Лист1!$F$30</f>
         <v>8887400</v>
       </c>
       <c r="G29" s="12">
@@ -2781,7 +2807,7 @@
         <v>7912600</v>
       </c>
       <c r="I29" s="30">
-        <f>E29/F29</f>
+        <f t="shared" si="0"/>
         <v>0.71122217971510227</v>
       </c>
       <c r="J29" s="11"/>
@@ -2791,7 +2817,7 @@
     </row>
     <row r="30" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="26">
-        <f>A29+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2804,11 +2830,11 @@
         <v>14</v>
       </c>
       <c r="E30" s="36">
-        <f>[12]Лист1!$E$31</f>
+        <f>[15]Лист1!$E$31</f>
         <v>3585960</v>
       </c>
       <c r="F30" s="31">
-        <f>[12]Лист1!$F$31</f>
+        <f>[15]Лист1!$F$31</f>
         <v>7428717</v>
       </c>
       <c r="G30" s="12">
@@ -2820,7 +2846,7 @@
         <v>6571283</v>
       </c>
       <c r="I30" s="30">
-        <f>E30/F30</f>
+        <f t="shared" si="0"/>
         <v>0.48271592523984963</v>
       </c>
       <c r="J30" s="11"/>
@@ -2830,7 +2856,7 @@
     </row>
     <row r="31" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="26">
-        <f>A30+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2843,11 +2869,11 @@
         <v>14</v>
       </c>
       <c r="E31" s="36">
-        <f>[11]Лист1!$E$31</f>
+        <f>[16]Лист1!$E$31</f>
         <v>4824196</v>
       </c>
       <c r="F31" s="31">
-        <f>[11]Лист1!$F$31</f>
+        <f>[16]Лист1!$F$31</f>
         <v>9443259</v>
       </c>
       <c r="G31" s="12">
@@ -2859,7 +2885,7 @@
         <v>7356741</v>
       </c>
       <c r="I31" s="30">
-        <f>E31/F31</f>
+        <f t="shared" si="0"/>
         <v>0.51086134564349028</v>
       </c>
       <c r="J31" s="11"/>
@@ -2869,7 +2895,7 @@
     </row>
     <row r="32" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="26">
-        <f>A31+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -2882,11 +2908,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="28">
-        <f>[13]Лист1!$E$31</f>
+        <f>[17]Лист1!$E$31</f>
         <v>9270726</v>
       </c>
       <c r="F32" s="28">
-        <f>[13]Лист1!$F$31</f>
+        <f>[17]Лист1!$F$31</f>
         <v>10267748</v>
       </c>
       <c r="G32" s="33">
@@ -2898,7 +2924,7 @@
         <v>6532252</v>
       </c>
       <c r="I32" s="30">
-        <f>E32/F32</f>
+        <f t="shared" si="0"/>
         <v>0.90289769480123583</v>
       </c>
       <c r="J32" s="11"/>
@@ -2909,7 +2935,7 @@
     </row>
     <row r="33" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="26">
-        <f>A32+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -2922,11 +2948,11 @@
         <v>14</v>
       </c>
       <c r="E33" s="28">
-        <f>[14]Лист1!$E$39</f>
+        <f>[18]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
       <c r="F33" s="28">
-        <f>[14]Лист1!$F$39</f>
+        <f>[18]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
       <c r="G33" s="33">
@@ -2938,7 +2964,7 @@
         <v>5969558</v>
       </c>
       <c r="I33" s="30">
-        <f>E33/F33</f>
+        <f t="shared" si="0"/>
         <v>0.91973258202769781</v>
       </c>
       <c r="J33" s="11"/>
@@ -2949,7 +2975,7 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="26">
-        <f>A33+1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -2962,11 +2988,11 @@
         <v>14</v>
       </c>
       <c r="E34" s="32">
-        <f>[16]Лист1!$E$30</f>
+        <f>[19]Лист1!$E$30</f>
         <v>6849070</v>
       </c>
       <c r="F34" s="28">
-        <f>[16]Лист1!$F$30</f>
+        <f>[19]Лист1!$F$30</f>
         <v>14503171</v>
       </c>
       <c r="G34" s="33">
@@ -2978,7 +3004,7 @@
         <v>5096829</v>
       </c>
       <c r="I34" s="30">
-        <f>E34/F34</f>
+        <f t="shared" si="0"/>
         <v>0.47224637977446449</v>
       </c>
       <c r="J34" s="11"/>
@@ -2989,7 +3015,7 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="26">
-        <f>A34+1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3002,11 +3028,11 @@
         <v>14</v>
       </c>
       <c r="E35" s="36">
-        <f>[15]Лист1!$E$31</f>
+        <f>[20]Лист1!$E$31</f>
         <v>4259304</v>
       </c>
       <c r="F35" s="31">
-        <f>[15]Лист1!$F$31</f>
+        <f>[20]Лист1!$F$31</f>
         <v>12624642</v>
       </c>
       <c r="G35" s="12">
@@ -3018,7 +3044,7 @@
         <v>11375358</v>
       </c>
       <c r="I35" s="30">
-        <f>E35/F35</f>
+        <f t="shared" si="0"/>
         <v>0.33738018076076931</v>
       </c>
       <c r="J35" s="11"/>
@@ -3029,7 +3055,7 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="26">
-        <f>A35+1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -3042,11 +3068,11 @@
         <v>14</v>
       </c>
       <c r="E36" s="31">
-        <f>[17]Лист1!$E$30</f>
+        <f>[21]Лист1!$E$30</f>
         <v>13190994</v>
       </c>
       <c r="F36" s="31">
-        <f>[17]Лист1!$F$30</f>
+        <f>[21]Лист1!$F$30</f>
         <v>16642877</v>
       </c>
       <c r="G36" s="12">
@@ -3058,7 +3084,7 @@
         <v>4357123</v>
       </c>
       <c r="I36" s="30">
-        <f>E36/F36</f>
+        <f t="shared" si="0"/>
         <v>0.7925909684966127</v>
       </c>
       <c r="J36" s="11"/>
@@ -3069,7 +3095,7 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="26">
-        <f>A36+1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3082,11 +3108,11 @@
         <v>14</v>
       </c>
       <c r="E37" s="32">
-        <f>[18]Лист1!$E$32</f>
+        <f>[22]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F37" s="28">
-        <f>[18]Лист1!$F$32</f>
+        <f>[22]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G37" s="33">
@@ -3098,7 +3124,7 @@
         <v>80687</v>
       </c>
       <c r="I37" s="30">
-        <f>E37/F37</f>
+        <f t="shared" si="0"/>
         <v>0.4883635488828964</v>
       </c>
       <c r="J37" s="11"/>
@@ -3108,44 +3134,75 @@
       <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="26">
+      <c r="A38" s="26"/>
+      <c r="B38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="39">
+        <f>[25]Лист1!$E$33</f>
+        <v>1766331</v>
+      </c>
+      <c r="F38" s="28">
+        <f>[25]Лист1!$F$33</f>
+        <v>1993309</v>
+      </c>
+      <c r="G38" s="33">
+        <f>100%-F38/16800000</f>
+        <v>0.88135065476190477</v>
+      </c>
+      <c r="H38" s="34">
+        <f>16800000-F38</f>
+        <v>14806691</v>
+      </c>
+      <c r="I38" s="30">
+        <f t="shared" ref="I38" si="4">E38/F38</f>
+        <v>0.88613004807583773</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1">
+      <c r="A39" s="26">
         <f>A37+1</f>
         <v>32</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="37">
-        <f>[20]Лист1!$E$33</f>
+      <c r="E39" s="37">
+        <f>[23]Лист1!$E$33</f>
         <v>24278204</v>
       </c>
-      <c r="F38" s="37">
-        <f>[20]Лист1!$F$33</f>
+      <c r="F39" s="37">
+        <f>[23]Лист1!$F$33</f>
         <v>26782614</v>
       </c>
-      <c r="G38" s="27">
-        <f>100%-F38/16800000</f>
+      <c r="G39" s="27">
+        <f>100%-F39/16800000</f>
         <v>-0.59420321428571432</v>
       </c>
-      <c r="H38" s="25">
-        <f>16800000-F38</f>
+      <c r="H39" s="25">
+        <f>16800000-F39</f>
         <v>-9982614</v>
       </c>
-      <c r="I38" s="38">
-        <f>E38/F38</f>
+      <c r="I39" s="38">
+        <f t="shared" si="0"/>
         <v>0.90649120358453439</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="21" t="s">
+      <c r="J39" s="23"/>
+      <c r="K39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="24"/>
+      <c r="L39" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
@@ -3169,7 +3226,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Выработка формокомплектов" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -40,6 +40,7 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$L$21</definedName>
@@ -139,9 +140,6 @@
     <t>«Сябры» тип XXI-В-28-2,1-500-16</t>
   </si>
   <si>
-    <t>«Фляга 0,2 л» тип XIII-В-28-2.1в-200-1</t>
-  </si>
-  <si>
     <t>«Фляга 0,5» тип XIII-B-28-2-500-4</t>
   </si>
   <si>
@@ -209,6 +207,9 @@
   </si>
   <si>
     <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.12.2019 г.</t>
+  </si>
+  <si>
+    <t>«Штофф Колоски 0,5 л» тип XXI-В-28-2б-500-1</t>
   </si>
 </sst>
 </file>
@@ -600,7 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,25 +659,13 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,12 +691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +756,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Мой стиль" xfId="1"/>
@@ -829,12 +834,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4126964</v>
-          </cell>
-          <cell r="F30">
-            <v>4454263</v>
+        <row r="32">
+          <cell r="E32">
+            <v>1115136</v>
+          </cell>
+          <cell r="F32">
+            <v>3369696</v>
           </cell>
         </row>
       </sheetData>
@@ -855,12 +860,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>5344626</v>
-          </cell>
-          <cell r="F31">
-            <v>5601912</v>
+        <row r="30">
+          <cell r="E30">
+            <v>4126964</v>
+          </cell>
+          <cell r="F30">
+            <v>4454263</v>
           </cell>
         </row>
       </sheetData>
@@ -881,12 +886,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="E26">
-            <v>7275420</v>
-          </cell>
-          <cell r="F26">
-            <v>7668663</v>
+        <row r="31">
+          <cell r="E31">
+            <v>5344626</v>
+          </cell>
+          <cell r="F31">
+            <v>5601912</v>
           </cell>
         </row>
       </sheetData>
@@ -907,12 +912,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="26">
+          <cell r="E26">
+            <v>7275420</v>
+          </cell>
+          <cell r="F26">
+            <v>7668663</v>
           </cell>
         </row>
       </sheetData>
@@ -933,12 +938,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6320916</v>
-          </cell>
-          <cell r="F30">
-            <v>8887400</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -959,12 +964,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3585960</v>
-          </cell>
-          <cell r="F31">
-            <v>7428717</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
@@ -987,10 +992,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4824196</v>
+            <v>3585960</v>
           </cell>
           <cell r="F31">
-            <v>9443259</v>
+            <v>7428717</v>
           </cell>
         </row>
       </sheetData>
@@ -1013,10 +1018,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>9270726</v>
+            <v>5383384</v>
           </cell>
           <cell r="F31">
-            <v>10267748</v>
+            <v>10048012</v>
           </cell>
         </row>
       </sheetData>
@@ -1037,12 +1042,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>9270726</v>
+          </cell>
+          <cell r="F31">
+            <v>10267748</v>
           </cell>
         </row>
       </sheetData>
@@ -1063,12 +1068,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6849070</v>
-          </cell>
-          <cell r="F30">
-            <v>14503171</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1115,12 +1120,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4259304</v>
-          </cell>
-          <cell r="F31">
-            <v>12624642</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6849070</v>
+          </cell>
+          <cell r="F30">
+            <v>14503171</v>
           </cell>
         </row>
       </sheetData>
@@ -1141,12 +1146,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>13190994</v>
-          </cell>
-          <cell r="F30">
-            <v>16642877</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
@@ -1167,12 +1172,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="30">
+          <cell r="E30">
+            <v>13190994</v>
+          </cell>
+          <cell r="F30">
+            <v>16642877</v>
           </cell>
         </row>
       </sheetData>
@@ -1193,12 +1198,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>24278204</v>
-          </cell>
-          <cell r="F33">
-            <v>26782614</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -1210,6 +1215,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="E33">
+            <v>1766331</v>
+          </cell>
+          <cell r="F33">
+            <v>1993309</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1229,53 +1260,32 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>2527011</v>
-          </cell>
-          <cell r="F32">
-            <v>2734020</v>
+        <row r="21">
+          <cell r="A21">
+            <v>13300000</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>1766331</v>
-          </cell>
-          <cell r="F33">
-            <v>1993309</v>
+        <row r="37">
+          <cell r="E37">
+            <v>626991</v>
+          </cell>
+          <cell r="F37">
+            <v>690598</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1503,19 +1513,43 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31"/>
-          <cell r="F31"/>
+        <row r="32">
+          <cell r="E32">
+            <v>2527011</v>
+          </cell>
+          <cell r="F32">
+            <v>2734020</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1814,10 +1848,10 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1837,68 +1871,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A1" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="A1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" thickBot="1">
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="56" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1911,13 +1945,13 @@
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1929,17 +1963,17 @@
       <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25">
         <f>100%-F5/16800000</f>
         <v>1</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="24">
         <f>18200000-F5</f>
         <v>18200000</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="11"/>
       <c r="K5" s="10" t="s">
         <v>11</v>
@@ -1947,11 +1981,11 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -1959,8 +1993,8 @@
       <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="19">
         <f>100%-F6/19600000</f>
         <v>1</v>
@@ -1969,7 +2003,7 @@
         <f>18900000-F6</f>
         <v>18900000</v>
       </c>
-      <c r="I6" s="30" t="e">
+      <c r="I6" s="26" t="e">
         <f>E6/F6</f>
         <v>#DIV/0!</v>
       </c>
@@ -1980,42 +2014,42 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25">
         <f>100%-F7/16800000</f>
         <v>1</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="11"/>
       <c r="K7" s="10"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <f>A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <f>[1]Лист1!$E$31</f>
         <v>449036</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <f>[1]Лист1!$F$31</f>
         <v>524968</v>
       </c>
@@ -2027,7 +2061,7 @@
         <f>15400000-F8</f>
         <v>14875032</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="26">
         <f t="shared" ref="I8:I39" si="0">E8/F8</f>
         <v>0.85535880282226728</v>
       </c>
@@ -2036,12 +2070,12 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="26">
+      <c r="A9" s="23">
         <f>A8+1</f>
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>12</v>
@@ -2049,10 +2083,10 @@
       <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>557856</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="27">
         <v>668458</v>
       </c>
       <c r="G9" s="19">
@@ -2063,7 +2097,7 @@
         <f>12600000-F9</f>
         <v>11931542</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>0.83454158675638557</v>
       </c>
@@ -2074,20 +2108,20 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <f>A8+1</f>
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <f>[2]Лист1!$E$31</f>
         <v>613088</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="27">
         <f>[2]Лист1!$F$31</f>
         <v>721402</v>
       </c>
@@ -2099,7 +2133,7 @@
         <f>18900000-F10</f>
         <v>18178598</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>0.84985625213126659</v>
       </c>
@@ -2108,12 +2142,12 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <f>A10+1</f>
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
@@ -2121,10 +2155,10 @@
       <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <v>515328</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>670208</v>
       </c>
       <c r="G11" s="19">
@@ -2135,7 +2169,7 @@
         <f>12600000-F11</f>
         <v>11929792</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>0.76890756302521013</v>
       </c>
@@ -2146,32 +2180,32 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <f t="shared" ref="A12:A13" si="1">A11+1</f>
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="39">
+      <c r="E12" s="33">
         <f>[3]Паспорт!$E$31</f>
         <v>497004</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <f>[3]Паспорт!$F$31</f>
         <v>650324</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="25">
         <f>100%-F12/15400000</f>
         <v>0.95777116883116886</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="24">
         <f>15400000-F12</f>
         <v>14749676</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>0.76424059391933863</v>
       </c>
@@ -2180,7 +2214,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2193,10 +2227,10 @@
       <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <v>763476</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="27">
         <v>975569</v>
       </c>
       <c r="G13" s="19">
@@ -2207,7 +2241,7 @@
         <f>16800000-F13</f>
         <v>15824431</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="26">
         <f t="shared" si="0"/>
         <v>0.78259559293089465</v>
       </c>
@@ -2218,12 +2252,12 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="23">
         <f>A13+1</f>
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
@@ -2231,11 +2265,11 @@
       <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <f>[4]Лист1!$E$32</f>
         <v>645420</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="27">
         <f>[4]Лист1!$F$32</f>
         <v>851238</v>
       </c>
@@ -2247,7 +2281,7 @@
         <f>14000000-F14</f>
         <v>13148762</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>0.75821333164167948</v>
       </c>
@@ -2257,32 +2291,32 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="23">
         <f t="shared" ref="A15:A16" si="2">A14+1</f>
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="39">
+      <c r="E15" s="33">
         <f>[5]Лист1!$E$32</f>
         <v>246960</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="24">
         <f>[5]Лист1!$F$32</f>
         <v>275256</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
         <f>100%-F15/4200000</f>
         <v>0.93446285714285715</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="24">
         <f>4200000-F15</f>
         <v>3924744</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="26">
         <f t="shared" si="0"/>
         <v>0.8972011509285901</v>
       </c>
@@ -2291,32 +2325,32 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="39">
+      <c r="E16" s="33">
         <f>[6]Паспорт!$E$32</f>
         <v>948096</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="24">
         <f>[6]Паспорт!$F$32</f>
         <v>1031915</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="25">
         <f>100%-F16/15400000</f>
         <v>0.93299253246753244</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="24">
         <f>15400000-F16</f>
         <v>14368085</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>0.91877334858006721</v>
       </c>
@@ -2325,8 +2359,8 @@
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="26">
-        <f t="shared" ref="A17:A37" si="3">A16+1</f>
+      <c r="A17" s="23">
+        <f t="shared" ref="A17:A39" si="3">A16+1</f>
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2338,23 +2372,23 @@
       <c r="D17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="28">
         <f>[7]Лист1!$E$31</f>
         <v>803358</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <f>[7]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="29">
         <f>100%-F17/16800000</f>
         <v>0.91399273809523807</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="30">
         <f>12600000-F17</f>
         <v>11155078</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>0.55598710518630068</v>
       </c>
@@ -2365,12 +2399,12 @@
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="26">
+      <c r="A18" s="23">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>15</v>
@@ -2378,11 +2412,11 @@
       <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="27">
         <f>[8]Лист1!$E$32</f>
         <v>1810428</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="27">
         <f>[8]Лист1!$F$32</f>
         <v>1922742</v>
       </c>
@@ -2394,7 +2428,7 @@
         <f>12600000-F18</f>
         <v>10677258</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="26">
         <f t="shared" si="0"/>
         <v>0.94158654671297548</v>
       </c>
@@ -2404,32 +2438,32 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="26">
+      <c r="A19" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="40">
-        <f>[24]Паспорт!$E$32</f>
+      <c r="E19" s="34">
+        <f>[9]Паспорт!$E$32</f>
         <v>2527011</v>
       </c>
-      <c r="F19" s="40">
-        <f>[24]Паспорт!$F$32</f>
+      <c r="F19" s="34">
+        <f>[9]Паспорт!$F$32</f>
         <v>2734020</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="31">
         <f>100%-F19/16800000</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="30">
         <f>16800000-F19</f>
         <v>14065980</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="26">
         <f t="shared" si="0"/>
         <v>0.92428402133122656</v>
       </c>
@@ -2438,7 +2472,7 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="23">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -2451,25 +2485,25 @@
       <c r="D20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="32">
-        <f>[9]Лист1!$E$31</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <f>[9]Лист1!$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="33">
+      <c r="E20" s="28">
+        <f>[10]Лист1!$E$32</f>
+        <v>1115136</v>
+      </c>
+      <c r="F20" s="24">
+        <f>[10]Лист1!$F$32</f>
+        <v>3369696</v>
+      </c>
+      <c r="G20" s="29">
         <f>100%-F20/16800000</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="34">
+        <v>0.7994228571428571</v>
+      </c>
+      <c r="H20" s="30">
         <f>16800000-F20</f>
-        <v>16800000</v>
-      </c>
-      <c r="I20" s="30" t="e">
+        <v>13430304</v>
+      </c>
+      <c r="I20" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.33093074271388279</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="10" t="s">
@@ -2478,7 +2512,7 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="23">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -2491,8 +2525,8 @@
       <c r="D21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
         <v>3080000</v>
       </c>
       <c r="G21" s="12">
@@ -2503,7 +2537,7 @@
         <f>14000000-F21</f>
         <v>10920000</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2512,13 +2546,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="26">
+    <row r="22" spans="1:12" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="23">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>12</v>
@@ -2526,12 +2560,12 @@
       <c r="D22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="31">
-        <f>[10]Лист1!$E$30</f>
+      <c r="E22" s="27">
+        <f>[11]Лист1!$E$30</f>
         <v>4126964</v>
       </c>
-      <c r="F22" s="31">
-        <f>[10]Лист1!$F$30</f>
+      <c r="F22" s="27">
+        <f>[11]Лист1!$F$30</f>
         <v>4454263</v>
       </c>
       <c r="G22" s="12">
@@ -2542,7 +2576,7 @@
         <f>18900000-F22</f>
         <v>14445737</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>0.92652005505736867</v>
       </c>
@@ -2553,7 +2587,7 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="26">
+      <c r="A23" s="23">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -2566,19 +2600,19 @@
       <c r="D23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
         <v>4055359</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="29">
         <f>100%-F23/16800000</f>
         <v>0.75860958333333328</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="30">
         <f>18900000-F23</f>
         <v>14844641</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2588,7 +2622,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="26">
+      <c r="A24" s="23">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -2601,8 +2635,8 @@
       <c r="D24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
         <v>5511547</v>
       </c>
       <c r="G24" s="12">
@@ -2613,7 +2647,7 @@
         <f>12000000-F24</f>
         <v>6488453</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2623,12 +2657,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="26">
+      <c r="A25" s="23">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>12</v>
@@ -2636,23 +2670,23 @@
       <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="28">
-        <f>[11]Лист1!$E$31</f>
+      <c r="E25" s="24">
+        <f>[12]Лист1!$E$31</f>
         <v>5344626</v>
       </c>
-      <c r="F25" s="28">
-        <f>[11]Лист1!$F$31</f>
+      <c r="F25" s="24">
+        <f>[12]Лист1!$F$31</f>
         <v>5601912</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="29">
         <f>100%-F25/16800000</f>
         <v>0.66655285714285717</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="30">
         <f>16800000-F25</f>
         <v>11198088</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="26">
         <f t="shared" si="0"/>
         <v>0.95407175264445421</v>
       </c>
@@ -2661,7 +2695,7 @@
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -2674,21 +2708,21 @@
       <c r="D26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="28">
         <v>2131080</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="24">
         <v>5638494</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="31">
         <f>100%-F26/16800000</f>
         <v>0.66437535714285723</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="30">
         <f>16800000-F26</f>
         <v>11161506</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="26">
         <f t="shared" si="0"/>
         <v>0.37795198505132754</v>
       </c>
@@ -2699,12 +2733,12 @@
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="26">
+      <c r="A27" s="23">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>12</v>
@@ -2712,12 +2746,12 @@
       <c r="D27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="31">
-        <f>[12]Лист1!$E$26</f>
+      <c r="E27" s="27">
+        <f>[13]Лист1!$E$26</f>
         <v>7275420</v>
       </c>
-      <c r="F27" s="31">
-        <f>[12]Лист1!$F$26</f>
+      <c r="F27" s="27">
+        <f>[13]Лист1!$F$26</f>
         <v>7668663</v>
       </c>
       <c r="G27" s="12">
@@ -2728,7 +2762,7 @@
         <f>16800000-F27</f>
         <v>9131337</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="26">
         <f t="shared" si="0"/>
         <v>0.94872078744365218</v>
       </c>
@@ -2738,12 +2772,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="26">
+      <c r="A28" s="23">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>12</v>
@@ -2751,12 +2785,12 @@
       <c r="D28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="31">
-        <f>[13]Лист1!$E$37</f>
+      <c r="E28" s="27">
+        <f>[14]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
-      <c r="F28" s="31">
-        <f>[13]Лист1!$F$37</f>
+      <c r="F28" s="27">
+        <f>[14]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
       <c r="G28" s="12">
@@ -2767,7 +2801,7 @@
         <f>18900000-F28</f>
         <v>9725733</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="26">
         <f t="shared" si="0"/>
         <v>0.90691561516576746</v>
       </c>
@@ -2777,12 +2811,12 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="26">
+      <c r="A29" s="23">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>12</v>
@@ -2790,12 +2824,12 @@
       <c r="D29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="36">
-        <f>[14]Лист1!$E$30</f>
+      <c r="E29" s="32">
+        <f>[15]Лист1!$E$30</f>
         <v>6320916</v>
       </c>
-      <c r="F29" s="31">
-        <f>[14]Лист1!$F$30</f>
+      <c r="F29" s="27">
+        <f>[15]Лист1!$F$30</f>
         <v>8887400</v>
       </c>
       <c r="G29" s="12">
@@ -2806,7 +2840,7 @@
         <f>16800000-F29</f>
         <v>7912600</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="26">
         <f t="shared" si="0"/>
         <v>0.71122217971510227</v>
       </c>
@@ -2816,12 +2850,12 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="26">
+      <c r="A30" s="23">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>12</v>
@@ -2829,12 +2863,12 @@
       <c r="D30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="36">
-        <f>[15]Лист1!$E$31</f>
+      <c r="E30" s="32">
+        <f>[16]Лист1!$E$31</f>
         <v>3585960</v>
       </c>
-      <c r="F30" s="31">
-        <f>[15]Лист1!$F$31</f>
+      <c r="F30" s="27">
+        <f>[16]Лист1!$F$31</f>
         <v>7428717</v>
       </c>
       <c r="G30" s="12">
@@ -2845,7 +2879,7 @@
         <f>14000000-F30</f>
         <v>6571283</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <f t="shared" si="0"/>
         <v>0.48271592523984963</v>
       </c>
@@ -2855,12 +2889,12 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="26">
+      <c r="A31" s="23">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>12</v>
@@ -2868,25 +2902,25 @@
       <c r="D31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="36">
-        <f>[16]Лист1!$E$31</f>
-        <v>4824196</v>
-      </c>
-      <c r="F31" s="31">
-        <f>[16]Лист1!$F$31</f>
-        <v>9443259</v>
+      <c r="E31" s="32">
+        <f>[17]Лист1!$E$31</f>
+        <v>5383384</v>
+      </c>
+      <c r="F31" s="27">
+        <f>[17]Лист1!$F$31</f>
+        <v>10048012</v>
       </c>
       <c r="G31" s="12">
         <f>100%-F31/16800000</f>
-        <v>0.43790125000000002</v>
+        <v>0.40190404761904763</v>
       </c>
       <c r="H31" s="13">
         <f>16800000-F31</f>
-        <v>7356741</v>
-      </c>
-      <c r="I31" s="30">
+        <v>6751988</v>
+      </c>
+      <c r="I31" s="26">
         <f t="shared" si="0"/>
-        <v>0.51086134564349028</v>
+        <v>0.5357660798971976</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="10" t="s">
@@ -2894,7 +2928,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="26">
+      <c r="A32" s="23">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -2907,23 +2941,23 @@
       <c r="D32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="28">
-        <f>[17]Лист1!$E$31</f>
+      <c r="E32" s="24">
+        <f>[18]Лист1!$E$31</f>
         <v>9270726</v>
       </c>
-      <c r="F32" s="28">
-        <f>[17]Лист1!$F$31</f>
+      <c r="F32" s="24">
+        <f>[18]Лист1!$F$31</f>
         <v>10267748</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="29">
         <f>100%-F32/16800000</f>
         <v>0.38882452380952381</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="30">
         <f>16800000-F32</f>
         <v>6532252</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <f t="shared" si="0"/>
         <v>0.90289769480123583</v>
       </c>
@@ -2934,12 +2968,12 @@
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="26">
+      <c r="A33" s="23">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>12</v>
@@ -2947,23 +2981,23 @@
       <c r="D33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="28">
-        <f>[18]Лист1!$E$39</f>
+      <c r="E33" s="24">
+        <f>[19]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
-      <c r="F33" s="28">
-        <f>[18]Лист1!$F$39</f>
+      <c r="F33" s="24">
+        <f>[19]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="29">
         <f>100%-F33/18200000</f>
         <v>0.32799769230769227</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="30">
         <f>18200000-F33</f>
         <v>5969558</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="0"/>
         <v>0.91973258202769781</v>
       </c>
@@ -2974,7 +3008,7 @@
       <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="26">
+      <c r="A34" s="23">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -2987,23 +3021,23 @@
       <c r="D34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="32">
-        <f>[19]Лист1!$E$30</f>
+      <c r="E34" s="28">
+        <f>[20]Лист1!$E$30</f>
         <v>6849070</v>
       </c>
-      <c r="F34" s="28">
-        <f>[19]Лист1!$F$30</f>
+      <c r="F34" s="24">
+        <f>[20]Лист1!$F$30</f>
         <v>14503171</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="29">
         <f>100%-F34/19600000</f>
         <v>0.26004229591836736</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="30">
         <f>19600000-F34</f>
         <v>5096829</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="26">
         <f t="shared" si="0"/>
         <v>0.47224637977446449</v>
       </c>
@@ -3014,7 +3048,7 @@
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="26">
+      <c r="A35" s="23">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3027,12 +3061,12 @@
       <c r="D35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="36">
-        <f>[20]Лист1!$E$31</f>
+      <c r="E35" s="32">
+        <f>[21]Лист1!$E$31</f>
         <v>4259304</v>
       </c>
-      <c r="F35" s="31">
-        <f>[20]Лист1!$F$31</f>
+      <c r="F35" s="27">
+        <f>[21]Лист1!$F$31</f>
         <v>12624642</v>
       </c>
       <c r="G35" s="12">
@@ -3043,7 +3077,7 @@
         <f>24000000-F35</f>
         <v>11375358</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="26">
         <f t="shared" si="0"/>
         <v>0.33738018076076931</v>
       </c>
@@ -3054,12 +3088,12 @@
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="26">
+      <c r="A36" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
@@ -3067,12 +3101,12 @@
       <c r="D36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="31">
-        <f>[21]Лист1!$E$30</f>
+      <c r="E36" s="27">
+        <f>[22]Лист1!$E$30</f>
         <v>13190994</v>
       </c>
-      <c r="F36" s="31">
-        <f>[21]Лист1!$F$30</f>
+      <c r="F36" s="27">
+        <f>[22]Лист1!$F$30</f>
         <v>16642877</v>
       </c>
       <c r="G36" s="12">
@@ -3083,7 +3117,7 @@
         <f>21000000-F36</f>
         <v>4357123</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="26">
         <f t="shared" si="0"/>
         <v>0.7925909684966127</v>
       </c>
@@ -3094,11 +3128,11 @@
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
-      <c r="A37" s="26">
+      <c r="A37" s="23">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3107,23 +3141,23 @@
       <c r="D37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="32">
-        <f>[22]Лист1!$E$32</f>
+      <c r="E37" s="28">
+        <f>[23]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
-      <c r="F37" s="28">
-        <f>[22]Лист1!$F$32</f>
+      <c r="F37" s="24">
+        <f>[23]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="29">
         <f>100%-F37/18200000</f>
         <v>4.4333516483516799E-3</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="30">
         <f>18200000-F37</f>
         <v>80687</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="26">
         <f t="shared" si="0"/>
         <v>0.4883635488828964</v>
       </c>
@@ -3134,29 +3168,32 @@
       <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="23">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
       <c r="B38" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="39">
-        <f>[25]Лист1!$E$33</f>
+      <c r="E38" s="33">
+        <f>[24]Лист1!$E$33</f>
         <v>1766331</v>
       </c>
-      <c r="F38" s="28">
-        <f>[25]Лист1!$F$33</f>
+      <c r="F38" s="24">
+        <f>[24]Лист1!$F$33</f>
         <v>1993309</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="29">
         <f>100%-F38/16800000</f>
         <v>0.88135065476190477</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="30">
         <f>16800000-F38</f>
         <v>14806691</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="26">
         <f t="shared" ref="I38" si="4">E38/F38</f>
         <v>0.88613004807583773</v>
       </c>
@@ -3164,45 +3201,44 @@
       <c r="K38" s="10"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="26">
-        <f>A37+1</f>
-        <v>32</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="21" t="s">
+    <row r="39" spans="1:12" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="23">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="37">
-        <f>[23]Лист1!$E$33</f>
-        <v>24278204</v>
-      </c>
-      <c r="F39" s="37">
-        <f>[23]Лист1!$F$33</f>
-        <v>26782614</v>
-      </c>
-      <c r="G39" s="27">
-        <f>100%-F39/16800000</f>
-        <v>-0.59420321428571432</v>
-      </c>
-      <c r="H39" s="25">
-        <f>16800000-F39</f>
-        <v>-9982614</v>
-      </c>
-      <c r="I39" s="38">
+      <c r="E39" s="56">
+        <f>[25]Паспорт!$E$37</f>
+        <v>626991</v>
+      </c>
+      <c r="F39" s="56">
+        <f>[25]Паспорт!$F$37</f>
+        <v>690598</v>
+      </c>
+      <c r="G39" s="57">
+        <f>100%-F39/[25]Паспорт!$A$21</f>
+        <v>0.94807533834586466</v>
+      </c>
+      <c r="H39" s="58">
+        <f>[25]Паспорт!$A$21-F39</f>
+        <v>12609402</v>
+      </c>
+      <c r="I39" s="59">
         <f t="shared" si="0"/>
-        <v>0.90649120358453439</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="21" t="s">
+        <v>0.90789576569871333</v>
+      </c>
+      <c r="J39" s="60"/>
+      <c r="K39" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L21">
@@ -3229,4 +3265,16 @@
   <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -205,9 +205,6 @@
     <t>"Тоник 0.2" тип V-GPI-630-200</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.12.2019 г.</t>
-  </si>
-  <si>
     <t>«Штофф Колоски 0,5 л» тип XXI-В-28-2б-500-1</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>"Байрон 0.7 л." XXI-В-30-4А-700</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.01.2020 г.</t>
   </si>
 </sst>
 </file>
@@ -732,10 +732,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,8 +819,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
       <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -843,10 +844,10 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>387072</v>
+            <v>468000</v>
           </cell>
           <cell r="F32">
-            <v>432806</v>
+            <v>521755</v>
           </cell>
         </row>
       </sheetData>
@@ -861,6 +862,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -876,12 +878,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>803358</v>
-          </cell>
-          <cell r="F31">
-            <v>1444922</v>
+        <row r="33">
+          <cell r="E33">
+            <v>1766331</v>
+          </cell>
+          <cell r="F33">
+            <v>1993309</v>
           </cell>
         </row>
       </sheetData>
@@ -902,12 +904,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>1766331</v>
-          </cell>
-          <cell r="F33">
-            <v>1993309</v>
+        <row r="32">
+          <cell r="E32">
+            <v>2923314</v>
+          </cell>
+          <cell r="F32">
+            <v>3073214</v>
           </cell>
         </row>
       </sheetData>
@@ -919,6 +921,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1115136</v>
+          </cell>
+          <cell r="F32">
+            <v>3369696</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -940,10 +968,10 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>2527011</v>
+            <v>4103201</v>
           </cell>
           <cell r="F32">
-            <v>2734020</v>
+            <v>4449033</v>
           </cell>
         </row>
       </sheetData>
@@ -964,32 +992,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>2923314</v>
-          </cell>
-          <cell r="F32">
-            <v>3073214</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1000,12 +1002,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>1115136</v>
-          </cell>
-          <cell r="F32">
-            <v>3369696</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6255857</v>
+          </cell>
+          <cell r="F30">
+            <v>6692357</v>
           </cell>
         </row>
       </sheetData>
@@ -1026,12 +1028,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>4126964</v>
-          </cell>
-          <cell r="F30">
-            <v>4454263</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1054,10 +1056,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>6476918</v>
+            <v>8281833</v>
           </cell>
           <cell r="F31">
-            <v>6824436</v>
+            <v>8683737</v>
           </cell>
         </row>
       </sheetData>
@@ -1078,12 +1080,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
@@ -1104,12 +1106,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6320916</v>
-          </cell>
-          <cell r="F30">
-            <v>8887400</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4049370</v>
+          </cell>
+          <cell r="F31">
+            <v>7933811</v>
           </cell>
         </row>
       </sheetData>
@@ -1130,12 +1132,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>3585960</v>
-          </cell>
-          <cell r="F31">
-            <v>7428717</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1150,50 +1152,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Детали ф-тов"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>15400000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>468000</v>
-          </cell>
-          <cell r="F32">
-            <v>521755</v>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>449036</v>
+          </cell>
+          <cell r="F31">
+            <v>524968</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1209,12 +1184,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="E26">
-            <v>9349492</v>
-          </cell>
-          <cell r="F26">
-            <v>9834956</v>
+        <row r="31">
+          <cell r="E31">
+            <v>6662284</v>
+          </cell>
+          <cell r="F31">
+            <v>11429652</v>
           </cell>
         </row>
       </sheetData>
@@ -1237,10 +1212,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>5383384</v>
+            <v>11014310</v>
           </cell>
           <cell r="F31">
-            <v>10048012</v>
+            <v>12128977</v>
           </cell>
         </row>
       </sheetData>
@@ -1261,12 +1236,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4259304</v>
+          </cell>
+          <cell r="F31">
+            <v>12624642</v>
           </cell>
         </row>
       </sheetData>
@@ -1287,12 +1262,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>10674650</v>
-          </cell>
-          <cell r="F31">
-            <v>11786574</v>
+        <row r="30">
+          <cell r="E30">
+            <v>8640360</v>
+          </cell>
+          <cell r="F30">
+            <v>16453303</v>
           </cell>
         </row>
       </sheetData>
@@ -1313,12 +1288,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4259304</v>
-          </cell>
-          <cell r="F31">
-            <v>12624642</v>
+        <row r="26">
+          <cell r="E26">
+            <v>13706491</v>
+          </cell>
+          <cell r="F26">
+            <v>14354659</v>
           </cell>
         </row>
       </sheetData>
@@ -1341,10 +1316,10 @@
       <sheetData sheetId="0">
         <row r="30">
           <cell r="E30">
-            <v>13190994</v>
+            <v>15701250</v>
           </cell>
           <cell r="F30">
-            <v>16642877</v>
+            <v>19280552</v>
           </cell>
         </row>
       </sheetData>
@@ -1365,12 +1340,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>8640360</v>
-          </cell>
-          <cell r="F30">
-            <v>16453303</v>
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
@@ -1385,23 +1360,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="E32">
-            <v>8848812</v>
+            <v>246960</v>
           </cell>
           <cell r="F32">
-            <v>18119313</v>
+            <v>275256</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1419,10 +1419,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>449036</v>
+            <v>613088</v>
           </cell>
           <cell r="F31">
-            <v>524968</v>
+            <v>721402</v>
           </cell>
         </row>
       </sheetData>
@@ -1437,23 +1437,43 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>613088</v>
+            <v>497004</v>
           </cell>
           <cell r="F31">
-            <v>721402</v>
+            <v>650324</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1479,12 +1499,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>497004</v>
-          </cell>
-          <cell r="F31">
-            <v>650324</v>
+        <row r="21">
+          <cell r="A21">
+            <v>13300000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>491400</v>
+          </cell>
+          <cell r="F37">
+            <v>577433</v>
           </cell>
         </row>
       </sheetData>
@@ -1509,57 +1534,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>13300000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>491400</v>
-          </cell>
-          <cell r="F37">
-            <v>577433</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Лист1"/>
       <sheetName val="Лист2"/>
       <sheetName val="Лист3"/>
@@ -1582,53 +1556,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>246960</v>
-          </cell>
-          <cell r="F32">
-            <v>275256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1671,6 +1599,83 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>1048620</v>
+          </cell>
+          <cell r="F32">
+            <v>1152478</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1969,10 +1974,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1992,7 +1997,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
       <c r="A1" s="49" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2093,7 +2098,8 @@
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="23">
-        <v>1</v>
+        <f>A5+1</f>
+        <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>36</v>
@@ -2124,7 +2130,7 @@
     <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="23">
         <f>A6+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>41</v>
@@ -2145,47 +2151,43 @@
     <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="23">
         <f>A7+1</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="33">
-        <f>[1]Паспорт!$E$32</f>
-        <v>387072</v>
-      </c>
-      <c r="F8" s="33">
-        <f>[1]Паспорт!$F$32</f>
-        <v>432806</v>
-      </c>
-      <c r="G8" s="43">
-        <f>100%-F8/[1]Паспорт!$A$21</f>
-        <v>0.97189571428571431</v>
-      </c>
-      <c r="H8" s="33">
-        <f>[1]Паспорт!$A$21-F8</f>
-        <v>14967194</v>
-      </c>
-      <c r="I8" s="39">
+        <f>[27]Паспорт!$E$32</f>
+        <v>246960</v>
+      </c>
+      <c r="F8" s="24">
+        <f>[27]Паспорт!$F$32</f>
+        <v>275256</v>
+      </c>
+      <c r="G8" s="25">
+        <f>100%-F8/[27]Паспорт!$A$21</f>
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="H8" s="24">
+        <f>[27]Паспорт!$A$21-F8</f>
+        <v>13724744</v>
+      </c>
+      <c r="I8" s="26">
         <f>E8/F8</f>
-        <v>0.89433140945365819</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
+        <v>0.8972011509285901</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="23">
         <f>A8+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>12</v>
@@ -2194,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="E9" s="33">
-        <f>[2]Паспорт!$E$32</f>
+        <f>[1]Паспорт!$E$32</f>
         <v>468000</v>
       </c>
       <c r="F9" s="24">
-        <f>[2]Паспорт!$F$32</f>
+        <f>[1]Паспорт!$F$32</f>
         <v>521755</v>
       </c>
       <c r="G9" s="25">
-        <f>100%-F9/[2]Паспорт!$A$21</f>
+        <f>100%-F9/[1]Паспорт!$A$21</f>
         <v>0.96611980519480523</v>
       </c>
       <c r="H9" s="24">
-        <f>[2]Паспорт!$A$21-F9</f>
+        <f>[1]Паспорт!$A$21-F9</f>
         <v>14878245</v>
       </c>
       <c r="I9" s="26"/>
@@ -2216,7 +2218,7 @@
     <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="23">
         <f>A9+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>40</v>
@@ -2224,11 +2226,11 @@
       <c r="C10" s="10"/>
       <c r="D10" s="15"/>
       <c r="E10" s="27">
-        <f>[3]Лист1!$E$31</f>
+        <f>[2]Лист1!$E$31</f>
         <v>449036</v>
       </c>
       <c r="F10" s="27">
-        <f>[3]Лист1!$F$31</f>
+        <f>[2]Лист1!$F$31</f>
         <v>524968</v>
       </c>
       <c r="G10" s="19">
@@ -2240,7 +2242,7 @@
         <v>14875032</v>
       </c>
       <c r="I10" s="26">
-        <f t="shared" ref="I10:I40" si="0">E10/F10</f>
+        <f>E10/F10</f>
         <v>0.85535880282226728</v>
       </c>
       <c r="J10" s="11"/>
@@ -2249,7 +2251,7 @@
     <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="23">
         <f>A10+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
@@ -2275,7 +2277,7 @@
         <v>11931542</v>
       </c>
       <c r="I11" s="26">
-        <f t="shared" si="0"/>
+        <f>E11/F11</f>
         <v>0.83454158675638557</v>
       </c>
       <c r="J11" s="11"/>
@@ -2284,7 +2286,7 @@
     <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="23">
         <f>A10+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>41</v>
@@ -2292,11 +2294,11 @@
       <c r="C12" s="10"/>
       <c r="D12" s="15"/>
       <c r="E12" s="27">
-        <f>[4]Лист1!$E$31</f>
+        <f>[3]Лист1!$E$31</f>
         <v>613088</v>
       </c>
       <c r="F12" s="27">
-        <f>[4]Лист1!$F$31</f>
+        <f>[3]Лист1!$F$31</f>
         <v>721402</v>
       </c>
       <c r="G12" s="19">
@@ -2308,7 +2310,7 @@
         <v>18178598</v>
       </c>
       <c r="I12" s="26">
-        <f t="shared" si="0"/>
+        <f>E12/F12</f>
         <v>0.84985625213126659</v>
       </c>
       <c r="J12" s="11"/>
@@ -2316,8 +2318,8 @@
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="23">
-        <f t="shared" ref="A13:A40" si="1">A12+1</f>
-        <v>7</v>
+        <f>A12+1</f>
+        <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -2343,7 +2345,7 @@
         <v>11929792</v>
       </c>
       <c r="I13" s="26">
-        <f t="shared" si="0"/>
+        <f>E13/F13</f>
         <v>0.76890756302521013</v>
       </c>
       <c r="J13" s="11"/>
@@ -2351,8 +2353,8 @@
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="23">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>A13+1</f>
+        <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>47</v>
@@ -2360,11 +2362,11 @@
       <c r="C14" s="10"/>
       <c r="D14" s="15"/>
       <c r="E14" s="33">
-        <f>[5]Паспорт!$E$31</f>
+        <f>[4]Паспорт!$E$31</f>
         <v>497004</v>
       </c>
       <c r="F14" s="24">
-        <f>[5]Паспорт!$F$31</f>
+        <f>[4]Паспорт!$F$31</f>
         <v>650324</v>
       </c>
       <c r="G14" s="25">
@@ -2376,7 +2378,7 @@
         <v>14749676</v>
       </c>
       <c r="I14" s="26">
-        <f t="shared" si="0"/>
+        <f>E14/F14</f>
         <v>0.76424059391933863</v>
       </c>
       <c r="J14" s="11"/>
@@ -2384,11 +2386,11 @@
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A15" s="23">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>A14+1</f>
+        <v>10</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>12</v>
@@ -2397,23 +2399,23 @@
         <v>13</v>
       </c>
       <c r="E15" s="37">
-        <f>[6]Паспорт!$E$37</f>
+        <f>[5]Паспорт!$E$37</f>
         <v>491400</v>
       </c>
       <c r="F15" s="37">
-        <f>[6]Паспорт!$F$37</f>
+        <f>[5]Паспорт!$F$37</f>
         <v>577433</v>
       </c>
       <c r="G15" s="38">
-        <f>100%-F15/[6]Паспорт!$A$21</f>
+        <f>100%-F15/[5]Паспорт!$A$21</f>
         <v>0.95658398496240604</v>
       </c>
-      <c r="H15" s="44">
-        <f>[6]Паспорт!$A$21-F15</f>
+      <c r="H15" s="43">
+        <f>[5]Паспорт!$A$21-F15</f>
         <v>12722567</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="0"/>
+        <f>E15/F15</f>
         <v>0.85100782255257323</v>
       </c>
       <c r="J15" s="40"/>
@@ -2421,8 +2423,8 @@
     </row>
     <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A16" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>A15+1</f>
+        <v>11</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>25</v>
@@ -2448,15 +2450,15 @@
         <v>15824431</v>
       </c>
       <c r="I16" s="26">
-        <f t="shared" si="0"/>
+        <f>E16/F16</f>
         <v>0.78259559293089465</v>
       </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A17" s="23">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>A16+1</f>
+        <v>12</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>30</v>
@@ -2468,11 +2470,11 @@
         <v>13</v>
       </c>
       <c r="E17" s="27">
-        <f>[7]Лист1!$E$32</f>
+        <f>[6]Лист1!$E$32</f>
         <v>645420</v>
       </c>
       <c r="F17" s="27">
-        <f>[7]Лист1!$F$32</f>
+        <f>[6]Лист1!$F$32</f>
         <v>851238</v>
       </c>
       <c r="G17" s="12">
@@ -2484,81 +2486,85 @@
         <v>13148762</v>
       </c>
       <c r="I17" s="26">
-        <f t="shared" si="0"/>
+        <f>E17/F17</f>
         <v>0.75821333164167948</v>
       </c>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A18" s="23">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>A17+1</f>
+        <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="15"/>
       <c r="E18" s="33">
-        <f>[8]Лист1!$E$32</f>
-        <v>246960</v>
+        <f>[7]Паспорт!$E$32</f>
+        <v>948096</v>
       </c>
       <c r="F18" s="24">
-        <f>[8]Лист1!$F$32</f>
-        <v>275256</v>
+        <f>[7]Паспорт!$F$32</f>
+        <v>1031915</v>
       </c>
       <c r="G18" s="29">
-        <f>100%-F18/4200000</f>
-        <v>0.93446285714285715</v>
+        <f>100%-F18/15400000</f>
+        <v>0.93299253246753244</v>
       </c>
       <c r="H18" s="30">
-        <f>4200000-F18</f>
-        <v>3924744</v>
+        <f>15400000-F18</f>
+        <v>14368085</v>
       </c>
       <c r="I18" s="26">
-        <f t="shared" si="0"/>
-        <v>0.8972011509285901</v>
+        <f>E18/F18</f>
+        <v>0.91877334858006721</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A19" s="23">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
+        <f>A18+1</f>
+        <v>14</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="34">
-        <f>[9]Паспорт!$E$32</f>
-        <v>948096</v>
-      </c>
-      <c r="F19" s="30">
-        <f>[9]Паспорт!$F$32</f>
-        <v>1031915</v>
-      </c>
-      <c r="G19" s="29">
-        <f>100%-F19/15400000</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="H19" s="30">
-        <f>15400000-F19</f>
-        <v>14368085</v>
-      </c>
-      <c r="I19" s="26">
-        <f t="shared" si="0"/>
-        <v>0.91877334858006721</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="18"/>
+        <f>[8]Паспорт!$E$32</f>
+        <v>1048620</v>
+      </c>
+      <c r="F19" s="34">
+        <f>[8]Паспорт!$F$32</f>
+        <v>1152478</v>
+      </c>
+      <c r="G19" s="44">
+        <f>100%-F19/[8]Паспорт!$A$21</f>
+        <v>0.92516376623376617</v>
+      </c>
+      <c r="H19" s="34">
+        <f>[8]Паспорт!$A$21-F19</f>
+        <v>14247522</v>
+      </c>
+      <c r="I19" s="39">
+        <f>E19/F19</f>
+        <v>0.90988287845841742</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A20" s="23">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>A19+1</f>
+        <v>15</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>22</v>
@@ -2570,11 +2576,11 @@
         <v>13</v>
       </c>
       <c r="E20" s="28">
-        <f>[10]Лист1!$E$31</f>
+        <f>[9]Лист1!$E$31</f>
         <v>803358</v>
       </c>
       <c r="F20" s="24">
-        <f>[10]Лист1!$F$31</f>
+        <f>[9]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
       <c r="G20" s="29">
@@ -2586,7 +2592,7 @@
         <v>11155078</v>
       </c>
       <c r="I20" s="26">
-        <f t="shared" si="0"/>
+        <f>E20/F20</f>
         <v>0.55598710518630068</v>
       </c>
       <c r="J20" s="11"/>
@@ -2594,8 +2600,8 @@
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A21" s="23">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>A20+1</f>
+        <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>49</v>
@@ -2603,11 +2609,11 @@
       <c r="C21" s="10"/>
       <c r="D21" s="15"/>
       <c r="E21" s="33">
-        <f>[11]Лист1!$E$33</f>
+        <f>[10]Лист1!$E$33</f>
         <v>1766331</v>
       </c>
       <c r="F21" s="24">
-        <f>[11]Лист1!$F$33</f>
+        <f>[10]Лист1!$F$33</f>
         <v>1993309</v>
       </c>
       <c r="G21" s="29">
@@ -2619,7 +2625,7 @@
         <v>14806691</v>
       </c>
       <c r="I21" s="26">
-        <f t="shared" si="0"/>
+        <f>E21/F21</f>
         <v>0.88613004807583773</v>
       </c>
       <c r="J21" s="11"/>
@@ -2627,80 +2633,85 @@
     </row>
     <row r="22" spans="1:11" s="22" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A22" s="23">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>A21+1</f>
+        <v>17</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="33">
-        <f>[12]Паспорт!$E$32</f>
-        <v>2527011</v>
-      </c>
-      <c r="F22" s="33">
-        <f>[12]Паспорт!$F$32</f>
-        <v>2734020</v>
-      </c>
-      <c r="G22" s="31">
-        <f>100%-F22/16800000</f>
-        <v>0.83726071428571425</v>
-      </c>
-      <c r="H22" s="30">
-        <f>16800000-F22</f>
-        <v>14065980</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="27">
+        <f>[11]Лист1!$E$32</f>
+        <v>2923314</v>
+      </c>
+      <c r="F22" s="27">
+        <f>[11]Лист1!$F$32</f>
+        <v>3073214</v>
+      </c>
+      <c r="G22" s="12">
+        <f>100%-F22/15400000</f>
+        <v>0.80044064935064929</v>
+      </c>
+      <c r="H22" s="13">
+        <f>12600000-F22</f>
+        <v>9526786</v>
       </c>
       <c r="I22" s="26">
-        <f t="shared" si="0"/>
-        <v>0.92428402133122656</v>
+        <f>E22/F22</f>
+        <v>0.95122370261231404</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A23" s="23">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>A22+1</f>
+        <v>18</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="27">
-        <f>[13]Лист1!$E$32</f>
-        <v>2923314</v>
-      </c>
-      <c r="F23" s="27">
-        <f>[13]Лист1!$F$32</f>
-        <v>3073214</v>
-      </c>
-      <c r="G23" s="12">
-        <f>100%-F23/15400000</f>
-        <v>0.80044064935064929</v>
-      </c>
-      <c r="H23" s="13">
-        <f>12600000-F23</f>
-        <v>9526786</v>
+        <v>13</v>
+      </c>
+      <c r="E23" s="28">
+        <f>[12]Лист1!$E$32</f>
+        <v>1115136</v>
+      </c>
+      <c r="F23" s="24">
+        <f>[12]Лист1!$F$32</f>
+        <v>3369696</v>
+      </c>
+      <c r="G23" s="29">
+        <f>100%-F23/16800000</f>
+        <v>0.7994228571428571</v>
+      </c>
+      <c r="H23" s="30">
+        <f>16800000-F23</f>
+        <v>13430304</v>
       </c>
       <c r="I23" s="26">
-        <f t="shared" si="0"/>
-        <v>0.95122370261231404</v>
+        <f>E23/F23</f>
+        <v>0.33093074271388279</v>
       </c>
       <c r="J23" s="11"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A24" s="23">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>A23+1</f>
+        <v>19</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>12</v>
@@ -2708,36 +2719,31 @@
       <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="28">
-        <f>[14]Лист1!$E$32</f>
-        <v>1115136</v>
-      </c>
-      <c r="F24" s="24">
-        <f>[14]Лист1!$F$32</f>
-        <v>3369696</v>
-      </c>
-      <c r="G24" s="29">
-        <f>100%-F24/16800000</f>
-        <v>0.7994228571428571</v>
-      </c>
-      <c r="H24" s="30">
-        <f>16800000-F24</f>
-        <v>13430304</v>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G24" s="12">
+        <f>100%-F24/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H24" s="13">
+        <f>14000000-F24</f>
+        <v>10920000</v>
       </c>
       <c r="I24" s="26">
-        <f t="shared" si="0"/>
-        <v>0.33093074271388279</v>
+        <f>E24/F24</f>
+        <v>0</v>
       </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A25" s="23">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>A24+1</f>
+        <v>20</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>12</v>
@@ -2745,67 +2751,64 @@
       <c r="D25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G25" s="12">
-        <f>100%-F25/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H25" s="13">
-        <f>14000000-F25</f>
-        <v>10920000</v>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
+        <v>4055359</v>
+      </c>
+      <c r="G25" s="29">
+        <f>100%-F25/16800000</f>
+        <v>0.75860958333333328</v>
+      </c>
+      <c r="H25" s="30">
+        <f>18900000-F25</f>
+        <v>14844641</v>
       </c>
       <c r="I25" s="26">
-        <f t="shared" si="0"/>
+        <f>E25/F25</f>
         <v>0</v>
       </c>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A26" s="23">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>A25+1</f>
+        <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="27">
-        <f>[15]Лист1!$E$30</f>
-        <v>4126964</v>
-      </c>
-      <c r="F26" s="27">
-        <f>[15]Лист1!$F$30</f>
-        <v>4454263</v>
-      </c>
-      <c r="G26" s="12">
-        <f>100%-F26/18900000</f>
-        <v>0.76432470899470895</v>
-      </c>
-      <c r="H26" s="13">
-        <f>18900000-F26</f>
-        <v>14445737</v>
+        <v>45</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="33">
+        <f>[13]Паспорт!$E$32</f>
+        <v>4103201</v>
+      </c>
+      <c r="F26" s="33">
+        <f>[13]Паспорт!$F$32</f>
+        <v>4449033</v>
+      </c>
+      <c r="G26" s="31">
+        <f>100%-F26/16800000</f>
+        <v>0.73517660714285715</v>
+      </c>
+      <c r="H26" s="30">
+        <f>16800000-F26</f>
+        <v>12350967</v>
       </c>
       <c r="I26" s="26">
-        <f t="shared" si="0"/>
-        <v>0.92652005505736867</v>
+        <f>E26/F26</f>
+        <v>0.92226805240599474</v>
       </c>
       <c r="J26" s="11"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A27" s="23">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>A26+1</f>
+        <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>12</v>
@@ -2813,31 +2816,31 @@
       <c r="D27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24">
-        <v>4055359</v>
-      </c>
-      <c r="G27" s="29">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
+        <v>5511547</v>
+      </c>
+      <c r="G27" s="12">
         <f>100%-F27/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H27" s="30">
-        <f>18900000-F27</f>
-        <v>14844641</v>
+        <v>0.67193172619047625</v>
+      </c>
+      <c r="H27" s="13">
+        <f>12000000-F27</f>
+        <v>6488453</v>
       </c>
       <c r="I27" s="26">
-        <f t="shared" si="0"/>
+        <f>E27/F27</f>
         <v>0</v>
       </c>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A28" s="23">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>A27+1</f>
+        <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>12</v>
@@ -2845,31 +2848,34 @@
       <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27">
-        <v>5511547</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="E28" s="28">
+        <v>2131080</v>
+      </c>
+      <c r="F28" s="24">
+        <v>5638494</v>
+      </c>
+      <c r="G28" s="31">
         <f>100%-F28/16800000</f>
-        <v>0.67193172619047625</v>
-      </c>
-      <c r="H28" s="13">
-        <f>12000000-F28</f>
-        <v>6488453</v>
+        <v>0.66437535714285723</v>
+      </c>
+      <c r="H28" s="30">
+        <f>16800000-F28</f>
+        <v>11161506</v>
       </c>
       <c r="I28" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E28/F28</f>
+        <v>0.37795198505132754</v>
       </c>
       <c r="J28" s="11"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A29" s="23">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>A28+1</f>
+        <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>12</v>
@@ -2877,34 +2883,35 @@
       <c r="D29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="28">
-        <v>2131080</v>
-      </c>
-      <c r="F29" s="24">
-        <v>5638494</v>
-      </c>
-      <c r="G29" s="31">
-        <f>100%-F29/16800000</f>
-        <v>0.66437535714285723</v>
-      </c>
-      <c r="H29" s="30">
-        <f>16800000-F29</f>
-        <v>11161506</v>
+      <c r="E29" s="27">
+        <f>[14]Лист1!$E$30</f>
+        <v>6255857</v>
+      </c>
+      <c r="F29" s="27">
+        <f>[14]Лист1!$F$30</f>
+        <v>6692357</v>
+      </c>
+      <c r="G29" s="12">
+        <f>100%-F29/18900000</f>
+        <v>0.645907037037037</v>
+      </c>
+      <c r="H29" s="13">
+        <f>18900000-F29</f>
+        <v>12207643</v>
       </c>
       <c r="I29" s="26">
-        <f t="shared" si="0"/>
-        <v>0.37795198505132754</v>
+        <f>E29/F29</f>
+        <v>0.93477634262487785</v>
       </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A30" s="23">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>A29+1</f>
+        <v>25</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>12</v>
@@ -2912,36 +2919,35 @@
       <c r="D30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="24">
-        <f>[16]Лист1!$E$31</f>
-        <v>6476918</v>
-      </c>
-      <c r="F30" s="24">
-        <f>[16]Лист1!$F$31</f>
-        <v>6824436</v>
-      </c>
-      <c r="G30" s="29">
-        <f>100%-F30/16800000</f>
-        <v>0.59378357142857141</v>
-      </c>
-      <c r="H30" s="30">
-        <f>16800000-F30</f>
-        <v>9975564</v>
+      <c r="E30" s="27">
+        <f>[15]Лист1!$E$37</f>
+        <v>8320286</v>
+      </c>
+      <c r="F30" s="27">
+        <f>[15]Лист1!$F$37</f>
+        <v>9174267</v>
+      </c>
+      <c r="G30" s="12">
+        <f>100%-F30/18900000</f>
+        <v>0.51458904761904756</v>
+      </c>
+      <c r="H30" s="13">
+        <f>18900000-F30</f>
+        <v>9725733</v>
       </c>
       <c r="I30" s="26">
-        <f t="shared" si="0"/>
-        <v>0.94907740361254767</v>
+        <f>E30/F30</f>
+        <v>0.90691561516576746</v>
       </c>
       <c r="J30" s="11"/>
-      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A31" s="23">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>A30+1</f>
+        <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>12</v>
@@ -2949,32 +2955,33 @@
       <c r="D31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="27">
-        <f>[17]Лист1!$E$37</f>
-        <v>8320286</v>
-      </c>
-      <c r="F31" s="27">
-        <f>[17]Лист1!$F$37</f>
-        <v>9174267</v>
-      </c>
-      <c r="G31" s="12">
-        <f>100%-F31/18900000</f>
-        <v>0.51458904761904756</v>
-      </c>
-      <c r="H31" s="13">
-        <f>18900000-F31</f>
-        <v>9725733</v>
+      <c r="E31" s="24">
+        <f>[16]Лист1!$E$31</f>
+        <v>8281833</v>
+      </c>
+      <c r="F31" s="24">
+        <f>[16]Лист1!$F$31</f>
+        <v>8683737</v>
+      </c>
+      <c r="G31" s="29">
+        <f>100%-F31/16800000</f>
+        <v>0.48311089285714282</v>
+      </c>
+      <c r="H31" s="30">
+        <f>16800000-F31</f>
+        <v>8116263</v>
       </c>
       <c r="I31" s="26">
-        <f t="shared" si="0"/>
-        <v>0.90691561516576746</v>
+        <f>E31/F31</f>
+        <v>0.95371762180268704</v>
       </c>
       <c r="J31" s="11"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A32" s="23">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>A31+1</f>
+        <v>27</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>42</v>
@@ -2986,11 +2993,11 @@
         <v>13</v>
       </c>
       <c r="E32" s="32">
-        <f>[18]Лист1!$E$30</f>
+        <f>[17]Лист1!$E$30</f>
         <v>6320916</v>
       </c>
       <c r="F32" s="27">
-        <f>[18]Лист1!$F$30</f>
+        <f>[17]Лист1!$F$30</f>
         <v>8887400</v>
       </c>
       <c r="G32" s="12">
@@ -3002,15 +3009,15 @@
         <v>7912600</v>
       </c>
       <c r="I32" s="26">
-        <f t="shared" si="0"/>
+        <f>E32/F32</f>
         <v>0.71122217971510227</v>
       </c>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A33" s="23">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f>A32+1</f>
+        <v>28</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>38</v>
@@ -3022,34 +3029,34 @@
         <v>13</v>
       </c>
       <c r="E33" s="32">
-        <f>[19]Лист1!$E$31</f>
-        <v>3585960</v>
+        <f>[18]Лист1!$E$31</f>
+        <v>4049370</v>
       </c>
       <c r="F33" s="27">
-        <f>[19]Лист1!$F$31</f>
-        <v>7428717</v>
+        <f>[18]Лист1!$F$31</f>
+        <v>7933811</v>
       </c>
       <c r="G33" s="12">
         <f>100%-F33/14000000</f>
-        <v>0.46937735714285711</v>
+        <v>0.43329921428571427</v>
       </c>
       <c r="H33" s="13">
         <f>14000000-F33</f>
-        <v>6571283</v>
+        <v>6066189</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" si="0"/>
-        <v>0.48271592523984963</v>
+        <f>E33/F33</f>
+        <v>0.51039405904678092</v>
       </c>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>A33+1</f>
+        <v>29</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>12</v>
@@ -3057,33 +3064,33 @@
       <c r="D34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="27">
-        <f>[20]Лист1!$E$26</f>
-        <v>9349492</v>
-      </c>
-      <c r="F34" s="27">
-        <f>[20]Лист1!$F$26</f>
-        <v>9834956</v>
-      </c>
-      <c r="G34" s="12">
-        <f>100%-F34/16800000</f>
-        <v>0.41458595238095242</v>
-      </c>
-      <c r="H34" s="13">
-        <f>16800000-F34</f>
-        <v>6965044</v>
+      <c r="E34" s="24">
+        <f>[19]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F34" s="24">
+        <f>[19]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G34" s="29">
+        <f>100%-F34/18200000</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H34" s="30">
+        <f>18200000-F34</f>
+        <v>5969558</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="0"/>
-        <v>0.95063892507500791</v>
+        <f>E34/F34</f>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A35" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f>A34+1</f>
+        <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>28</v>
@@ -3095,35 +3102,35 @@
         <v>13</v>
       </c>
       <c r="E35" s="32">
-        <f>[21]Лист1!$E$31</f>
-        <v>5383384</v>
+        <f>[20]Лист1!$E$31</f>
+        <v>6662284</v>
       </c>
       <c r="F35" s="27">
-        <f>[21]Лист1!$F$31</f>
-        <v>10048012</v>
+        <f>[20]Лист1!$F$31</f>
+        <v>11429652</v>
       </c>
       <c r="G35" s="12">
         <f>100%-F35/16800000</f>
-        <v>0.40190404761904763</v>
+        <v>0.31966357142857138</v>
       </c>
       <c r="H35" s="13">
         <f>16800000-F35</f>
-        <v>6751988</v>
+        <v>5370348</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="0"/>
-        <v>0.5357660798971976</v>
+        <f>E35/F35</f>
+        <v>0.58289473730258801</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A36" s="23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>A35+1</f>
+        <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>12</v>
@@ -3132,35 +3139,35 @@
         <v>13</v>
       </c>
       <c r="E36" s="24">
-        <f>[22]Лист1!$E$39</f>
-        <v>11248736</v>
+        <f>[21]Лист1!$E$31</f>
+        <v>11014310</v>
       </c>
       <c r="F36" s="24">
-        <f>[22]Лист1!$F$39</f>
-        <v>12230442</v>
+        <f>[21]Лист1!$F$31</f>
+        <v>12128977</v>
       </c>
       <c r="G36" s="29">
-        <f>100%-F36/18200000</f>
-        <v>0.32799769230769227</v>
+        <f>100%-F36/16800000</f>
+        <v>0.27803708333333332</v>
       </c>
       <c r="H36" s="30">
-        <f>18200000-F36</f>
-        <v>5969558</v>
+        <f>16800000-F36</f>
+        <v>4671023</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="0"/>
-        <v>0.91973258202769781</v>
+        <f>E36/F36</f>
+        <v>0.90809884460989576</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A37" s="23">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f>A36+1</f>
+        <v>32</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>12</v>
@@ -3168,36 +3175,36 @@
       <c r="D37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="24">
-        <f>[23]Лист1!$E$31</f>
-        <v>10674650</v>
-      </c>
-      <c r="F37" s="24">
-        <f>[23]Лист1!$F$31</f>
-        <v>11786574</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="E37" s="32">
+        <f>[22]Лист1!$E$31</f>
+        <v>4259304</v>
+      </c>
+      <c r="F37" s="27">
+        <f>[22]Лист1!$F$31</f>
+        <v>12624642</v>
+      </c>
+      <c r="G37" s="12">
         <f>100%-F37/16800000</f>
-        <v>0.29841821428571425</v>
-      </c>
-      <c r="H37" s="30">
+        <v>0.24853321428571429</v>
+      </c>
+      <c r="H37" s="13">
         <f>16800000-F37</f>
-        <v>5013426</v>
+        <v>4175358</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="0"/>
-        <v>0.90566181487512831</v>
+        <f>E37/F37</f>
+        <v>0.33738018076076931</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A38" s="23">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>A37+1</f>
+        <v>33</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
@@ -3205,36 +3212,36 @@
       <c r="D38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="32">
-        <f>[24]Лист1!$E$31</f>
-        <v>4259304</v>
-      </c>
-      <c r="F38" s="27">
-        <f>[24]Лист1!$F$31</f>
-        <v>12624642</v>
-      </c>
-      <c r="G38" s="12">
-        <f>100%-F38/16800000</f>
-        <v>0.24853321428571429</v>
-      </c>
-      <c r="H38" s="13">
-        <f>24000000-F38</f>
-        <v>11375358</v>
+      <c r="E38" s="28">
+        <f>[23]Лист1!$E$30</f>
+        <v>8640360</v>
+      </c>
+      <c r="F38" s="24">
+        <f>[23]Лист1!$F$30</f>
+        <v>16453303</v>
+      </c>
+      <c r="G38" s="29">
+        <f>100%-F38/19600000</f>
+        <v>0.16054576530612241</v>
+      </c>
+      <c r="H38" s="30">
+        <f>19600000-F38</f>
+        <v>3146697</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" si="0"/>
-        <v>0.33738018076076931</v>
+        <f>E38/F38</f>
+        <v>0.52514440413575314</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A39" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>A38+1</f>
+        <v>34</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
@@ -3243,35 +3250,35 @@
         <v>13</v>
       </c>
       <c r="E39" s="27">
-        <f>[25]Лист1!$E$30</f>
-        <v>13190994</v>
+        <f>[24]Лист1!$E$26</f>
+        <v>13706491</v>
       </c>
       <c r="F39" s="27">
-        <f>[25]Лист1!$F$30</f>
-        <v>16642877</v>
+        <f>[24]Лист1!$F$26</f>
+        <v>14354659</v>
       </c>
       <c r="G39" s="12">
-        <f>100%-F39/21000000</f>
-        <v>0.20748204761904765</v>
+        <f>100%-F39/16800000</f>
+        <v>0.14555601190476186</v>
       </c>
       <c r="H39" s="13">
-        <f>21000000-F39</f>
-        <v>4357123</v>
+        <f>16800000-F39</f>
+        <v>2445341</v>
       </c>
       <c r="I39" s="26">
-        <f t="shared" si="0"/>
-        <v>0.7925909684966127</v>
+        <f>E39/F39</f>
+        <v>0.95484615830999542</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="23">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>A39+1</f>
+        <v>35</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>12</v>
@@ -3279,28 +3286,28 @@
       <c r="D40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="28">
-        <f>[26]Лист1!$E$30</f>
-        <v>8640360</v>
-      </c>
-      <c r="F40" s="24">
-        <f>[26]Лист1!$F$30</f>
-        <v>16453303</v>
-      </c>
-      <c r="G40" s="25">
-        <f>100%-F40/19600000</f>
-        <v>0.16054576530612241</v>
-      </c>
-      <c r="H40" s="30">
-        <f>19600000-F40</f>
-        <v>3146697</v>
+      <c r="E40" s="27">
+        <f>[25]Лист1!$E$30</f>
+        <v>15701250</v>
+      </c>
+      <c r="F40" s="27">
+        <f>[25]Лист1!$F$30</f>
+        <v>19280552</v>
+      </c>
+      <c r="G40" s="19">
+        <f>100%-F40/21000000</f>
+        <v>8.1878476190476168E-2</v>
+      </c>
+      <c r="H40" s="13">
+        <f>21000000-F40</f>
+        <v>1719448</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="0"/>
-        <v>0.52514440413575314</v>
+        <f>E40/F40</f>
+        <v>0.81435687111032917</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K21">
@@ -3423,11 +3430,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[27]Лист1!$E$32</f>
+        <f>[26]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[27]Лист1!$F$32</f>
+        <f>[26]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -43,17 +43,18 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Выработка формокомплектов'!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>№п/п</t>
   </si>
@@ -220,14 +221,17 @@
     <t>"Байрон 0.7 л." XXI-В-30-4А-700</t>
   </si>
   <si>
-    <t>Таблица выработки формокомплектов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.01.2020 г.</t>
+    <t>«Калина 0,45» тип XХI-В-28-2-450-19</t>
+  </si>
+  <si>
+    <t>Таблица выработки формокомплек2ов, находящихся на ООО "Стеклозавод Ведатранзит" по состоянию на 01.02.2020 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -819,7 +823,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Детали ф-тов"/>
       <sheetName val="Паспорт"/>
       <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
@@ -835,22 +838,22 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="21">
           <cell r="A21">
-            <v>15400000</v>
+            <v>14000000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>468000</v>
+            <v>246960</v>
           </cell>
           <cell r="F32">
-            <v>521755</v>
+            <v>275256</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -862,7 +865,6 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -878,12 +880,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>1766331</v>
-          </cell>
-          <cell r="F33">
-            <v>1993309</v>
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
           </cell>
         </row>
       </sheetData>
@@ -904,12 +906,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>2923314</v>
-          </cell>
-          <cell r="F32">
-            <v>3073214</v>
+        <row r="33">
+          <cell r="E33">
+            <v>2880934</v>
+          </cell>
+          <cell r="F33">
+            <v>3213050</v>
           </cell>
         </row>
       </sheetData>
@@ -932,10 +934,10 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>1115136</v>
+            <v>2923314</v>
           </cell>
           <cell r="F32">
-            <v>3369696</v>
+            <v>3073214</v>
           </cell>
         </row>
       </sheetData>
@@ -947,6 +949,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1115136</v>
+          </cell>
+          <cell r="F32">
+            <v>3369696</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -992,7 +1020,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1008,32 +1036,6 @@
           </cell>
           <cell r="F30">
             <v>6692357</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1054,12 +1056,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>8281833</v>
-          </cell>
-          <cell r="F31">
-            <v>8683737</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1080,12 +1082,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>6320916</v>
-          </cell>
-          <cell r="F30">
-            <v>8887400</v>
+        <row r="31">
+          <cell r="E31">
+            <v>9915346</v>
+          </cell>
+          <cell r="F31">
+            <v>10369106</v>
           </cell>
         </row>
       </sheetData>
@@ -1106,12 +1108,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>4049370</v>
-          </cell>
-          <cell r="F31">
-            <v>7933811</v>
+        <row r="30">
+          <cell r="E30">
+            <v>6320916</v>
+          </cell>
+          <cell r="F30">
+            <v>8887400</v>
           </cell>
         </row>
       </sheetData>
@@ -1132,12 +1134,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4767570</v>
+          </cell>
+          <cell r="F31">
+            <v>8693057</v>
           </cell>
         </row>
       </sheetData>
@@ -1152,23 +1154,50 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>449036</v>
-          </cell>
-          <cell r="F31">
-            <v>524968</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="A21">
+            <v>15400000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>468000</v>
+          </cell>
+          <cell r="F32">
+            <v>521755</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1184,12 +1213,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>6662284</v>
-          </cell>
-          <cell r="F31">
-            <v>11429652</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1212,10 +1241,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>11014310</v>
+            <v>7344547</v>
           </cell>
           <cell r="F31">
-            <v>12128977</v>
+            <v>12176093</v>
           </cell>
         </row>
       </sheetData>
@@ -1238,10 +1267,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4259304</v>
+            <v>11014310</v>
           </cell>
           <cell r="F31">
-            <v>12624642</v>
+            <v>12128977</v>
           </cell>
         </row>
       </sheetData>
@@ -1262,12 +1291,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>8640360</v>
-          </cell>
-          <cell r="F30">
-            <v>16453303</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4780944</v>
+          </cell>
+          <cell r="F31">
+            <v>13180338</v>
           </cell>
         </row>
       </sheetData>
@@ -1288,12 +1317,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="E26">
-            <v>13706491</v>
-          </cell>
-          <cell r="F26">
-            <v>14354659</v>
+        <row r="30">
+          <cell r="E30">
+            <v>10173760</v>
+          </cell>
+          <cell r="F30">
+            <v>18138751</v>
           </cell>
         </row>
       </sheetData>
@@ -1314,12 +1343,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>15701250</v>
-          </cell>
-          <cell r="F30">
-            <v>19280552</v>
+        <row r="26">
+          <cell r="E26">
+            <v>17697766</v>
+          </cell>
+          <cell r="F26">
+            <v>18498950</v>
           </cell>
         </row>
       </sheetData>
@@ -1340,12 +1369,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="30">
+          <cell r="E30">
+            <v>15918082</v>
+          </cell>
+          <cell r="F30">
+            <v>19503919</v>
           </cell>
         </row>
       </sheetData>
@@ -1360,8 +1389,34 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>8848812</v>
+          </cell>
+          <cell r="F32">
+            <v>18119313</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -1375,22 +1430,22 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>14000000</v>
+            <v>16800000</v>
           </cell>
         </row>
         <row r="32">
           <cell r="E32">
-            <v>246960</v>
+            <v>895356</v>
           </cell>
           <cell r="F32">
-            <v>275256</v>
+            <v>942062</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1419,10 +1474,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>613088</v>
+            <v>449036</v>
           </cell>
           <cell r="F31">
-            <v>721402</v>
+            <v>524968</v>
           </cell>
         </row>
       </sheetData>
@@ -1437,43 +1492,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>497004</v>
+            <v>613088</v>
           </cell>
           <cell r="F31">
-            <v>650324</v>
+            <v>721402</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1499,17 +1534,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="21">
-          <cell r="A21">
-            <v>13300000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>491400</v>
-          </cell>
-          <cell r="F37">
-            <v>577433</v>
+        <row r="31">
+          <cell r="E31">
+            <v>1071084</v>
+          </cell>
+          <cell r="F31">
+            <v>1302257</v>
           </cell>
         </row>
       </sheetData>
@@ -1534,6 +1564,57 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>13300000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>491400</v>
+          </cell>
+          <cell r="F37">
+            <v>577433</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Лист1"/>
       <sheetName val="Лист2"/>
       <sheetName val="Лист3"/>
@@ -1556,7 +1637,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1604,7 +1685,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1650,32 +1731,6 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>803358</v>
-          </cell>
-          <cell r="F31">
-            <v>1444922</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1971,16 +2026,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="59.6640625" style="8" customWidth="1"/>
@@ -1995,9 +2050,9 @@
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2010,14 +2065,14 @@
       <c r="J1" s="49"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="13.8" thickBot="1">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="47"/>
       <c r="E2" s="48"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="66">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2103,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="51"/>
       <c r="C4" s="61"/>
@@ -2069,7 +2124,7 @@
       <c r="J4" s="46"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2096,7 +2151,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <f>A5+1</f>
         <v>2</v>
@@ -2127,7 +2182,7 @@
       <c r="J6" s="11"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <f>A6+1</f>
         <v>3</v>
@@ -2148,7 +2203,7 @@
       <c r="J7" s="11"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <f>A7+1</f>
         <v>4</v>
@@ -2159,19 +2214,19 @@
       <c r="C8" s="10"/>
       <c r="D8" s="15"/>
       <c r="E8" s="33">
-        <f>[27]Паспорт!$E$32</f>
+        <f>[1]Паспорт!$E$32</f>
         <v>246960</v>
       </c>
       <c r="F8" s="24">
-        <f>[27]Паспорт!$F$32</f>
+        <f>[1]Паспорт!$F$32</f>
         <v>275256</v>
       </c>
       <c r="G8" s="25">
-        <f>100%-F8/[27]Паспорт!$A$21</f>
+        <f>100%-F8/[1]Паспорт!$A$21</f>
         <v>0.98033885714285718</v>
       </c>
       <c r="H8" s="24">
-        <f>[27]Паспорт!$A$21-F8</f>
+        <f>[1]Паспорт!$A$21-F8</f>
         <v>13724744</v>
       </c>
       <c r="I8" s="26">
@@ -2181,7 +2236,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f>A8+1</f>
         <v>5</v>
@@ -2196,26 +2251,26 @@
         <v>13</v>
       </c>
       <c r="E9" s="33">
-        <f>[1]Паспорт!$E$32</f>
+        <f>[2]Паспорт!$E$32</f>
         <v>468000</v>
       </c>
       <c r="F9" s="24">
-        <f>[1]Паспорт!$F$32</f>
+        <f>[2]Паспорт!$F$32</f>
         <v>521755</v>
       </c>
       <c r="G9" s="25">
-        <f>100%-F9/[1]Паспорт!$A$21</f>
+        <f>100%-F9/[2]Паспорт!$A$21</f>
         <v>0.96611980519480523</v>
       </c>
       <c r="H9" s="24">
-        <f>[1]Паспорт!$A$21-F9</f>
+        <f>[2]Паспорт!$A$21-F9</f>
         <v>14878245</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f>A9+1</f>
         <v>6</v>
@@ -2226,11 +2281,11 @@
       <c r="C10" s="10"/>
       <c r="D10" s="15"/>
       <c r="E10" s="27">
-        <f>[2]Лист1!$E$31</f>
+        <f>[3]Лист1!$E$31</f>
         <v>449036</v>
       </c>
       <c r="F10" s="27">
-        <f>[2]Лист1!$F$31</f>
+        <f>[3]Лист1!$F$31</f>
         <v>524968</v>
       </c>
       <c r="G10" s="19">
@@ -2248,7 +2303,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f>A10+1</f>
         <v>7</v>
@@ -2283,7 +2338,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>A10+1</f>
         <v>7</v>
@@ -2294,11 +2349,11 @@
       <c r="C12" s="10"/>
       <c r="D12" s="15"/>
       <c r="E12" s="27">
-        <f>[3]Лист1!$E$31</f>
+        <f>[4]Лист1!$E$31</f>
         <v>613088</v>
       </c>
       <c r="F12" s="27">
-        <f>[3]Лист1!$F$31</f>
+        <f>[4]Лист1!$F$31</f>
         <v>721402</v>
       </c>
       <c r="G12" s="19">
@@ -2316,7 +2371,7 @@
       <c r="J12" s="11"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>A12+1</f>
         <v>8</v>
@@ -2351,77 +2406,80 @@
       <c r="J13" s="11"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="33">
-        <f>[4]Паспорт!$E$31</f>
-        <v>497004</v>
-      </c>
-      <c r="F14" s="24">
-        <f>[4]Паспорт!$F$31</f>
-        <v>650324</v>
-      </c>
-      <c r="G14" s="25">
-        <f>100%-F14/15400000</f>
-        <v>0.95777116883116886</v>
-      </c>
-      <c r="H14" s="24">
-        <f>15400000-F14</f>
-        <v>14749676</v>
-      </c>
-      <c r="I14" s="26">
+      <c r="B14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="37">
+        <f>[6]Паспорт!$E$37</f>
+        <v>491400</v>
+      </c>
+      <c r="F14" s="37">
+        <f>[6]Паспорт!$F$37</f>
+        <v>577433</v>
+      </c>
+      <c r="G14" s="38">
+        <f>100%-F14/[6]Паспорт!$A$21</f>
+        <v>0.95658398496240604</v>
+      </c>
+      <c r="H14" s="43">
+        <f>[6]Паспорт!$A$21-F14</f>
+        <v>12722567</v>
+      </c>
+      <c r="I14" s="39">
         <f>E14/F14</f>
-        <v>0.76424059391933863</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+        <v>0.85100782255257323</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f>A14+1</f>
         <v>10</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="37">
-        <f>[5]Паспорт!$E$37</f>
-        <v>491400</v>
-      </c>
-      <c r="F15" s="37">
-        <f>[5]Паспорт!$F$37</f>
-        <v>577433</v>
-      </c>
-      <c r="G15" s="38">
-        <f>100%-F15/[5]Паспорт!$A$21</f>
-        <v>0.95658398496240604</v>
-      </c>
-      <c r="H15" s="43">
-        <f>[5]Паспорт!$A$21-F15</f>
-        <v>12722567</v>
-      </c>
-      <c r="I15" s="39">
+      <c r="E15" s="27">
+        <f>[28]Паспорт!$E$32</f>
+        <v>895356</v>
+      </c>
+      <c r="F15" s="27">
+        <f>[28]Паспорт!$F$32</f>
+        <v>942062</v>
+      </c>
+      <c r="G15" s="19">
+        <f>100%-F15/[28]Паспорт!$A$21</f>
+        <v>0.94392488095238092</v>
+      </c>
+      <c r="H15" s="20">
+        <f>[28]Паспорт!$A$21-F15</f>
+        <v>15857938</v>
+      </c>
+      <c r="I15" s="26">
         <f>E15/F15</f>
-        <v>0.85100782255257323</v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+        <v>0.95042152215034681</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f>A15+1</f>
         <v>11</v>
@@ -2455,7 +2513,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>A16+1</f>
         <v>12</v>
@@ -2470,11 +2528,11 @@
         <v>13</v>
       </c>
       <c r="E17" s="27">
-        <f>[6]Лист1!$E$32</f>
+        <f>[7]Лист1!$E$32</f>
         <v>645420</v>
       </c>
       <c r="F17" s="27">
-        <f>[6]Лист1!$F$32</f>
+        <f>[7]Лист1!$F$32</f>
         <v>851238</v>
       </c>
       <c r="G17" s="12">
@@ -2491,7 +2549,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f>A17+1</f>
         <v>13</v>
@@ -2502,11 +2560,11 @@
       <c r="C18" s="10"/>
       <c r="D18" s="15"/>
       <c r="E18" s="33">
-        <f>[7]Паспорт!$E$32</f>
+        <f>[8]Паспорт!$E$32</f>
         <v>948096</v>
       </c>
       <c r="F18" s="24">
-        <f>[7]Паспорт!$F$32</f>
+        <f>[8]Паспорт!$F$32</f>
         <v>1031915</v>
       </c>
       <c r="G18" s="29">
@@ -2524,7 +2582,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>A18+1</f>
         <v>14</v>
@@ -2539,19 +2597,19 @@
         <v>53</v>
       </c>
       <c r="E19" s="34">
-        <f>[8]Паспорт!$E$32</f>
+        <f>[9]Паспорт!$E$32</f>
         <v>1048620</v>
       </c>
       <c r="F19" s="34">
-        <f>[8]Паспорт!$F$32</f>
+        <f>[9]Паспорт!$F$32</f>
         <v>1152478</v>
       </c>
       <c r="G19" s="44">
-        <f>100%-F19/[8]Паспорт!$A$21</f>
+        <f>100%-F19/[9]Паспорт!$A$21</f>
         <v>0.92516376623376617</v>
       </c>
       <c r="H19" s="34">
-        <f>[8]Паспорт!$A$21-F19</f>
+        <f>[9]Паспорт!$A$21-F19</f>
         <v>14247522</v>
       </c>
       <c r="I19" s="39">
@@ -2561,157 +2619,152 @@
       <c r="J19" s="40"/>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>A19+1</f>
         <v>15</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="28">
-        <f>[9]Лист1!$E$31</f>
-        <v>803358</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="33">
+        <f>[5]Паспорт!$E$31</f>
+        <v>1071084</v>
       </c>
       <c r="F20" s="24">
-        <f>[9]Лист1!$F$31</f>
-        <v>1444922</v>
+        <f>[5]Паспорт!$F$31</f>
+        <v>1302257</v>
       </c>
       <c r="G20" s="29">
-        <f>100%-F20/16800000</f>
-        <v>0.91399273809523807</v>
+        <f>100%-F20/15400000</f>
+        <v>0.91543785714285719</v>
       </c>
       <c r="H20" s="30">
-        <f>12600000-F20</f>
-        <v>11155078</v>
+        <f>15400000-F20</f>
+        <v>14097743</v>
       </c>
       <c r="I20" s="26">
         <f>E20/F20</f>
-        <v>0.55598710518630068</v>
+        <v>0.82248281253239564</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>A20+1</f>
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="33">
-        <f>[10]Лист1!$E$33</f>
-        <v>1766331</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="28">
+        <f>[10]Лист1!$E$31</f>
+        <v>803358</v>
       </c>
       <c r="F21" s="24">
-        <f>[10]Лист1!$F$33</f>
-        <v>1993309</v>
+        <f>[10]Лист1!$F$31</f>
+        <v>1444922</v>
       </c>
       <c r="G21" s="29">
         <f>100%-F21/16800000</f>
-        <v>0.88135065476190477</v>
+        <v>0.91399273809523807</v>
       </c>
       <c r="H21" s="30">
-        <f>16800000-F21</f>
-        <v>14806691</v>
+        <f>12600000-F21</f>
+        <v>11155078</v>
       </c>
       <c r="I21" s="26">
         <f>E21/F21</f>
-        <v>0.88613004807583773</v>
+        <v>0.55598710518630068</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>A21+1</f>
         <v>17</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="27">
-        <f>[11]Лист1!$E$32</f>
-        <v>2923314</v>
-      </c>
-      <c r="F22" s="27">
-        <f>[11]Лист1!$F$32</f>
-        <v>3073214</v>
-      </c>
-      <c r="G22" s="12">
-        <f>100%-F22/15400000</f>
-        <v>0.80044064935064929</v>
-      </c>
-      <c r="H22" s="13">
-        <f>12600000-F22</f>
-        <v>9526786</v>
+        <v>49</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="33">
+        <f>[11]Лист1!$E$33</f>
+        <v>2880934</v>
+      </c>
+      <c r="F22" s="24">
+        <f>[11]Лист1!$F$33</f>
+        <v>3213050</v>
+      </c>
+      <c r="G22" s="29">
+        <f>100%-F22/16800000</f>
+        <v>0.80874702380952379</v>
+      </c>
+      <c r="H22" s="30">
+        <f>16800000-F22</f>
+        <v>13586950</v>
       </c>
       <c r="I22" s="26">
         <f>E22/F22</f>
-        <v>0.95122370261231404</v>
+        <v>0.89663528423149341</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f>A22+1</f>
         <v>18</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="28">
+        <v>15</v>
+      </c>
+      <c r="E23" s="27">
         <f>[12]Лист1!$E$32</f>
-        <v>1115136</v>
-      </c>
-      <c r="F23" s="24">
+        <v>2923314</v>
+      </c>
+      <c r="F23" s="27">
         <f>[12]Лист1!$F$32</f>
-        <v>3369696</v>
-      </c>
-      <c r="G23" s="29">
-        <f>100%-F23/16800000</f>
-        <v>0.7994228571428571</v>
-      </c>
-      <c r="H23" s="30">
-        <f>16800000-F23</f>
-        <v>13430304</v>
+        <v>3073214</v>
+      </c>
+      <c r="G23" s="12">
+        <f>100%-F23/15400000</f>
+        <v>0.80044064935064929</v>
+      </c>
+      <c r="H23" s="13">
+        <f>12600000-F23</f>
+        <v>9526786</v>
       </c>
       <c r="I23" s="26">
         <f>E23/F23</f>
-        <v>0.33093074271388279</v>
+        <v>0.95122370261231404</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>A23+1</f>
         <v>19</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>12</v>
@@ -2719,31 +2772,36 @@
       <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
-        <v>3080000</v>
-      </c>
-      <c r="G24" s="12">
-        <f>100%-F24/14000000</f>
-        <v>0.78</v>
-      </c>
-      <c r="H24" s="13">
-        <f>14000000-F24</f>
-        <v>10920000</v>
+      <c r="E24" s="28">
+        <f>[13]Лист1!$E$32</f>
+        <v>1115136</v>
+      </c>
+      <c r="F24" s="24">
+        <f>[13]Лист1!$F$32</f>
+        <v>3369696</v>
+      </c>
+      <c r="G24" s="29">
+        <f>100%-F24/16800000</f>
+        <v>0.7994228571428571</v>
+      </c>
+      <c r="H24" s="30">
+        <f>16800000-F24</f>
+        <v>13430304</v>
       </c>
       <c r="I24" s="26">
         <f>E24/F24</f>
-        <v>0</v>
+        <v>0.33093074271388279</v>
       </c>
       <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>A24+1</f>
         <v>20</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>12</v>
@@ -2751,17 +2809,17 @@
       <c r="D25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24">
-        <v>4055359</v>
-      </c>
-      <c r="G25" s="29">
-        <f>100%-F25/16800000</f>
-        <v>0.75860958333333328</v>
-      </c>
-      <c r="H25" s="30">
-        <f>18900000-F25</f>
-        <v>14844641</v>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
+        <v>3080000</v>
+      </c>
+      <c r="G25" s="12">
+        <f>100%-F25/14000000</f>
+        <v>0.78</v>
+      </c>
+      <c r="H25" s="13">
+        <f>14000000-F25</f>
+        <v>10920000</v>
       </c>
       <c r="I25" s="26">
         <f>E25/F25</f>
@@ -2769,78 +2827,78 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>A25+1</f>
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="33">
-        <f>[13]Паспорт!$E$32</f>
-        <v>4103201</v>
-      </c>
-      <c r="F26" s="33">
-        <f>[13]Паспорт!$F$32</f>
-        <v>4449033</v>
-      </c>
-      <c r="G26" s="31">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
+        <v>4055359</v>
+      </c>
+      <c r="G26" s="29">
         <f>100%-F26/16800000</f>
-        <v>0.73517660714285715</v>
+        <v>0.75860958333333328</v>
       </c>
       <c r="H26" s="30">
-        <f>16800000-F26</f>
-        <v>12350967</v>
+        <f>18900000-F26</f>
+        <v>14844641</v>
       </c>
       <c r="I26" s="26">
         <f>E26/F26</f>
-        <v>0.92226805240599474</v>
+        <v>0</v>
       </c>
       <c r="J26" s="11"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>A26+1</f>
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27">
-        <v>5511547</v>
-      </c>
-      <c r="G27" s="12">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="33">
+        <f>[14]Паспорт!$E$32</f>
+        <v>4103201</v>
+      </c>
+      <c r="F27" s="33">
+        <f>[14]Паспорт!$F$32</f>
+        <v>4449033</v>
+      </c>
+      <c r="G27" s="31">
         <f>100%-F27/16800000</f>
-        <v>0.67193172619047625</v>
-      </c>
-      <c r="H27" s="13">
-        <f>12000000-F27</f>
-        <v>6488453</v>
+        <v>0.73517660714285715</v>
+      </c>
+      <c r="H27" s="30">
+        <f>16800000-F27</f>
+        <v>12350967</v>
       </c>
       <c r="I27" s="26">
         <f>E27/F27</f>
-        <v>0</v>
+        <v>0.92226805240599474</v>
       </c>
       <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f>A27+1</f>
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>12</v>
@@ -2848,34 +2906,31 @@
       <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="28">
-        <v>2131080</v>
-      </c>
-      <c r="F28" s="24">
-        <v>5638494</v>
-      </c>
-      <c r="G28" s="31">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
+        <v>5511547</v>
+      </c>
+      <c r="G28" s="12">
         <f>100%-F28/16800000</f>
-        <v>0.66437535714285723</v>
-      </c>
-      <c r="H28" s="30">
-        <f>16800000-F28</f>
-        <v>11161506</v>
+        <v>0.67193172619047625</v>
+      </c>
+      <c r="H28" s="13">
+        <f>12000000-F28</f>
+        <v>6488453</v>
       </c>
       <c r="I28" s="26">
         <f>E28/F28</f>
-        <v>0.37795198505132754</v>
+        <v>0</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    </row>
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f>A28+1</f>
         <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>12</v>
@@ -2883,35 +2938,34 @@
       <c r="D29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="27">
-        <f>[14]Лист1!$E$30</f>
-        <v>6255857</v>
-      </c>
-      <c r="F29" s="27">
-        <f>[14]Лист1!$F$30</f>
-        <v>6692357</v>
-      </c>
-      <c r="G29" s="12">
-        <f>100%-F29/18900000</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="H29" s="13">
-        <f>18900000-F29</f>
-        <v>12207643</v>
+      <c r="E29" s="28">
+        <v>2131080</v>
+      </c>
+      <c r="F29" s="24">
+        <v>5638494</v>
+      </c>
+      <c r="G29" s="31">
+        <f>100%-F29/16800000</f>
+        <v>0.66437535714285723</v>
+      </c>
+      <c r="H29" s="30">
+        <f>16800000-F29</f>
+        <v>11161506</v>
       </c>
       <c r="I29" s="26">
         <f>E29/F29</f>
-        <v>0.93477634262487785</v>
+        <v>0.37795198505132754</v>
       </c>
       <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>A29+1</f>
         <v>25</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>12</v>
@@ -2920,34 +2974,34 @@
         <v>13</v>
       </c>
       <c r="E30" s="27">
-        <f>[15]Лист1!$E$37</f>
-        <v>8320286</v>
+        <f>[15]Лист1!$E$30</f>
+        <v>6255857</v>
       </c>
       <c r="F30" s="27">
-        <f>[15]Лист1!$F$37</f>
-        <v>9174267</v>
+        <f>[15]Лист1!$F$30</f>
+        <v>6692357</v>
       </c>
       <c r="G30" s="12">
         <f>100%-F30/18900000</f>
-        <v>0.51458904761904756</v>
+        <v>0.645907037037037</v>
       </c>
       <c r="H30" s="13">
         <f>18900000-F30</f>
-        <v>9725733</v>
+        <v>12207643</v>
       </c>
       <c r="I30" s="26">
         <f>E30/F30</f>
-        <v>0.90691561516576746</v>
+        <v>0.93477634262487785</v>
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>A30+1</f>
         <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>12</v>
@@ -2955,30 +3009,29 @@
       <c r="D31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="24">
-        <f>[16]Лист1!$E$31</f>
-        <v>8281833</v>
-      </c>
-      <c r="F31" s="24">
-        <f>[16]Лист1!$F$31</f>
-        <v>8683737</v>
-      </c>
-      <c r="G31" s="29">
-        <f>100%-F31/16800000</f>
-        <v>0.48311089285714282</v>
-      </c>
-      <c r="H31" s="30">
-        <f>16800000-F31</f>
-        <v>8116263</v>
+      <c r="E31" s="27">
+        <f>[16]Лист1!$E$37</f>
+        <v>8320286</v>
+      </c>
+      <c r="F31" s="27">
+        <f>[16]Лист1!$F$37</f>
+        <v>9174267</v>
+      </c>
+      <c r="G31" s="12">
+        <f>100%-F31/18900000</f>
+        <v>0.51458904761904756</v>
+      </c>
+      <c r="H31" s="13">
+        <f>18900000-F31</f>
+        <v>9725733</v>
       </c>
       <c r="I31" s="26">
         <f>E31/F31</f>
-        <v>0.95371762180268704</v>
+        <v>0.90691561516576746</v>
       </c>
       <c r="J31" s="11"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    </row>
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>A31+1</f>
         <v>27</v>
@@ -2993,11 +3046,11 @@
         <v>13</v>
       </c>
       <c r="E32" s="32">
-        <f>[17]Лист1!$E$30</f>
+        <f>[18]Лист1!$E$30</f>
         <v>6320916</v>
       </c>
       <c r="F32" s="27">
-        <f>[17]Лист1!$F$30</f>
+        <f>[18]Лист1!$F$30</f>
         <v>8887400</v>
       </c>
       <c r="G32" s="12">
@@ -3014,13 +3067,13 @@
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>A32+1</f>
         <v>28</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>12</v>
@@ -3028,35 +3081,36 @@
       <c r="D33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="32">
-        <f>[18]Лист1!$E$31</f>
-        <v>4049370</v>
-      </c>
-      <c r="F33" s="27">
-        <f>[18]Лист1!$F$31</f>
-        <v>7933811</v>
-      </c>
-      <c r="G33" s="12">
-        <f>100%-F33/14000000</f>
-        <v>0.43329921428571427</v>
-      </c>
-      <c r="H33" s="13">
-        <f>14000000-F33</f>
-        <v>6066189</v>
+      <c r="E33" s="24">
+        <f>[17]Лист1!$E$31</f>
+        <v>9915346</v>
+      </c>
+      <c r="F33" s="24">
+        <f>[17]Лист1!$F$31</f>
+        <v>10369106</v>
+      </c>
+      <c r="G33" s="29">
+        <f>100%-F33/16800000</f>
+        <v>0.38279130952380958</v>
+      </c>
+      <c r="H33" s="30">
+        <f>16800000-F33</f>
+        <v>6430894</v>
       </c>
       <c r="I33" s="26">
         <f>E33/F33</f>
-        <v>0.51039405904678092</v>
+        <v>0.95623923605371575</v>
       </c>
       <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>A33+1</f>
         <v>29</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>12</v>
@@ -3064,36 +3118,36 @@
       <c r="D34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="24">
-        <f>[19]Лист1!$E$39</f>
-        <v>11248736</v>
-      </c>
-      <c r="F34" s="24">
-        <f>[19]Лист1!$F$39</f>
-        <v>12230442</v>
-      </c>
-      <c r="G34" s="29">
-        <f>100%-F34/18200000</f>
-        <v>0.32799769230769227</v>
-      </c>
-      <c r="H34" s="30">
-        <f>18200000-F34</f>
-        <v>5969558</v>
+      <c r="E34" s="32">
+        <f>[19]Лист1!$E$31</f>
+        <v>4767570</v>
+      </c>
+      <c r="F34" s="27">
+        <f>[19]Лист1!$F$31</f>
+        <v>8693057</v>
+      </c>
+      <c r="G34" s="12">
+        <f>100%-F34/14000000</f>
+        <v>0.37906735714285711</v>
+      </c>
+      <c r="H34" s="13">
+        <f>14000000-F34</f>
+        <v>5306943</v>
       </c>
       <c r="I34" s="26">
         <f>E34/F34</f>
-        <v>0.91973258202769781</v>
+        <v>0.54843422745301218</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>A34+1</f>
         <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>12</v>
@@ -3101,30 +3155,30 @@
       <c r="D35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="32">
-        <f>[20]Лист1!$E$31</f>
-        <v>6662284</v>
-      </c>
-      <c r="F35" s="27">
-        <f>[20]Лист1!$F$31</f>
-        <v>11429652</v>
-      </c>
-      <c r="G35" s="12">
-        <f>100%-F35/16800000</f>
-        <v>0.31966357142857138</v>
-      </c>
-      <c r="H35" s="13">
-        <f>16800000-F35</f>
-        <v>5370348</v>
+      <c r="E35" s="24">
+        <f>[20]Лист1!$E$39</f>
+        <v>11248736</v>
+      </c>
+      <c r="F35" s="24">
+        <f>[20]Лист1!$F$39</f>
+        <v>12230442</v>
+      </c>
+      <c r="G35" s="29">
+        <f>100%-F35/18200000</f>
+        <v>0.32799769230769227</v>
+      </c>
+      <c r="H35" s="30">
+        <f>18200000-F35</f>
+        <v>5969558</v>
       </c>
       <c r="I35" s="26">
         <f>E35/F35</f>
-        <v>0.58289473730258801</v>
+        <v>0.91973258202769781</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f>A35+1</f>
         <v>31</v>
@@ -3139,11 +3193,11 @@
         <v>13</v>
       </c>
       <c r="E36" s="24">
-        <f>[21]Лист1!$E$31</f>
+        <f>[22]Лист1!$E$31</f>
         <v>11014310</v>
       </c>
       <c r="F36" s="24">
-        <f>[21]Лист1!$F$31</f>
+        <f>[22]Лист1!$F$31</f>
         <v>12128977</v>
       </c>
       <c r="G36" s="29">
@@ -3161,13 +3215,13 @@
       <c r="J36" s="11"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="37" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>A36+1</f>
         <v>32</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>12</v>
@@ -3176,35 +3230,35 @@
         <v>13</v>
       </c>
       <c r="E37" s="32">
-        <f>[22]Лист1!$E$31</f>
-        <v>4259304</v>
+        <f>[21]Лист1!$E$31</f>
+        <v>7344547</v>
       </c>
       <c r="F37" s="27">
-        <f>[22]Лист1!$F$31</f>
-        <v>12624642</v>
+        <f>[21]Лист1!$F$31</f>
+        <v>12176093</v>
       </c>
       <c r="G37" s="12">
         <f>100%-F37/16800000</f>
-        <v>0.24853321428571429</v>
+        <v>0.27523255952380954</v>
       </c>
       <c r="H37" s="13">
         <f>16800000-F37</f>
-        <v>4175358</v>
+        <v>4623907</v>
       </c>
       <c r="I37" s="26">
         <f>E37/F37</f>
-        <v>0.33738018076076931</v>
+        <v>0.60319406233181694</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>A37+1</f>
         <v>33</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
@@ -3212,36 +3266,36 @@
       <c r="D38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="28">
-        <f>[23]Лист1!$E$30</f>
-        <v>8640360</v>
-      </c>
-      <c r="F38" s="24">
-        <f>[23]Лист1!$F$30</f>
-        <v>16453303</v>
-      </c>
-      <c r="G38" s="29">
-        <f>100%-F38/19600000</f>
-        <v>0.16054576530612241</v>
-      </c>
-      <c r="H38" s="30">
-        <f>19600000-F38</f>
-        <v>3146697</v>
+      <c r="E38" s="32">
+        <f>[23]Лист1!$E$31</f>
+        <v>4780944</v>
+      </c>
+      <c r="F38" s="27">
+        <f>[23]Лист1!$F$31</f>
+        <v>13180338</v>
+      </c>
+      <c r="G38" s="12">
+        <f>100%-F38/16800000</f>
+        <v>0.21545607142857148</v>
+      </c>
+      <c r="H38" s="13">
+        <f>16800000-F38</f>
+        <v>3619662</v>
       </c>
       <c r="I38" s="26">
         <f>E38/F38</f>
-        <v>0.52514440413575314</v>
+        <v>0.36273303461565248</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>A38+1</f>
         <v>34</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>12</v>
@@ -3249,30 +3303,30 @@
       <c r="D39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="27">
-        <f>[24]Лист1!$E$26</f>
-        <v>13706491</v>
-      </c>
-      <c r="F39" s="27">
-        <f>[24]Лист1!$F$26</f>
-        <v>14354659</v>
-      </c>
-      <c r="G39" s="12">
-        <f>100%-F39/16800000</f>
-        <v>0.14555601190476186</v>
-      </c>
-      <c r="H39" s="13">
-        <f>16800000-F39</f>
-        <v>2445341</v>
+      <c r="E39" s="28">
+        <f>[24]Лист1!$E$30</f>
+        <v>10173760</v>
+      </c>
+      <c r="F39" s="24">
+        <f>[24]Лист1!$F$30</f>
+        <v>18138751</v>
+      </c>
+      <c r="G39" s="29">
+        <f>100%-F39/19600000</f>
+        <v>7.4553520408163321E-2</v>
+      </c>
+      <c r="H39" s="30">
+        <f>19600000-F39</f>
+        <v>1461249</v>
       </c>
       <c r="I39" s="26">
         <f>E39/F39</f>
-        <v>0.95484615830999542</v>
+        <v>0.56088536636287689</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>A39+1</f>
         <v>35</v>
@@ -3287,32 +3341,69 @@
         <v>13</v>
       </c>
       <c r="E40" s="27">
-        <f>[25]Лист1!$E$30</f>
-        <v>15701250</v>
+        <f>[26]Лист1!$E$30</f>
+        <v>15918082</v>
       </c>
       <c r="F40" s="27">
-        <f>[25]Лист1!$F$30</f>
-        <v>19280552</v>
-      </c>
-      <c r="G40" s="19">
+        <f>[26]Лист1!$F$30</f>
+        <v>19503919</v>
+      </c>
+      <c r="G40" s="12">
         <f>100%-F40/21000000</f>
-        <v>8.1878476190476168E-2</v>
+        <v>7.1241952380952434E-2</v>
       </c>
       <c r="H40" s="13">
         <f>21000000-F40</f>
-        <v>1719448</v>
+        <v>1496081</v>
       </c>
       <c r="I40" s="26">
         <f>E40/F40</f>
-        <v>0.81435687111032917</v>
+        <v>0.81614787264036526</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <f>A40+1</f>
+        <v>36</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="27">
+        <f>[25]Лист1!$E$26</f>
+        <v>17697766</v>
+      </c>
+      <c r="F41" s="27">
+        <f>[25]Лист1!$F$26</f>
+        <v>18498950</v>
+      </c>
+      <c r="G41" s="19">
+        <f>100%-F41/16800000</f>
+        <v>-0.1011279761904762</v>
+      </c>
+      <c r="H41" s="13">
+        <f>16800000-F41</f>
+        <v>-1698950</v>
+      </c>
+      <c r="I41" s="26">
+        <f>E41/F41</f>
+        <v>0.95669029863857136</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K21">
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A6:K40">
+    <sortState ref="A6:K41">
       <sortCondition descending="1" ref="G3:G21"/>
     </sortState>
   </autoFilter>
@@ -3343,7 +3434,7 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="66.21875" customWidth="1"/>
@@ -3359,7 +3450,7 @@
     <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1">
+    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3484,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="13.8" thickBot="1">
+    <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="51"/>
       <c r="C2" s="61"/>
@@ -3415,7 +3506,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="30.6">
+    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3430,11 +3521,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[26]Лист1!$E$32</f>
+        <f>[27]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[26]Лист1!$F$32</f>
+        <f>[27]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -874,23 +874,43 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>803358</v>
+            <v>1071084</v>
           </cell>
           <cell r="F31">
-            <v>1444922</v>
+            <v>1302257</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -906,12 +926,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="33">
-          <cell r="E33">
-            <v>2880934</v>
-          </cell>
-          <cell r="F33">
-            <v>3213050</v>
+        <row r="31">
+          <cell r="E31">
+            <v>803358</v>
+          </cell>
+          <cell r="F31">
+            <v>1444922</v>
           </cell>
         </row>
       </sheetData>
@@ -932,12 +952,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>2923314</v>
-          </cell>
-          <cell r="F32">
-            <v>3073214</v>
+        <row r="33">
+          <cell r="E33">
+            <v>2880934</v>
+          </cell>
+          <cell r="F33">
+            <v>3213050</v>
           </cell>
         </row>
       </sheetData>
@@ -960,10 +980,10 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>1115136</v>
+            <v>2923314</v>
           </cell>
           <cell r="F32">
-            <v>3369696</v>
+            <v>3073214</v>
           </cell>
         </row>
       </sheetData>
@@ -975,6 +995,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="E32">
+            <v>1115136</v>
+          </cell>
+          <cell r="F32">
+            <v>3369696</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1020,7 +1066,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1036,32 +1082,6 @@
           </cell>
           <cell r="F30">
             <v>6692357</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="37">
-          <cell r="E37">
-            <v>8320286</v>
-          </cell>
-          <cell r="F37">
-            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1082,12 +1102,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>9915346</v>
-          </cell>
-          <cell r="F31">
-            <v>10369106</v>
+        <row r="37">
+          <cell r="E37">
+            <v>8320286</v>
+          </cell>
+          <cell r="F37">
+            <v>9174267</v>
           </cell>
         </row>
       </sheetData>
@@ -1136,10 +1156,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4767570</v>
+            <v>9915346</v>
           </cell>
           <cell r="F31">
-            <v>8693057</v>
+            <v>10369106</v>
           </cell>
         </row>
       </sheetData>
@@ -1213,12 +1233,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="39">
-          <cell r="E39">
-            <v>11248736</v>
-          </cell>
-          <cell r="F39">
-            <v>12230442</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4767570</v>
+          </cell>
+          <cell r="F31">
+            <v>8693057</v>
           </cell>
         </row>
       </sheetData>
@@ -1239,12 +1259,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>7344547</v>
-          </cell>
-          <cell r="F31">
-            <v>12176093</v>
+        <row r="39">
+          <cell r="E39">
+            <v>11248736</v>
+          </cell>
+          <cell r="F39">
+            <v>12230442</v>
           </cell>
         </row>
       </sheetData>
@@ -1293,10 +1313,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4780944</v>
+            <v>7344547</v>
           </cell>
           <cell r="F31">
-            <v>13180338</v>
+            <v>12176093</v>
           </cell>
         </row>
       </sheetData>
@@ -1317,12 +1337,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="30">
-          <cell r="E30">
-            <v>10173760</v>
-          </cell>
-          <cell r="F30">
-            <v>18138751</v>
+        <row r="31">
+          <cell r="E31">
+            <v>4780944</v>
+          </cell>
+          <cell r="F31">
+            <v>13180338</v>
           </cell>
         </row>
       </sheetData>
@@ -1343,12 +1363,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="26">
-          <cell r="E26">
-            <v>17697766</v>
-          </cell>
-          <cell r="F26">
-            <v>18498950</v>
+        <row r="30">
+          <cell r="E30">
+            <v>10173760</v>
+          </cell>
+          <cell r="F30">
+            <v>18138751</v>
           </cell>
         </row>
       </sheetData>
@@ -1395,12 +1415,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="32">
-          <cell r="E32">
-            <v>8848812</v>
-          </cell>
-          <cell r="F32">
-            <v>18119313</v>
+        <row r="26">
+          <cell r="E26">
+            <v>17697766</v>
+          </cell>
+          <cell r="F26">
+            <v>18498950</v>
           </cell>
         </row>
       </sheetData>
@@ -1415,48 +1435,23 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Паспорт"/>
-      <sheetName val="Акт приемки"/>
-      <sheetName val="Чист. форма"/>
-      <sheetName val="Чист.  поддон"/>
-      <sheetName val="Черн. форма"/>
-      <sheetName val="Черн. поддон"/>
-      <sheetName val="Горл. кольцо"/>
-      <sheetName val="Финиш. кольцо"/>
-      <sheetName val="Плунжер"/>
-      <sheetName val="Втулка"/>
-      <sheetName val="Дут. головка"/>
-      <sheetName val="Воронка"/>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="A21">
-            <v>16800000</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>895356</v>
+            <v>8848812</v>
           </cell>
           <cell r="F32">
-            <v>942062</v>
+            <v>18119313</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1534,12 +1529,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>1071084</v>
-          </cell>
-          <cell r="F31">
-            <v>1302257</v>
+        <row r="21">
+          <cell r="A21">
+            <v>13300000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>491400</v>
+          </cell>
+          <cell r="F37">
+            <v>577433</v>
           </cell>
         </row>
       </sheetData>
@@ -1564,8 +1564,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -1579,22 +1579,22 @@
       <sheetName val="Воронка"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="21">
           <cell r="A21">
-            <v>13300000</v>
+            <v>16800000</v>
           </cell>
         </row>
-        <row r="37">
-          <cell r="E37">
-            <v>491400</v>
-          </cell>
-          <cell r="F37">
-            <v>577433</v>
+        <row r="32">
+          <cell r="E32">
+            <v>895356</v>
+          </cell>
+          <cell r="F32">
+            <v>942062</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2029,13 +2029,13 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="59.6640625" style="8" customWidth="1"/>
@@ -2050,7 +2050,7 @@
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1">
       <c r="A1" s="49" t="s">
         <v>56</v>
       </c>
@@ -2065,14 +2065,14 @@
       <c r="J1" s="49"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1">
       <c r="D2" s="47"/>
       <c r="E2" s="48"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="66">
       <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" thickBot="1">
       <c r="A4" s="53"/>
       <c r="B4" s="51"/>
       <c r="C4" s="61"/>
@@ -2124,7 +2124,7 @@
       <c r="J4" s="46"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2151,9 +2151,9 @@
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="23">
-        <f>A5+1</f>
+        <f t="shared" ref="A6:A11" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2182,9 +2182,9 @@
       <c r="J6" s="11"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="23">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -2203,9 +2203,9 @@
       <c r="J7" s="11"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="23">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2236,9 +2236,9 @@
       <c r="J8" s="11"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="23">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2270,9 +2270,9 @@
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="23">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2297,15 +2297,15 @@
         <v>14875032</v>
       </c>
       <c r="I10" s="26">
-        <f>E10/F10</f>
+        <f t="shared" ref="I10:I41" si="1">E10/F10</f>
         <v>0.85535880282226728</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="23">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2332,13 +2332,13 @@
         <v>11931542</v>
       </c>
       <c r="I11" s="26">
-        <f>E11/F11</f>
+        <f t="shared" si="1"/>
         <v>0.83454158675638557</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="23">
         <f>A10+1</f>
         <v>7</v>
@@ -2365,15 +2365,15 @@
         <v>18178598</v>
       </c>
       <c r="I12" s="26">
-        <f>E12/F12</f>
+        <f t="shared" si="1"/>
         <v>0.84985625213126659</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="23">
-        <f>A12+1</f>
+        <f t="shared" ref="A13:A41" si="2">A12+1</f>
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2400,15 +2400,15 @@
         <v>11929792</v>
       </c>
       <c r="I13" s="26">
-        <f>E13/F13</f>
+        <f t="shared" si="1"/>
         <v>0.76890756302521013</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="23">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -2421,31 +2421,31 @@
         <v>13</v>
       </c>
       <c r="E14" s="37">
-        <f>[6]Паспорт!$E$37</f>
+        <f>[5]Паспорт!$E$37</f>
         <v>491400</v>
       </c>
       <c r="F14" s="37">
-        <f>[6]Паспорт!$F$37</f>
+        <f>[5]Паспорт!$F$37</f>
         <v>577433</v>
       </c>
       <c r="G14" s="38">
-        <f>100%-F14/[6]Паспорт!$A$21</f>
+        <f>100%-F14/[5]Паспорт!$A$21</f>
         <v>0.95658398496240604</v>
       </c>
       <c r="H14" s="43">
-        <f>[6]Паспорт!$A$21-F14</f>
+        <f>[5]Паспорт!$A$21-F14</f>
         <v>12722567</v>
       </c>
       <c r="I14" s="39">
-        <f>E14/F14</f>
+        <f t="shared" si="1"/>
         <v>0.85100782255257323</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A15" s="23">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2458,30 +2458,30 @@
         <v>13</v>
       </c>
       <c r="E15" s="27">
-        <f>[28]Паспорт!$E$32</f>
+        <f>[6]Паспорт!$E$32</f>
         <v>895356</v>
       </c>
       <c r="F15" s="27">
-        <f>[28]Паспорт!$F$32</f>
+        <f>[6]Паспорт!$F$32</f>
         <v>942062</v>
       </c>
       <c r="G15" s="19">
-        <f>100%-F15/[28]Паспорт!$A$21</f>
+        <f>100%-F15/[6]Паспорт!$A$21</f>
         <v>0.94392488095238092</v>
       </c>
       <c r="H15" s="20">
-        <f>[28]Паспорт!$A$21-F15</f>
+        <f>[6]Паспорт!$A$21-F15</f>
         <v>15857938</v>
       </c>
       <c r="I15" s="26">
-        <f>E15/F15</f>
+        <f t="shared" si="1"/>
         <v>0.95042152215034681</v>
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A16" s="23">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2508,14 +2508,14 @@
         <v>15824431</v>
       </c>
       <c r="I16" s="26">
-        <f>E16/F16</f>
+        <f t="shared" si="1"/>
         <v>0.78259559293089465</v>
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A17" s="23">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2544,14 +2544,14 @@
         <v>13148762</v>
       </c>
       <c r="I17" s="26">
-        <f>E17/F17</f>
+        <f t="shared" si="1"/>
         <v>0.75821333164167948</v>
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A18" s="23">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2576,15 +2576,15 @@
         <v>14368085</v>
       </c>
       <c r="I18" s="26">
-        <f>E18/F18</f>
+        <f t="shared" si="1"/>
         <v>0.91877334858006721</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A19" s="23">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B19" s="35" t="s">
@@ -2613,15 +2613,15 @@
         <v>14247522</v>
       </c>
       <c r="I19" s="39">
-        <f>E19/F19</f>
+        <f t="shared" si="1"/>
         <v>0.90988287845841742</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A20" s="23">
-        <f>A19+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2630,11 +2630,11 @@
       <c r="C20" s="10"/>
       <c r="D20" s="15"/>
       <c r="E20" s="33">
-        <f>[5]Паспорт!$E$31</f>
+        <f>[10]Паспорт!$E$31</f>
         <v>1071084</v>
       </c>
       <c r="F20" s="24">
-        <f>[5]Паспорт!$F$31</f>
+        <f>[10]Паспорт!$F$31</f>
         <v>1302257</v>
       </c>
       <c r="G20" s="29">
@@ -2646,15 +2646,15 @@
         <v>14097743</v>
       </c>
       <c r="I20" s="26">
-        <f>E20/F20</f>
+        <f t="shared" si="1"/>
         <v>0.82248281253239564</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A21" s="23">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2667,11 +2667,11 @@
         <v>13</v>
       </c>
       <c r="E21" s="28">
-        <f>[10]Лист1!$E$31</f>
+        <f>[11]Лист1!$E$31</f>
         <v>803358</v>
       </c>
       <c r="F21" s="24">
-        <f>[10]Лист1!$F$31</f>
+        <f>[11]Лист1!$F$31</f>
         <v>1444922</v>
       </c>
       <c r="G21" s="29">
@@ -2683,15 +2683,15 @@
         <v>11155078</v>
       </c>
       <c r="I21" s="26">
-        <f>E21/F21</f>
+        <f t="shared" si="1"/>
         <v>0.55598710518630068</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A22" s="23">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -2700,11 +2700,11 @@
       <c r="C22" s="10"/>
       <c r="D22" s="15"/>
       <c r="E22" s="33">
-        <f>[11]Лист1!$E$33</f>
+        <f>[12]Лист1!$E$33</f>
         <v>2880934</v>
       </c>
       <c r="F22" s="24">
-        <f>[11]Лист1!$F$33</f>
+        <f>[12]Лист1!$F$33</f>
         <v>3213050</v>
       </c>
       <c r="G22" s="29">
@@ -2716,15 +2716,15 @@
         <v>13586950</v>
       </c>
       <c r="I22" s="26">
-        <f>E22/F22</f>
+        <f t="shared" si="1"/>
         <v>0.89663528423149341</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A23" s="23">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2737,11 +2737,11 @@
         <v>15</v>
       </c>
       <c r="E23" s="27">
-        <f>[12]Лист1!$E$32</f>
+        <f>[13]Лист1!$E$32</f>
         <v>2923314</v>
       </c>
       <c r="F23" s="27">
-        <f>[12]Лист1!$F$32</f>
+        <f>[13]Лист1!$F$32</f>
         <v>3073214</v>
       </c>
       <c r="G23" s="12">
@@ -2753,14 +2753,14 @@
         <v>9526786</v>
       </c>
       <c r="I23" s="26">
-        <f>E23/F23</f>
+        <f t="shared" si="1"/>
         <v>0.95122370261231404</v>
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A24" s="23">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -2773,11 +2773,11 @@
         <v>13</v>
       </c>
       <c r="E24" s="28">
-        <f>[13]Лист1!$E$32</f>
+        <f>[14]Лист1!$E$32</f>
         <v>1115136</v>
       </c>
       <c r="F24" s="24">
-        <f>[13]Лист1!$F$32</f>
+        <f>[14]Лист1!$F$32</f>
         <v>3369696</v>
       </c>
       <c r="G24" s="29">
@@ -2789,15 +2789,15 @@
         <v>13430304</v>
       </c>
       <c r="I24" s="26">
-        <f>E24/F24</f>
+        <f t="shared" si="1"/>
         <v>0.33093074271388279</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A25" s="23">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2822,14 +2822,14 @@
         <v>10920000</v>
       </c>
       <c r="I25" s="26">
-        <f>E25/F25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A26" s="23">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2854,14 +2854,14 @@
         <v>14844641</v>
       </c>
       <c r="I26" s="26">
-        <f>E26/F26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A27" s="23">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -2870,11 +2870,11 @@
       <c r="C27" s="10"/>
       <c r="D27" s="15"/>
       <c r="E27" s="33">
-        <f>[14]Паспорт!$E$32</f>
+        <f>[15]Паспорт!$E$32</f>
         <v>4103201</v>
       </c>
       <c r="F27" s="33">
-        <f>[14]Паспорт!$F$32</f>
+        <f>[15]Паспорт!$F$32</f>
         <v>4449033</v>
       </c>
       <c r="G27" s="31">
@@ -2886,15 +2886,15 @@
         <v>12350967</v>
       </c>
       <c r="I27" s="26">
-        <f>E27/F27</f>
+        <f t="shared" si="1"/>
         <v>0.92226805240599474</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A28" s="23">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -2919,14 +2919,14 @@
         <v>6488453</v>
       </c>
       <c r="I28" s="26">
-        <f>E28/F28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A29" s="23">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -2953,15 +2953,15 @@
         <v>11161506</v>
       </c>
       <c r="I29" s="26">
-        <f>E29/F29</f>
+        <f t="shared" si="1"/>
         <v>0.37795198505132754</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A30" s="23">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2974,11 +2974,11 @@
         <v>13</v>
       </c>
       <c r="E30" s="27">
-        <f>[15]Лист1!$E$30</f>
+        <f>[16]Лист1!$E$30</f>
         <v>6255857</v>
       </c>
       <c r="F30" s="27">
-        <f>[15]Лист1!$F$30</f>
+        <f>[16]Лист1!$F$30</f>
         <v>6692357</v>
       </c>
       <c r="G30" s="12">
@@ -2990,14 +2990,14 @@
         <v>12207643</v>
       </c>
       <c r="I30" s="26">
-        <f>E30/F30</f>
+        <f t="shared" si="1"/>
         <v>0.93477634262487785</v>
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A31" s="23">
-        <f>A30+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -3010,11 +3010,11 @@
         <v>13</v>
       </c>
       <c r="E31" s="27">
-        <f>[16]Лист1!$E$37</f>
+        <f>[17]Лист1!$E$37</f>
         <v>8320286</v>
       </c>
       <c r="F31" s="27">
-        <f>[16]Лист1!$F$37</f>
+        <f>[17]Лист1!$F$37</f>
         <v>9174267</v>
       </c>
       <c r="G31" s="12">
@@ -3026,14 +3026,14 @@
         <v>9725733</v>
       </c>
       <c r="I31" s="26">
-        <f>E31/F31</f>
+        <f t="shared" si="1"/>
         <v>0.90691561516576746</v>
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A32" s="23">
-        <f>A31+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -3062,14 +3062,14 @@
         <v>7912600</v>
       </c>
       <c r="I32" s="26">
-        <f>E32/F32</f>
+        <f t="shared" si="1"/>
         <v>0.71122217971510227</v>
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A33" s="23">
-        <f>A32+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3082,11 +3082,11 @@
         <v>13</v>
       </c>
       <c r="E33" s="24">
-        <f>[17]Лист1!$E$31</f>
+        <f>[19]Лист1!$E$31</f>
         <v>9915346</v>
       </c>
       <c r="F33" s="24">
-        <f>[17]Лист1!$F$31</f>
+        <f>[19]Лист1!$F$31</f>
         <v>10369106</v>
       </c>
       <c r="G33" s="29">
@@ -3098,15 +3098,15 @@
         <v>6430894</v>
       </c>
       <c r="I33" s="26">
-        <f>E33/F33</f>
+        <f t="shared" si="1"/>
         <v>0.95623923605371575</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A34" s="23">
-        <f>A33+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -3119,11 +3119,11 @@
         <v>13</v>
       </c>
       <c r="E34" s="32">
-        <f>[19]Лист1!$E$31</f>
+        <f>[20]Лист1!$E$31</f>
         <v>4767570</v>
       </c>
       <c r="F34" s="27">
-        <f>[19]Лист1!$F$31</f>
+        <f>[20]Лист1!$F$31</f>
         <v>8693057</v>
       </c>
       <c r="G34" s="12">
@@ -3135,15 +3135,15 @@
         <v>5306943</v>
       </c>
       <c r="I34" s="26">
-        <f>E34/F34</f>
+        <f t="shared" si="1"/>
         <v>0.54843422745301218</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A35" s="23">
-        <f>A34+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3156,11 +3156,11 @@
         <v>13</v>
       </c>
       <c r="E35" s="24">
-        <f>[20]Лист1!$E$39</f>
+        <f>[21]Лист1!$E$39</f>
         <v>11248736</v>
       </c>
       <c r="F35" s="24">
-        <f>[20]Лист1!$F$39</f>
+        <f>[21]Лист1!$F$39</f>
         <v>12230442</v>
       </c>
       <c r="G35" s="29">
@@ -3172,15 +3172,15 @@
         <v>5969558</v>
       </c>
       <c r="I35" s="26">
-        <f>E35/F35</f>
+        <f t="shared" si="1"/>
         <v>0.91973258202769781</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A36" s="23">
-        <f>A35+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -3209,15 +3209,15 @@
         <v>4671023</v>
       </c>
       <c r="I36" s="26">
-        <f>E36/F36</f>
+        <f t="shared" si="1"/>
         <v>0.90809884460989576</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A37" s="23">
-        <f>A36+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3230,11 +3230,11 @@
         <v>13</v>
       </c>
       <c r="E37" s="32">
-        <f>[21]Лист1!$E$31</f>
+        <f>[23]Лист1!$E$31</f>
         <v>7344547</v>
       </c>
       <c r="F37" s="27">
-        <f>[21]Лист1!$F$31</f>
+        <f>[23]Лист1!$F$31</f>
         <v>12176093</v>
       </c>
       <c r="G37" s="12">
@@ -3246,15 +3246,15 @@
         <v>4623907</v>
       </c>
       <c r="I37" s="26">
-        <f>E37/F37</f>
+        <f t="shared" si="1"/>
         <v>0.60319406233181694</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A38" s="23">
-        <f>A37+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -3267,11 +3267,11 @@
         <v>13</v>
       </c>
       <c r="E38" s="32">
-        <f>[23]Лист1!$E$31</f>
+        <f>[24]Лист1!$E$31</f>
         <v>4780944</v>
       </c>
       <c r="F38" s="27">
-        <f>[23]Лист1!$F$31</f>
+        <f>[24]Лист1!$F$31</f>
         <v>13180338</v>
       </c>
       <c r="G38" s="12">
@@ -3283,15 +3283,15 @@
         <v>3619662</v>
       </c>
       <c r="I38" s="26">
-        <f>E38/F38</f>
+        <f t="shared" si="1"/>
         <v>0.36273303461565248</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A39" s="23">
-        <f>A38+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -3304,11 +3304,11 @@
         <v>13</v>
       </c>
       <c r="E39" s="28">
-        <f>[24]Лист1!$E$30</f>
+        <f>[25]Лист1!$E$30</f>
         <v>10173760</v>
       </c>
       <c r="F39" s="24">
-        <f>[24]Лист1!$F$30</f>
+        <f>[25]Лист1!$F$30</f>
         <v>18138751</v>
       </c>
       <c r="G39" s="29">
@@ -3320,15 +3320,15 @@
         <v>1461249</v>
       </c>
       <c r="I39" s="26">
-        <f>E39/F39</f>
+        <f t="shared" si="1"/>
         <v>0.56088536636287689</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A40" s="23">
-        <f>A39+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -3357,15 +3357,15 @@
         <v>1496081</v>
       </c>
       <c r="I40" s="26">
-        <f>E40/F40</f>
+        <f t="shared" si="1"/>
         <v>0.81614787264036526</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="41" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="A41" s="23">
-        <f>A40+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -3378,11 +3378,11 @@
         <v>13</v>
       </c>
       <c r="E41" s="27">
-        <f>[25]Лист1!$E$26</f>
+        <f>[27]Лист1!$E$26</f>
         <v>17697766</v>
       </c>
       <c r="F41" s="27">
-        <f>[25]Лист1!$F$26</f>
+        <f>[27]Лист1!$F$26</f>
         <v>18498950</v>
       </c>
       <c r="G41" s="19">
@@ -3394,7 +3394,7 @@
         <v>-1698950</v>
       </c>
       <c r="I41" s="26">
-        <f>E41/F41</f>
+        <f t="shared" si="1"/>
         <v>0.95669029863857136</v>
       </c>
       <c r="J41" s="11"/>
@@ -3434,7 +3434,7 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="66.21875" customWidth="1"/>
@@ -3450,7 +3450,7 @@
     <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="13.8" thickBot="1">
       <c r="A2" s="53"/>
       <c r="B2" s="51"/>
       <c r="C2" s="61"/>
@@ -3506,7 +3506,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30.6">
       <c r="A3" s="23" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3521,11 +3521,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="28">
-        <f>[27]Лист1!$E$32</f>
+        <f>[28]Лист1!$E$32</f>
         <v>8848812</v>
       </c>
       <c r="F3" s="24">
-        <f>[27]Лист1!$F$32</f>
+        <f>[28]Лист1!$F$32</f>
         <v>18119313</v>
       </c>
       <c r="G3" s="29">

--- a/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Таблица выработки  ф-тов/Таблица выработки ф-тов.2019.xlsx
@@ -44,6 +44,7 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Выработка формокомплектов'!$A$3:$K$21</definedName>
@@ -928,10 +929,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>803358</v>
+            <v>1223262</v>
           </cell>
           <cell r="F31">
-            <v>1444922</v>
+            <v>1886978</v>
           </cell>
         </row>
       </sheetData>
@@ -980,10 +981,10 @@
       <sheetData sheetId="0">
         <row r="32">
           <cell r="E32">
-            <v>2923314</v>
+            <v>3720516</v>
           </cell>
           <cell r="F32">
-            <v>3073214</v>
+            <v>3921050</v>
           </cell>
         </row>
       </sheetData>
@@ -1313,10 +1314,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>7344547</v>
+            <v>7930195</v>
           </cell>
           <cell r="F31">
-            <v>12176093</v>
+            <v>12787609</v>
           </cell>
         </row>
       </sheetData>
@@ -1339,10 +1340,10 @@
       <sheetData sheetId="0">
         <row r="31">
           <cell r="E31">
-            <v>4780944</v>
+            <v>5883192</v>
           </cell>
           <cell r="F31">
-            <v>13180338</v>
+            <v>14305517</v>
           </cell>
         </row>
       </sheetData>
@@ -1417,10 +1418,10 @@
       <sheetData sheetId="0">
         <row r="26">
           <cell r="E26">
-            <v>17697766</v>
+            <v>20293006</v>
           </cell>
           <cell r="F26">
-            <v>18498950</v>
+            <v>21241214</v>
           </cell>
         </row>
       </sheetData>
@@ -1457,6 +1458,37 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+      <sheetName val="Лист2"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="A20">
+            <v>12600000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>986442</v>
+          </cell>
+          <cell r="F31">
+            <v>1121670</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1494,12 +1526,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="31">
-          <cell r="E31">
-            <v>613088</v>
-          </cell>
-          <cell r="F31">
-            <v>721402</v>
-          </cell>
+          <cell r="E31"/>
+          <cell r="F31"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1621,6 +1649,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="21">
+          <cell r="A21">
+            <v>14000000</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="E32">
             <v>645420</v>
@@ -1661,10 +1694,10 @@
       <sheetData sheetId="1">
         <row r="32">
           <cell r="E32">
-            <v>948096</v>
+            <v>1572846</v>
           </cell>
           <cell r="F32">
-            <v>1031915</v>
+            <v>1762816</v>
           </cell>
         </row>
       </sheetData>
@@ -2029,10 +2062,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2318,22 +2351,24 @@
         <v>13</v>
       </c>
       <c r="E11" s="27">
-        <v>557856</v>
+        <f>[29]Лист1!$E$31</f>
+        <v>986442</v>
       </c>
       <c r="F11" s="27">
-        <v>668458</v>
+        <f>[29]Лист1!$F$31</f>
+        <v>1121670</v>
       </c>
       <c r="G11" s="19">
-        <f>100%-F11/18900000</f>
-        <v>0.96463185185185185</v>
+        <f>100%-F11/[29]Лист1!$A$20</f>
+        <v>0.91097857142857142</v>
       </c>
       <c r="H11" s="20">
         <f>12600000-F11</f>
-        <v>11931542</v>
+        <v>11478330</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="1"/>
-        <v>0.83454158675638557</v>
+        <v>0.87944047714568452</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
@@ -2350,23 +2385,23 @@
       <c r="D12" s="15"/>
       <c r="E12" s="27">
         <f>[4]Лист1!$E$31</f>
-        <v>613088</v>
+        <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>[4]Лист1!$F$31</f>
-        <v>721402</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19">
         <f>100%-F12/19600000</f>
-        <v>0.96319377551020413</v>
+        <v>1</v>
       </c>
       <c r="H12" s="20">
         <f>18900000-F12</f>
-        <v>18178598</v>
-      </c>
-      <c r="I12" s="26">
+        <v>18900000</v>
+      </c>
+      <c r="I12" s="26" t="e">
         <f t="shared" si="1"/>
-        <v>0.84985625213126659</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12"/>
@@ -2536,7 +2571,7 @@
         <v>851238</v>
       </c>
       <c r="G17" s="12">
-        <f>100%-F17/14000000</f>
+        <f>100%-F17/[7]Лист1!$A$21</f>
         <v>0.93919728571428573</v>
       </c>
       <c r="H17" s="13">
@@ -2561,23 +2596,23 @@
       <c r="D18" s="15"/>
       <c r="E18" s="33">
         <f>[8]Паспорт!$E$32</f>
-        <v>948096</v>
+        <v>1572846</v>
       </c>
       <c r="F18" s="24">
         <f>[8]Паспорт!$F$32</f>
-        <v>1031915</v>
+        <v>1762816</v>
       </c>
       <c r="G18" s="29">
         <f>100%-F18/15400000</f>
-        <v>0.93299253246753244</v>
+        <v>0.88553142857142852</v>
       </c>
       <c r="H18" s="30">
         <f>15400000-F18</f>
-        <v>14368085</v>
+        <v>13637184</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="1"/>
-        <v>0.91877334858006721</v>
+        <v>0.8922349241214057</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
@@ -2668,23 +2703,23 @@
       </c>
       <c r="E21" s="28">
         <f>[11]Лист1!$E$31</f>
-        <v>803358</v>
+        <v>1223262</v>
       </c>
       <c r="F21" s="24">
         <f>[11]Лист1!$F$31</f>
-        <v>1444922</v>
+        <v>1886978</v>
       </c>
       <c r="G21" s="29">
         <f>100%-F21/16800000</f>
-        <v>0.91399273809523807</v>
+        <v>0.88767988095238093</v>
       </c>
       <c r="H21" s="30">
         <f>12600000-F21</f>
-        <v>11155078</v>
+        <v>10713022</v>
       </c>
       <c r="I21" s="26">
         <f t="shared" si="1"/>
-        <v>0.55598710518630068</v>
+        <v>0.64826510960912109</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
@@ -2738,23 +2773,23 @@
       </c>
       <c r="E23" s="27">
         <f>[13]Лист1!$E$32</f>
-        <v>2923314</v>
+        <v>3720516</v>
       </c>
       <c r="F23" s="27">
         <f>[13]Лист1!$F$32</f>
-        <v>3073214</v>
+        <v>3921050</v>
       </c>
       <c r="G23" s="12">
         <f>100%-F23/15400000</f>
-        <v>0.80044064935064929</v>
+        <v>0.74538636363636357</v>
       </c>
       <c r="H23" s="13">
         <f>12600000-F23</f>
-        <v>9526786</v>
+        <v>8678950</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="1"/>
-        <v>0.95122370261231404</v>
+        <v>0.94885706634702438</v>
       </c>
       <c r="J23" s="11"/>
     </row>
@@ -3231,23 +3266,23 @@
       </c>
       <c r="E37" s="32">
         <f>[23]Лист1!$E$31</f>
-        <v>7344547</v>
+        <v>7930195</v>
       </c>
       <c r="F37" s="27">
         <f>[23]Лист1!$F$31</f>
-        <v>12176093</v>
+        <v>12787609</v>
       </c>
       <c r="G37" s="12">
         <f>100%-F37/16800000</f>
-        <v>0.27523255952380954</v>
+        <v>0.23883279761904763</v>
       </c>
       <c r="H37" s="13">
         <f>16800000-F37</f>
-        <v>4623907</v>
+        <v>4012391</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="1"/>
-        <v>0.60319406233181694</v>
+        <v>0.62014681556184581</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="14"/>
@@ -3268,23 +3303,23 @@
       </c>
       <c r="E38" s="32">
         <f>[24]Лист1!$E$31</f>
-        <v>4780944</v>
+        <v>5883192</v>
       </c>
       <c r="F38" s="27">
         <f>[24]Лист1!$F$31</f>
-        <v>13180338</v>
+        <v>14305517</v>
       </c>
       <c r="G38" s="12">
         <f>100%-F38/16800000</f>
-        <v>0.21545607142857148</v>
+        <v>0.14848113095238091</v>
       </c>
       <c r="H38" s="13">
         <f>16800000-F38</f>
-        <v>3619662</v>
+        <v>2494483</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="1"/>
-        <v>0.36273303461565248</v>
+        <v>0.41125336469838875</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="14"/>
@@ -3379,23 +3414,23 @@
       </c>
       <c r="E41" s="27">
         <f>[27]Лист1!$E$26</f>
-        <v>17697766</v>
+        <v>20293006</v>
       </c>
       <c r="F41" s="27">
         <f>[27]Лист1!$F$26</f>
-        <v>18498950</v>
+        <v>21241214</v>
       </c>
       <c r="G41" s="19">
         <f>100%-F41/16800000</f>
-        <v>-0.1011279761904762</v>
+        <v>-0.26435797619047618</v>
       </c>
       <c r="H41" s="13">
         <f>16800000-F41</f>
-        <v>-1698950</v>
+        <v>-4441214</v>
       </c>
       <c r="I41" s="26">
         <f t="shared" si="1"/>
-        <v>0.95669029863857136</v>
+        <v>0.95535999025291118</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="14"/>
